--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="13_ncr:1_{CE627C6A-5BB3-41B3-AC5A-E60A0477CE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C50303B-3A39-445A-B596-96A4A4FA6A0E}"/>
+  <xr:revisionPtr revIDLastSave="560" documentId="13_ncr:1_{CE627C6A-5BB3-41B3-AC5A-E60A0477CE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CEABBCE-196E-4AF8-B30C-BB9E09F890A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{9CEB87A9-AAE3-4144-8460-A009C5F567C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbon_footprint" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Carbon_footprint!$A$1:$F$178</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="114">
-  <si>
-    <t>Product</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="215">
   <si>
     <t>Hähnchen Fleisch</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Kaffee</t>
   </si>
   <si>
-    <t>Carbon Footprint (per 100g / Item)</t>
-  </si>
-  <si>
     <t>Wurst</t>
   </si>
   <si>
@@ -168,21 +165,12 @@
     <t>Tomatenmark</t>
   </si>
   <si>
-    <t>Typical weight</t>
-  </si>
-  <si>
-    <t>Value taken from</t>
-  </si>
-  <si>
     <t>Cola</t>
   </si>
   <si>
     <t>Ginger Beer</t>
   </si>
   <si>
-    <t>Typical footprint</t>
-  </si>
-  <si>
     <t>Pfand</t>
   </si>
   <si>
@@ -240,9 +228,6 @@
     <t>Rapsöl</t>
   </si>
   <si>
-    <t>Thoma LS Holland</t>
-  </si>
-  <si>
     <t>Bergkäse</t>
   </si>
   <si>
@@ -267,9 +252,6 @@
     <t>Freiland Eier</t>
   </si>
   <si>
-    <t>Eä£€ 45%</t>
-  </si>
-  <si>
     <t>Pelati</t>
   </si>
   <si>
@@ -294,9 +276,6 @@
     <t>Corn meal??</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Fleisch / Fisch</t>
   </si>
   <si>
@@ -312,9 +291,6 @@
     <t>Getränke</t>
   </si>
   <si>
-    <t>Schnitzel Champ</t>
-  </si>
-  <si>
     <t>Eaternity</t>
   </si>
   <si>
@@ -376,6 +352,336 @@
   </si>
   <si>
     <t>Zitronen</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>footprint_per_100g</t>
+  </si>
+  <si>
+    <t>typical_weight</t>
+  </si>
+  <si>
+    <t>typical_footprint</t>
+  </si>
+  <si>
+    <t>value_from</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Lachsfilet</t>
+  </si>
+  <si>
+    <t>Putenbrustschnitzel</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Corona extra</t>
+  </si>
+  <si>
+    <t>Milchbrötchen</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>Brot / Milch</t>
+  </si>
+  <si>
+    <t>Vollmilch</t>
+  </si>
+  <si>
+    <t>Fri. Milch</t>
+  </si>
+  <si>
+    <t>Doppelkorn</t>
+  </si>
+  <si>
+    <t>Kinderpunsch</t>
+  </si>
+  <si>
+    <t>Traubensaft</t>
+  </si>
+  <si>
+    <t>Bananen Muesli</t>
+  </si>
+  <si>
+    <t>Bananen</t>
+  </si>
+  <si>
+    <t>Bergbauern Käse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teekanne Flirt </t>
+  </si>
+  <si>
+    <t>Landl Vanill</t>
+  </si>
+  <si>
+    <t>Griesspudding</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Käse</t>
+  </si>
+  <si>
+    <t>Bärlauch</t>
+  </si>
+  <si>
+    <t>Knoblauch</t>
+  </si>
+  <si>
+    <t>Dinkel Penne</t>
+  </si>
+  <si>
+    <t>Tomatensoße + Käse</t>
+  </si>
+  <si>
+    <t>Müsli</t>
+  </si>
+  <si>
+    <t>Vollkorn Mehl</t>
+  </si>
+  <si>
+    <t>Pesto</t>
+  </si>
+  <si>
+    <t>Räucherkäse</t>
+  </si>
+  <si>
+    <t>Linguine</t>
+  </si>
+  <si>
+    <t>Himbeere</t>
+  </si>
+  <si>
+    <t>Penne</t>
+  </si>
+  <si>
+    <t>Veltiner</t>
+  </si>
+  <si>
+    <t>Apfelsaft</t>
+  </si>
+  <si>
+    <t>Riesling</t>
+  </si>
+  <si>
+    <t>Ital. Salsiccia</t>
+  </si>
+  <si>
+    <t>Beerenauslese</t>
+  </si>
+  <si>
+    <t>Buttertoast</t>
+  </si>
+  <si>
+    <t>Spitzkohl</t>
+  </si>
+  <si>
+    <t>Lindt</t>
+  </si>
+  <si>
+    <t>Wiesenländer mild</t>
+  </si>
+  <si>
+    <t>Mittelhartkäse</t>
+  </si>
+  <si>
+    <t>Hirtenkäse</t>
+  </si>
+  <si>
+    <t>Mineralwasser</t>
+  </si>
+  <si>
+    <t>Schokobrötchen</t>
+  </si>
+  <si>
+    <t>Lauchzwiebeln</t>
+  </si>
+  <si>
+    <t>Bohnen</t>
+  </si>
+  <si>
+    <t>Sauerrahm</t>
+  </si>
+  <si>
+    <t>Gemüsebrühe</t>
+  </si>
+  <si>
+    <t>Speisestärke</t>
+  </si>
+  <si>
+    <t>Eierlikör</t>
+  </si>
+  <si>
+    <t>Backkakao</t>
+  </si>
+  <si>
+    <t>Glasur</t>
+  </si>
+  <si>
+    <t>Trauben</t>
+  </si>
+  <si>
+    <t>Hummus</t>
+  </si>
+  <si>
+    <t>Kichererbsen</t>
+  </si>
+  <si>
+    <t>Ricotta</t>
+  </si>
+  <si>
+    <t>Körniger Frischkäse</t>
+  </si>
+  <si>
+    <t>Laugeneck</t>
+  </si>
+  <si>
+    <t>Bretzel</t>
+  </si>
+  <si>
+    <t>Herzhafte Edelsalami</t>
+  </si>
+  <si>
+    <t>Kefir</t>
+  </si>
+  <si>
+    <t>Extra Professional</t>
+  </si>
+  <si>
+    <t>Thomy LS Holland</t>
+  </si>
+  <si>
+    <t>Ananas</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Vodka</t>
+  </si>
+  <si>
+    <t>Birnen</t>
+  </si>
+  <si>
+    <t>Zwieb. Rot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kochsch. </t>
+  </si>
+  <si>
+    <t>Frischk.</t>
+  </si>
+  <si>
+    <t>Kaerg. Balance</t>
+  </si>
+  <si>
+    <t>Club Mate</t>
+  </si>
+  <si>
+    <t>Wodka</t>
+  </si>
+  <si>
+    <t>Whisky</t>
+  </si>
+  <si>
+    <t>Heidelbeeren</t>
+  </si>
+  <si>
+    <t>Hafer Cuisine</t>
+  </si>
+  <si>
+    <t>Hafersahne</t>
+  </si>
+  <si>
+    <t>Schnitzel Champignons</t>
+  </si>
+  <si>
+    <t>Kalbsfleisch</t>
+  </si>
+  <si>
+    <t>Beemster mild</t>
+  </si>
+  <si>
+    <t>Prem. Hinterkoch</t>
+  </si>
+  <si>
+    <t>Schinkenspeck</t>
+  </si>
+  <si>
+    <t>Sojadrink</t>
+  </si>
+  <si>
+    <t>Kassler</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sauce Arrabbiata </t>
+  </si>
+  <si>
+    <t>Fusilli</t>
+  </si>
+  <si>
+    <t>Bufala</t>
+  </si>
+  <si>
+    <t>Tomatensauce</t>
+  </si>
+  <si>
+    <t>Ziegenkäse</t>
+  </si>
+  <si>
+    <t>Oatly Hafersahne</t>
+  </si>
+  <si>
+    <t>Olives</t>
+  </si>
+  <si>
+    <t>Aubergine</t>
+  </si>
+  <si>
+    <t>Linsen Pasta</t>
+  </si>
+  <si>
+    <t>Kichererbsen Pasta</t>
+  </si>
+  <si>
+    <t>Linsenmehl</t>
+  </si>
+  <si>
+    <t>Kichererbsenmehl</t>
+  </si>
+  <si>
+    <t>Fleischpflanzerl</t>
+  </si>
+  <si>
+    <t>Käsetheke</t>
+  </si>
+  <si>
+    <t>Chicoree</t>
+  </si>
+  <si>
+    <t>Schmand</t>
+  </si>
+  <si>
+    <t>Cooking Soya</t>
+  </si>
+  <si>
+    <t>Soja Granulat</t>
+  </si>
+  <si>
+    <t>Soy flour</t>
   </si>
 </sst>
 </file>
@@ -419,10 +725,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,41 +1047,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>178</v>
@@ -785,12 +1098,12 @@
         <v>712</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>422</v>
@@ -803,12 +1116,12 @@
         <v>1688</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>173</v>
@@ -821,12 +1134,12 @@
         <v>692</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>97</v>
@@ -839,12 +1152,12 @@
         <v>388</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>287</v>
@@ -857,12 +1170,12 @@
         <v>574</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>212</v>
@@ -875,12 +1188,12 @@
         <v>424</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>68</v>
@@ -893,12 +1206,12 @@
         <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>33</v>
@@ -911,12 +1224,12 @@
         <v>82.5</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>147</v>
@@ -929,12 +1242,12 @@
         <v>367.5</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>239</v>
@@ -947,12 +1260,12 @@
         <v>478</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>44</v>
@@ -965,12 +1278,12 @@
         <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>32</v>
@@ -983,12 +1296,12 @@
         <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>55</v>
@@ -1001,12 +1314,12 @@
         <v>275</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -1019,12 +1332,12 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12</v>
@@ -1037,12 +1350,12 @@
         <v>180</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>49</v>
@@ -1055,12 +1368,12 @@
         <v>490</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>85</v>
@@ -1073,30 +1386,30 @@
         <v>212.5</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>33</v>
       </c>
       <c r="C19">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>25</v>
@@ -1109,12 +1422,12 @@
         <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>37</v>
@@ -1127,12 +1440,12 @@
         <v>277.5</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>235</v>
@@ -1145,12 +1458,12 @@
         <v>587.5</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>23</v>
@@ -1163,12 +1476,12 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>83</v>
@@ -1181,12 +1494,12 @@
         <v>166</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>18</v>
@@ -1199,12 +1512,12 @@
         <v>180</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>11</v>
@@ -1217,12 +1530,12 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>31</v>
@@ -1235,12 +1548,12 @@
         <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>100</v>
@@ -1253,12 +1566,12 @@
         <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>34</v>
@@ -1271,12 +1584,12 @@
         <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>76</v>
@@ -1289,12 +1602,12 @@
         <v>760</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>20</v>
@@ -1307,12 +1620,12 @@
         <v>200</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14</v>
@@ -1325,12 +1638,12 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>179</v>
@@ -1343,12 +1656,12 @@
         <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>275</v>
@@ -1361,12 +1674,12 @@
         <v>1375</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>212</v>
@@ -1379,15 +1692,15 @@
         <v>530</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>3.61</v>
@@ -1400,12 +1713,12 @@
         <v>90.25</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>4.2300000000000004</v>
@@ -1418,12 +1731,12 @@
         <v>42.300000000000004</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>235</v>
@@ -1436,12 +1749,12 @@
         <v>470</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>303</v>
@@ -1454,12 +1767,12 @@
         <v>757.5</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>31</v>
@@ -1472,15 +1785,15 @@
         <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>235</v>
@@ -1493,12 +1806,12 @@
         <v>470</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>23</v>
@@ -1511,12 +1824,12 @@
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>43</v>
@@ -1529,12 +1842,12 @@
         <v>64.5</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1">
         <v>23</v>
@@ -1547,12 +1860,12 @@
         <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1">
         <v>51</v>
@@ -1565,12 +1878,12 @@
         <v>510</v>
       </c>
       <c r="F45" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1">
         <v>51</v>
@@ -1583,72 +1896,72 @@
         <v>510</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:D97" si="1">B47*(C47/100)</f>
-        <v>212.5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>17</v>
+        <f t="shared" ref="D47:D159" si="1">B47*(C47/100)</f>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C49">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>160</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
         <v>32</v>
@@ -1660,349 +1973,346 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="E50" t="s">
-        <v>52</v>
-      </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C51">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>180</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="C52">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>470</v>
-      </c>
-      <c r="E53" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1">
         <v>55</v>
       </c>
-      <c r="B54" s="1">
-        <v>40</v>
-      </c>
       <c r="C54">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>275</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C55">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-      <c r="E55" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>200</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>15</v>
       </c>
       <c r="C57">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E57" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="C58">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>422.5</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>169</v>
+        <v>6.14</v>
       </c>
       <c r="C59">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>422.5</v>
+        <v>61.4</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>6.14</v>
+        <v>31</v>
       </c>
       <c r="C60">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>61.4</v>
+        <v>155</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>31</v>
       </c>
       <c r="C61">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>232.5</v>
       </c>
       <c r="E61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="C62">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>232.5</v>
+        <v>700</v>
       </c>
       <c r="E62" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="C63">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="E63" t="s">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="B64" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C64">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>120</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="C65">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>470</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="C66">
+        <v>1000</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="1"/>
-        <v>470</v>
-      </c>
-      <c r="E66" t="s">
-        <v>21</v>
-      </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>20</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="C67">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>234.24999999999997</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>9.3699999999999992</v>
@@ -2015,48 +2325,48 @@
         <v>234.24999999999997</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>9.3699999999999992</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C69">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
-        <v>234.24999999999997</v>
+        <v>23.25</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>9.3000000000000007</v>
+        <v>48</v>
       </c>
       <c r="C70">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>23.25</v>
+        <v>240</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>48</v>
@@ -2069,105 +2379,105 @@
         <v>240</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C72">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>374</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>68</v>
+        <v>9.25</v>
       </c>
       <c r="C73">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
-        <v>374</v>
+        <v>92.5</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>9.25</v>
+        <v>51</v>
       </c>
       <c r="C74">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>92.5</v>
+        <v>168.29999999999998</v>
+      </c>
+      <c r="E74" t="s">
+        <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="C75">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="D75">
         <f t="shared" si="1"/>
-        <v>168.29999999999998</v>
-      </c>
-      <c r="E75" t="s">
-        <v>46</v>
+        <v>712</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>178</v>
+        <v>4.43</v>
       </c>
       <c r="C76">
         <v>400</v>
       </c>
       <c r="D76">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>17.72</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>4.43</v>
@@ -2179,241 +2489,244 @@
         <f t="shared" si="1"/>
         <v>17.72</v>
       </c>
+      <c r="E77" t="s">
+        <v>75</v>
+      </c>
       <c r="F77" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>4.43</v>
+        <v>20</v>
       </c>
       <c r="C78">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D78">
         <f t="shared" si="1"/>
-        <v>17.72</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s">
         <v>82</v>
-      </c>
-      <c r="F78" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="E79" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="1">
-        <v>20</v>
-      </c>
-      <c r="C79">
-        <v>250</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E79" t="s">
-        <v>85</v>
-      </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B80" s="1">
-        <v>1200</v>
+        <v>11</v>
       </c>
       <c r="C80">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>33</v>
       </c>
       <c r="E80" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B81" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C81">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>187.5</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B82" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C82">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="D82">
         <f t="shared" si="1"/>
-        <v>187.5</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B83" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C83">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="E83" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F83" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B84" s="1">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="C84">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D84">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>1068</v>
+      </c>
+      <c r="E84" t="s">
+        <v>90</v>
       </c>
       <c r="F84" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B85" s="1">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="C85">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>1210</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F85" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B86" s="1">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="C86">
         <v>500</v>
       </c>
       <c r="D86">
         <f t="shared" si="1"/>
-        <v>1210</v>
+        <v>160</v>
       </c>
       <c r="E86" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B87" s="1">
-        <v>32</v>
+        <v>303</v>
       </c>
       <c r="C87">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>757.5</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B88" s="1">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="C88">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D88">
         <f t="shared" si="1"/>
-        <v>757.5</v>
+        <v>470</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B89" s="1">
         <v>235</v>
@@ -2426,78 +2739,78 @@
         <v>470</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B90" s="1">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="C90">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D90">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>82.5</v>
       </c>
       <c r="E90" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B91" s="1">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="C91">
         <v>250</v>
       </c>
       <c r="D91">
         <f t="shared" si="1"/>
-        <v>82.5</v>
+        <v>367.5</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B92" s="1">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="C92">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
-        <v>367.5</v>
+        <v>277.5</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B93" s="1">
         <v>37</v>
@@ -2510,91 +2823,1910 @@
         <v>277.5</v>
       </c>
       <c r="E93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F93" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B94" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="D94">
         <f t="shared" si="1"/>
-        <v>277.5</v>
-      </c>
-      <c r="E94" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="F94" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B95" s="1">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C95">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="D95">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>735</v>
+      </c>
+      <c r="E95" t="s">
+        <v>102</v>
       </c>
       <c r="F95" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B96" s="1">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C96">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="D96">
         <f t="shared" si="1"/>
-        <v>735</v>
-      </c>
-      <c r="E96" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F96" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="1">
+        <v>178</v>
+      </c>
+      <c r="C97">
+        <v>250</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+      <c r="F97" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="1">
         <v>113</v>
       </c>
-      <c r="B97" s="1">
+      <c r="C98">
+        <v>500</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>565</v>
+      </c>
+      <c r="E98" t="s">
+        <v>113</v>
+      </c>
+      <c r="F98" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="1">
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <v>500</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="1">
+        <v>62</v>
+      </c>
+      <c r="C100">
+        <v>500</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="E100" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="1">
+        <v>151</v>
+      </c>
+      <c r="C101">
+        <v>200</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="F101" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" s="1">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F102" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="1">
+        <v>49</v>
+      </c>
+      <c r="C103">
+        <v>1000</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="1">
+        <v>49</v>
+      </c>
+      <c r="C104">
+        <v>1000</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="1">
+        <v>105</v>
+      </c>
+      <c r="C105">
+        <v>700</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+      <c r="E105" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="1">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>1000</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E106" t="s">
+        <v>122</v>
+      </c>
+      <c r="F106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="1">
+        <v>21</v>
+      </c>
+      <c r="C107">
+        <v>700</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="E107" t="s">
+        <v>136</v>
+      </c>
+      <c r="F107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="1">
         <v>14</v>
       </c>
-      <c r="C97">
+      <c r="C108">
+        <v>1500</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="1">
+        <v>235</v>
+      </c>
+      <c r="C109">
+        <v>200</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>470</v>
+      </c>
+      <c r="E109" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="1">
+        <v>179</v>
+      </c>
+      <c r="C110">
+        <v>100</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="E110" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" s="1">
+        <v>55</v>
+      </c>
+      <c r="C111">
         <v>500</v>
       </c>
-      <c r="D97">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="F97" t="s">
-        <v>89</v>
-      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" s="1">
+        <v>55</v>
+      </c>
+      <c r="C112">
+        <v>250</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="1">
+        <v>300</v>
+      </c>
+      <c r="C113">
+        <v>350</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="F113" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" s="1">
+        <v>235</v>
+      </c>
+      <c r="C114">
+        <v>200</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>470</v>
+      </c>
+      <c r="E114" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" s="1">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>100</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" s="1">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <v>200</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="1">
+        <v>32</v>
+      </c>
+      <c r="C117">
+        <v>500</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" s="1">
+        <v>46</v>
+      </c>
+      <c r="C118">
+        <v>200</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="E118" t="s">
+        <v>134</v>
+      </c>
+      <c r="F118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" s="1">
+        <v>21</v>
+      </c>
+      <c r="C119">
+        <v>700</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="E119" t="s">
+        <v>136</v>
+      </c>
+      <c r="F119" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" s="1">
+        <v>235</v>
+      </c>
+      <c r="C120">
+        <v>200</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>470</v>
+      </c>
+      <c r="E120" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="1">
+        <v>32</v>
+      </c>
+      <c r="C121">
+        <v>500</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" s="1">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <v>200</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F122" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" s="1">
+        <v>32</v>
+      </c>
+      <c r="C123">
+        <v>500</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124" s="1">
+        <v>37</v>
+      </c>
+      <c r="C124">
+        <v>750</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>277.5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>143</v>
+      </c>
+      <c r="B125" s="1">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>1000</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F125" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>144</v>
+      </c>
+      <c r="B126" s="1">
+        <v>37</v>
+      </c>
+      <c r="C126">
+        <v>750</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>277.5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" s="1">
+        <v>212</v>
+      </c>
+      <c r="C127">
+        <v>200</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>424</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128" s="1">
+        <v>212</v>
+      </c>
+      <c r="C128">
+        <v>200</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>424</v>
+      </c>
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="1">
+        <v>37</v>
+      </c>
+      <c r="C129">
+        <v>750</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>277.5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="1">
+        <v>31</v>
+      </c>
+      <c r="C130">
+        <v>750</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>232.5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>59</v>
+      </c>
+      <c r="F130" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C131">
+        <v>500</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="F131" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" s="1">
+        <v>100</v>
+      </c>
+      <c r="C132">
+        <v>100</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E132" t="s">
+        <v>26</v>
+      </c>
+      <c r="F132" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" s="1">
+        <v>216</v>
+      </c>
+      <c r="C133">
+        <v>200</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+      <c r="E133" t="s">
+        <v>151</v>
+      </c>
+      <c r="F133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" s="1">
+        <v>85</v>
+      </c>
+      <c r="C134">
+        <v>200</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E134" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" s="1">
+        <v>18</v>
+      </c>
+      <c r="C135">
+        <v>1000</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="E135" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>154</v>
+      </c>
+      <c r="B136" s="1">
+        <v>62</v>
+      </c>
+      <c r="C136">
+        <v>500</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="E136" t="s">
+        <v>115</v>
+      </c>
+      <c r="F136" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C137">
+        <v>250</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="1"/>
+        <v>23.25</v>
+      </c>
+      <c r="E137" t="s">
+        <v>67</v>
+      </c>
+      <c r="F137" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138" s="1">
+        <v>26</v>
+      </c>
+      <c r="C138">
+        <v>300</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="F138" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>157</v>
+      </c>
+      <c r="B139" s="1">
+        <v>86</v>
+      </c>
+      <c r="C139">
+        <v>250</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="F139" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="1">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>250</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="F140" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>159</v>
+      </c>
+      <c r="B141" s="1">
+        <v>19</v>
+      </c>
+      <c r="C141">
+        <v>500</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="F141" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" s="1">
+        <v>105</v>
+      </c>
+      <c r="C142">
+        <v>700</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+      <c r="E142" t="s">
+        <v>102</v>
+      </c>
+      <c r="F142" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>161</v>
+      </c>
+      <c r="B143" s="1">
+        <v>26</v>
+      </c>
+      <c r="C143">
+        <v>500</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="F143" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" s="1">
+        <v>100</v>
+      </c>
+      <c r="C144">
+        <v>100</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E144" t="s">
+        <v>26</v>
+      </c>
+      <c r="F144" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>163</v>
+      </c>
+      <c r="B145" s="1">
+        <v>11</v>
+      </c>
+      <c r="C145">
+        <v>750</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="1"/>
+        <v>82.5</v>
+      </c>
+      <c r="F145" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>164</v>
+      </c>
+      <c r="B146" s="1">
+        <v>26</v>
+      </c>
+      <c r="C146">
+        <v>200</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E146" t="s">
+        <v>165</v>
+      </c>
+      <c r="F146" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>166</v>
+      </c>
+      <c r="B147" s="1">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>400</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="F147" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" s="1">
+        <v>83</v>
+      </c>
+      <c r="C148">
+        <v>200</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="E148" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" s="1">
+        <v>29</v>
+      </c>
+      <c r="C149">
+        <v>250</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>169</v>
+      </c>
+      <c r="F149" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" s="1">
+        <v>49</v>
+      </c>
+      <c r="C150">
+        <v>200</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>174</v>
+      </c>
+      <c r="B151" s="1">
+        <v>182</v>
+      </c>
+      <c r="C151">
+        <v>1000</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="1"/>
+        <v>1820</v>
+      </c>
+      <c r="F151" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" s="1">
+        <v>157</v>
+      </c>
+      <c r="C152">
+        <v>200</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+      <c r="F152" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>176</v>
+      </c>
+      <c r="B153" s="1">
+        <v>105</v>
+      </c>
+      <c r="C153">
+        <v>700</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+      <c r="E153" t="s">
+        <v>102</v>
+      </c>
+      <c r="F153" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>177</v>
+      </c>
+      <c r="B154" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="C154">
+        <v>300</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="1"/>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="F154" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>178</v>
+      </c>
+      <c r="B155" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C155">
+        <v>500</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="1"/>
+        <v>46.5</v>
+      </c>
+      <c r="F155" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>179</v>
+      </c>
+      <c r="B156" s="1">
+        <v>287</v>
+      </c>
+      <c r="C156">
+        <v>150</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="1"/>
+        <v>430.5</v>
+      </c>
+      <c r="F156" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" s="1">
+        <v>83</v>
+      </c>
+      <c r="C157">
+        <v>300</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+      <c r="F157" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>181</v>
+      </c>
+      <c r="B158" s="1">
+        <v>280</v>
+      </c>
+      <c r="C158">
+        <v>250</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="F158" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>182</v>
+      </c>
+      <c r="B159" s="1">
+        <f>VLOOKUP(E159,A:B,2,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="C159">
+        <v>500</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="E159" t="s">
+        <v>42</v>
+      </c>
+      <c r="F159" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>183</v>
+      </c>
+      <c r="B160" s="1">
+        <v>105</v>
+      </c>
+      <c r="C160">
+        <v>700</v>
+      </c>
+      <c r="D160">
+        <f t="shared" ref="D160:D187" si="2">B160*(C160/100)</f>
+        <v>735</v>
+      </c>
+      <c r="F160" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>184</v>
+      </c>
+      <c r="B161" s="1">
+        <v>105</v>
+      </c>
+      <c r="C161">
+        <v>700</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>735</v>
+      </c>
+      <c r="F161" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>185</v>
+      </c>
+      <c r="B162" s="1">
+        <v>12</v>
+      </c>
+      <c r="C162">
+        <v>250</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F162" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>186</v>
+      </c>
+      <c r="B163" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="C163">
+        <v>200</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>12.28</v>
+      </c>
+      <c r="F163" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>187</v>
+      </c>
+      <c r="B164" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="C164">
+        <v>200</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>12.28</v>
+      </c>
+      <c r="E164" t="s">
+        <v>186</v>
+      </c>
+      <c r="F164" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1142</v>
+      </c>
+      <c r="C165">
+        <v>200</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>2284</v>
+      </c>
+      <c r="F165" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>190</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" ref="B166:B172" si="3">VLOOKUP(E166,A:B,2,FALSE)</f>
+        <v>235</v>
+      </c>
+      <c r="C166">
+        <f t="shared" ref="C166:C172" si="4">VLOOKUP(E166,A:C,3,FALSE)</f>
+        <v>250</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>587.5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>20</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" ref="F166:F172" si="5">VLOOKUP(E166,A:F,6,FALSE)</f>
+        <v>Milchprodukte / Eier</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>191</v>
+      </c>
+      <c r="B167" s="2">
+        <f t="shared" si="3"/>
+        <v>287</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>574</v>
+      </c>
+      <c r="E167" t="s">
+        <v>4</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="5"/>
+        <v>Fleisch / Fisch</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>192</v>
+      </c>
+      <c r="B168" s="2">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+      <c r="E168" t="s">
+        <v>116</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="5"/>
+        <v>Fleisch / Fisch</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>193</v>
+      </c>
+      <c r="B169" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="E169" t="s">
+        <v>55</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="5"/>
+        <v>Sonstiges</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>194</v>
+      </c>
+      <c r="B170" s="2">
+        <f t="shared" si="3"/>
+        <v>287</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>574</v>
+      </c>
+      <c r="E170" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="5"/>
+        <v>Fleisch / Fisch</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>197</v>
+      </c>
+      <c r="B171" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="5"/>
+        <v>Sonstiges</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>198</v>
+      </c>
+      <c r="B172" s="2">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>422.5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>56</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="5"/>
+        <v>Milchprodukte / Eier</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>199</v>
+      </c>
+      <c r="B173" s="2">
+        <v>23</v>
+      </c>
+      <c r="C173">
+        <v>400</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="F173" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B174" s="2">
+        <f>VLOOKUP(E174,A:B,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="C174">
+        <f>VLOOKUP(E174,A:C,3,FALSE)</f>
+        <v>400</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E174" t="s">
+        <v>199</v>
+      </c>
+      <c r="F174" t="str">
+        <f>VLOOKUP(E174,A:F,6,FALSE)</f>
+        <v>Obst / Gemüse</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>201</v>
+      </c>
+      <c r="B175" s="2">
+        <f>VLOOKUP(E175,A:B,2,FALSE)</f>
+        <v>6.14</v>
+      </c>
+      <c r="C175">
+        <f>VLOOKUP(E175,A:C,3,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>12.28</v>
+      </c>
+      <c r="E175" t="s">
+        <v>186</v>
+      </c>
+      <c r="F175" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>209</v>
+      </c>
+      <c r="B176" s="2">
+        <f>VLOOKUP(E176,A:B,2,FALSE)</f>
+        <v>235</v>
+      </c>
+      <c r="C176">
+        <v>140</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>329</v>
+      </c>
+      <c r="E176" t="s">
+        <v>130</v>
+      </c>
+      <c r="F176" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>208</v>
+      </c>
+      <c r="B177" s="2">
+        <f>VLOOKUP(E177,A:B,2,FALSE)</f>
+        <v>178</v>
+      </c>
+      <c r="C177">
+        <v>200</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>356</v>
+      </c>
+      <c r="E177" t="s">
+        <v>74</v>
+      </c>
+      <c r="F177" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>195</v>
+      </c>
+      <c r="B178" s="1">
+        <v>150</v>
+      </c>
+      <c r="C178">
+        <v>69</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>103.49999999999999</v>
+      </c>
+      <c r="F178" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" s="1">
+        <v>168</v>
+      </c>
+      <c r="C179">
+        <v>120</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>201.6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>202</v>
+      </c>
+      <c r="B180" s="2">
+        <v>22</v>
+      </c>
+      <c r="C180">
+        <v>200</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F180" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>203</v>
+      </c>
+      <c r="B181" s="1">
+        <v>41</v>
+      </c>
+      <c r="C181">
+        <v>200</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F181" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>204</v>
+      </c>
+      <c r="B182" s="1">
+        <v>25</v>
+      </c>
+      <c r="C182">
+        <v>250</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>206</v>
+      </c>
+      <c r="F182" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>205</v>
+      </c>
+      <c r="B183" s="1">
+        <v>27</v>
+      </c>
+      <c r="C183">
+        <v>250</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>67.5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>207</v>
+      </c>
+      <c r="F183" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>210</v>
+      </c>
+      <c r="B184" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C184">
+        <v>250</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>13.25</v>
+      </c>
+      <c r="F184" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>211</v>
+      </c>
+      <c r="B185" s="1">
+        <v>86</v>
+      </c>
+      <c r="C185">
+        <v>200</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="F185" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>212</v>
+      </c>
+      <c r="B186" s="1">
+        <v>15</v>
+      </c>
+      <c r="C186">
+        <v>200</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E186" t="s">
+        <v>54</v>
+      </c>
+      <c r="F186" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>213</v>
+      </c>
+      <c r="B187" s="1">
+        <v>73</v>
+      </c>
+      <c r="C187">
+        <v>500</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="E187" t="s">
+        <v>214</v>
+      </c>
+      <c r="F187" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B189" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F178" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\OneDrive\Dokumente\Count_prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="560" documentId="13_ncr:1_{CE627C6A-5BB3-41B3-AC5A-E60A0477CE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CEABBCE-196E-4AF8-B30C-BB9E09F890A5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE91FE44-BF38-44FB-844C-1B53654C778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{9CEB87A9-AAE3-4144-8460-A009C5F567C6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Carbon_footprint" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Carbon_footprint!$A$1:$F$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Carbon_footprint!$A$1:$F$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="227">
   <si>
     <t>Hähnchen Fleisch</t>
   </si>
@@ -682,6 +682,42 @@
   </si>
   <si>
     <t>Soy flour</t>
+  </si>
+  <si>
+    <t>Rosenkohl</t>
+  </si>
+  <si>
+    <t>Garnelen</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Kokosöl</t>
+  </si>
+  <si>
+    <t>Dt. Markenbut</t>
+  </si>
+  <si>
+    <t>Nuss-Nougat Creme</t>
+  </si>
+  <si>
+    <t>Palmöl</t>
+  </si>
+  <si>
+    <t>Rioja</t>
+  </si>
+  <si>
+    <t>Ahornsirup</t>
+  </si>
+  <si>
+    <t>Kohlrabi</t>
+  </si>
+  <si>
+    <t>Capellini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muesli</t>
   </si>
 </sst>
 </file>
@@ -1047,23 +1083,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}">
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -1083,7 +1119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1119,7 +1155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1173,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +1191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +1209,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1227,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1245,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1245,7 +1281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1281,7 +1317,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1299,7 +1335,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1317,7 +1353,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +1371,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1389,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1371,7 +1407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1389,7 +1425,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1407,7 +1443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1425,7 +1461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1443,7 +1479,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1479,7 +1515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1497,7 +1533,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1515,7 +1551,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1533,7 +1569,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1551,7 +1587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1569,7 +1605,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1587,7 +1623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1605,7 +1641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1623,7 +1659,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1641,7 +1677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1659,7 +1695,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1677,7 +1713,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1698,7 +1734,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1716,7 +1752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1734,7 +1770,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1752,7 +1788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1770,7 +1806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1791,7 +1827,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +1845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1827,7 +1863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1845,7 +1881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -1863,7 +1899,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1881,7 +1917,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1902,7 +1938,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1920,7 +1956,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1938,7 +1974,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -1959,7 +1995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1977,7 +2013,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -1998,7 +2034,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2019,7 +2055,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2037,7 +2073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2058,7 +2094,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2076,7 +2112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2097,7 +2133,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2115,7 +2151,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2133,7 +2169,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2151,7 +2187,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2172,7 +2208,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2193,7 +2229,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2214,7 +2250,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2232,7 +2268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>173</v>
       </c>
@@ -2253,7 +2289,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2274,7 +2310,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2292,7 +2328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2310,7 +2346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2328,7 +2364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2346,7 +2382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2364,7 +2400,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2382,7 +2418,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2400,7 +2436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2418,7 +2454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2439,7 +2475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2457,7 +2493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2475,7 +2511,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2496,7 +2532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2517,7 +2553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>188</v>
       </c>
@@ -2538,7 +2574,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -2559,7 +2595,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -2580,7 +2616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -2601,7 +2637,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -2619,7 +2655,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -2640,7 +2676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -2661,7 +2697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -2682,7 +2718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -2703,7 +2739,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -2724,7 +2760,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -2745,7 +2781,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -2766,7 +2802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -2787,7 +2823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -2808,7 +2844,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -2829,7 +2865,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -2847,7 +2883,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -2868,7 +2904,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -2886,7 +2922,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -2904,7 +2940,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -2925,7 +2961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -2946,7 +2982,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -2967,7 +3003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -2985,7 +3021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>172</v>
       </c>
@@ -3003,7 +3039,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -3024,7 +3060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -3045,7 +3081,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -3066,7 +3102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -3087,7 +3123,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -3108,7 +3144,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -3126,7 +3162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -3147,7 +3183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -3168,7 +3204,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -3189,7 +3225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -3210,7 +3246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -3228,7 +3264,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -3249,7 +3285,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -3267,7 +3303,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -3285,7 +3321,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -3306,7 +3342,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -3327,7 +3363,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -3348,7 +3384,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -3369,7 +3405,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>139</v>
       </c>
@@ -3390,7 +3426,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>140</v>
       </c>
@@ -3408,7 +3444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>141</v>
       </c>
@@ -3429,7 +3465,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -3450,7 +3486,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>143</v>
       </c>
@@ -3468,7 +3504,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>144</v>
       </c>
@@ -3489,7 +3525,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>170</v>
       </c>
@@ -3510,7 +3546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -3531,7 +3567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -3552,7 +3588,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>147</v>
       </c>
@@ -3573,7 +3609,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -3591,7 +3627,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -3612,7 +3648,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -3633,7 +3669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -3654,7 +3690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>153</v>
       </c>
@@ -3675,7 +3711,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>154</v>
       </c>
@@ -3696,7 +3732,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>155</v>
       </c>
@@ -3717,7 +3753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>156</v>
       </c>
@@ -3735,7 +3771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>157</v>
       </c>
@@ -3753,7 +3789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>158</v>
       </c>
@@ -3771,7 +3807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>159</v>
       </c>
@@ -3789,7 +3825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>160</v>
       </c>
@@ -3810,7 +3846,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -3828,7 +3864,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>162</v>
       </c>
@@ -3849,7 +3885,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>163</v>
       </c>
@@ -3867,7 +3903,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -3888,7 +3924,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>166</v>
       </c>
@@ -3906,7 +3942,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -3927,7 +3963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>168</v>
       </c>
@@ -3948,7 +3984,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>171</v>
       </c>
@@ -3969,7 +4005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>174</v>
       </c>
@@ -3987,7 +4023,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>175</v>
       </c>
@@ -4005,7 +4041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>176</v>
       </c>
@@ -4026,7 +4062,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>177</v>
       </c>
@@ -4044,7 +4080,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>178</v>
       </c>
@@ -4062,7 +4098,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>179</v>
       </c>
@@ -4080,7 +4116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>180</v>
       </c>
@@ -4098,7 +4134,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>181</v>
       </c>
@@ -4116,7 +4152,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>182</v>
       </c>
@@ -4138,7 +4174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>183</v>
       </c>
@@ -4149,14 +4185,14 @@
         <v>700</v>
       </c>
       <c r="D160">
-        <f t="shared" ref="D160:D187" si="2">B160*(C160/100)</f>
+        <f t="shared" ref="D160:D198" si="2">B160*(C160/100)</f>
         <v>735</v>
       </c>
       <c r="F160" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -4174,7 +4210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>185</v>
       </c>
@@ -4192,7 +4228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>186</v>
       </c>
@@ -4210,7 +4246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>187</v>
       </c>
@@ -4231,7 +4267,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>189</v>
       </c>
@@ -4249,7 +4285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>190</v>
       </c>
@@ -4273,7 +4309,7 @@
         <v>Milchprodukte / Eier</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>191</v>
       </c>
@@ -4297,7 +4333,7 @@
         <v>Fleisch / Fisch</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>192</v>
       </c>
@@ -4321,7 +4357,7 @@
         <v>Fleisch / Fisch</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>193</v>
       </c>
@@ -4345,7 +4381,7 @@
         <v>Sonstiges</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>194</v>
       </c>
@@ -4369,7 +4405,7 @@
         <v>Fleisch / Fisch</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -4393,7 +4429,7 @@
         <v>Sonstiges</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>198</v>
       </c>
@@ -4417,7 +4453,7 @@
         <v>Milchprodukte / Eier</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>199</v>
       </c>
@@ -4435,12 +4471,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>196</v>
       </c>
       <c r="B174" s="2">
-        <f>VLOOKUP(E174,A:B,2,FALSE)</f>
+        <f t="shared" ref="B174:B181" si="6">VLOOKUP(E174,A:B,2,FALSE)</f>
         <v>23</v>
       </c>
       <c r="C174">
@@ -4459,12 +4495,12 @@
         <v>Obst / Gemüse</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>201</v>
       </c>
       <c r="B175" s="2">
-        <f>VLOOKUP(E175,A:B,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>6.14</v>
       </c>
       <c r="C175">
@@ -4482,12 +4518,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>209</v>
       </c>
       <c r="B176" s="2">
-        <f>VLOOKUP(E176,A:B,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>235</v>
       </c>
       <c r="C176">
@@ -4504,228 +4540,446 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B177" s="2">
-        <f>VLOOKUP(E177,A:B,2,FALSE)</f>
-        <v>178</v>
+        <f t="shared" si="6"/>
+        <v>303</v>
       </c>
       <c r="C177">
-        <v>200</v>
+        <f>VLOOKUP(E177,A:C,3,FALSE)</f>
+        <v>250</v>
       </c>
       <c r="D177">
         <f t="shared" si="2"/>
-        <v>356</v>
+        <v>757.5</v>
       </c>
       <c r="E177" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F177" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>195</v>
-      </c>
-      <c r="B178" s="1">
-        <v>150</v>
+        <v>217</v>
+      </c>
+      <c r="B178" s="2">
+        <f t="shared" si="6"/>
+        <v>37</v>
       </c>
       <c r="C178">
-        <v>69</v>
+        <f>VLOOKUP(E178,A:C,3,FALSE)</f>
+        <v>750</v>
       </c>
       <c r="D178">
         <f t="shared" si="2"/>
-        <v>103.49999999999999</v>
+        <v>277.5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>19</v>
       </c>
       <c r="F178" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>200</v>
-      </c>
-      <c r="B179" s="1">
-        <v>168</v>
+        <v>222</v>
+      </c>
+      <c r="B179" s="2">
+        <f t="shared" si="6"/>
+        <v>37</v>
       </c>
       <c r="C179">
-        <v>120</v>
+        <f>VLOOKUP(E179,A:C,3,FALSE)</f>
+        <v>750</v>
       </c>
       <c r="D179">
         <f t="shared" si="2"/>
-        <v>201.6</v>
+        <v>277.5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>19</v>
       </c>
       <c r="F179" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="B180" s="2">
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="C180">
-        <v>200</v>
+        <f>VLOOKUP(E180,A:C,3,FALSE)</f>
+        <v>500</v>
       </c>
       <c r="D180">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>160</v>
+      </c>
+      <c r="E180" t="s">
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>203</v>
-      </c>
-      <c r="B181" s="1">
-        <v>41</v>
+        <v>208</v>
+      </c>
+      <c r="B181" s="2">
+        <f t="shared" si="6"/>
+        <v>178</v>
       </c>
       <c r="C181">
         <v>200</v>
       </c>
       <c r="D181">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>356</v>
+      </c>
+      <c r="E181" t="s">
+        <v>74</v>
       </c>
       <c r="F181" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B182" s="1">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C182">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="D182">
         <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-      <c r="E182" t="s">
-        <v>206</v>
+        <v>103.49999999999999</v>
       </c>
       <c r="F182" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B183" s="1">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="C183">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="D183">
         <f t="shared" si="2"/>
-        <v>67.5</v>
-      </c>
-      <c r="E183" t="s">
-        <v>207</v>
+        <v>201.6</v>
       </c>
       <c r="F183" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>210</v>
-      </c>
-      <c r="B184" s="1">
-        <v>5.3</v>
+        <v>202</v>
+      </c>
+      <c r="B184" s="2">
+        <v>22</v>
       </c>
       <c r="C184">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D184">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>44</v>
       </c>
       <c r="F184" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B185" s="1">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C185">
         <v>200</v>
       </c>
       <c r="D185">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="F185" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B186" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C186">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D186">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>62.5</v>
       </c>
       <c r="E186" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c r="F186" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B187" s="1">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C187">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D187">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>67.5</v>
       </c>
       <c r="E187" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F187" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B188" s="1"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B189" s="1"/>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>210</v>
+      </c>
+      <c r="B188" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C188">
+        <v>250</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>13.25</v>
+      </c>
+      <c r="F188" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>211</v>
+      </c>
+      <c r="B189" s="1">
+        <v>86</v>
+      </c>
+      <c r="C189">
+        <v>200</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="F189" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>212</v>
+      </c>
+      <c r="B190" s="1">
+        <v>15</v>
+      </c>
+      <c r="C190">
+        <v>200</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E190" t="s">
+        <v>54</v>
+      </c>
+      <c r="F190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>213</v>
+      </c>
+      <c r="B191" s="1">
+        <v>73</v>
+      </c>
+      <c r="C191">
+        <v>500</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="E191" t="s">
+        <v>214</v>
+      </c>
+      <c r="F191" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>215</v>
+      </c>
+      <c r="B192" s="1">
+        <v>14</v>
+      </c>
+      <c r="C192">
+        <v>750</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="F192" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>216</v>
+      </c>
+      <c r="B193" s="1">
+        <v>256</v>
+      </c>
+      <c r="C193">
+        <v>250</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
+      <c r="F193" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>218</v>
+      </c>
+      <c r="B194" s="1">
+        <v>79</v>
+      </c>
+      <c r="C194">
+        <v>250</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="2"/>
+        <v>197.5</v>
+      </c>
+      <c r="F194" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195" s="1">
+        <v>119</v>
+      </c>
+      <c r="C195">
+        <v>500</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="2"/>
+        <v>595</v>
+      </c>
+      <c r="E195" t="s">
+        <v>221</v>
+      </c>
+      <c r="F195" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>223</v>
+      </c>
+      <c r="B196" s="1">
+        <v>37</v>
+      </c>
+      <c r="C196">
+        <v>250</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="F196" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>224</v>
+      </c>
+      <c r="B197" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="C197">
+        <v>500</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="2"/>
+        <v>34.65</v>
+      </c>
+      <c r="F197" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>226</v>
+      </c>
+      <c r="B198" s="1">
+        <v>21</v>
+      </c>
+      <c r="C198">
+        <v>700</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="E198" t="s">
+        <v>136</v>
+      </c>
+      <c r="F198" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F178" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}"/>
+  <autoFilter ref="A1:F197" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\OneDrive\Dokumente\Count_prototype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE91FE44-BF38-44FB-844C-1B53654C778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{DE91FE44-BF38-44FB-844C-1B53654C778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F9749E-A116-41A8-953A-EF62768196C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{9CEB87A9-AAE3-4144-8460-A009C5F567C6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Carbon_footprint" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Carbon_footprint!$A$1:$F$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Carbon_footprint!$A$1:$F$207</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="239">
   <si>
     <t>Hähnchen Fleisch</t>
   </si>
@@ -718,6 +718,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Muesli</t>
+  </si>
+  <si>
+    <t>Olivenöl</t>
+  </si>
+  <si>
+    <t>Banane</t>
+  </si>
+  <si>
+    <t>Petersilie</t>
+  </si>
+  <si>
+    <t>Spinat</t>
+  </si>
+  <si>
+    <t>Mozzar.</t>
+  </si>
+  <si>
+    <t>Cornflakes</t>
+  </si>
+  <si>
+    <t>Korn Mehl</t>
+  </si>
+  <si>
+    <t>Haferflocken</t>
+  </si>
+  <si>
+    <t>Honig</t>
+  </si>
+  <si>
+    <t>Passierte Tomaten</t>
+  </si>
+  <si>
+    <t>Feigen</t>
+  </si>
+  <si>
+    <t>Kokosmilch</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}">
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+      <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4185,7 +4221,7 @@
         <v>700</v>
       </c>
       <c r="D160">
-        <f t="shared" ref="D160:D198" si="2">B160*(C160/100)</f>
+        <f t="shared" ref="D160:D209" si="2">B160*(C160/100)</f>
         <v>735</v>
       </c>
       <c r="F160" t="s">
@@ -4476,7 +4512,7 @@
         <v>196</v>
       </c>
       <c r="B174" s="2">
-        <f t="shared" ref="B174:B181" si="6">VLOOKUP(E174,A:B,2,FALSE)</f>
+        <f t="shared" ref="B174:B183" si="6">VLOOKUP(E174,A:B,2,FALSE)</f>
         <v>23</v>
       </c>
       <c r="C174">
@@ -4611,98 +4647,107 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B180" s="2">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="C180">
-        <f>VLOOKUP(E180,A:C,3,FALSE)</f>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D180">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F180" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B181" s="2">
         <f t="shared" si="6"/>
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="C181">
-        <v>200</v>
+        <f t="shared" ref="C181" si="7">VLOOKUP(E181,A:C,3,FALSE)</f>
+        <v>150</v>
       </c>
       <c r="D181">
         <f t="shared" si="2"/>
-        <v>356</v>
+        <v>64.5</v>
       </c>
       <c r="E181" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F181" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>195</v>
-      </c>
-      <c r="B182" s="1">
-        <v>150</v>
+        <v>225</v>
+      </c>
+      <c r="B182" s="2">
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="C182">
-        <v>69</v>
+        <f>VLOOKUP(E182,A:C,3,FALSE)</f>
+        <v>500</v>
       </c>
       <c r="D182">
         <f t="shared" si="2"/>
-        <v>103.49999999999999</v>
+        <v>160</v>
+      </c>
+      <c r="E182" t="s">
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>208</v>
+      </c>
+      <c r="B183" s="2">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="C183">
         <v>200</v>
-      </c>
-      <c r="B183" s="1">
-        <v>168</v>
-      </c>
-      <c r="C183">
-        <v>120</v>
       </c>
       <c r="D183">
         <f t="shared" si="2"/>
-        <v>201.6</v>
+        <v>356</v>
+      </c>
+      <c r="E183" t="s">
+        <v>74</v>
       </c>
       <c r="F183" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>202</v>
-      </c>
-      <c r="B184" s="2">
-        <v>22</v>
+        <v>195</v>
+      </c>
+      <c r="B184" s="1">
+        <v>150</v>
       </c>
       <c r="C184">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="D184">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>103.49999999999999</v>
       </c>
       <c r="F184" t="s">
         <v>81</v>
@@ -4710,230 +4755,227 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B185" s="1">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="C185">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D185">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>201.6</v>
       </c>
       <c r="F185" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>204</v>
-      </c>
-      <c r="B186" s="1">
-        <v>25</v>
+        <v>202</v>
+      </c>
+      <c r="B186" s="2">
+        <v>22</v>
       </c>
       <c r="C186">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D186">
         <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-      <c r="E186" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="F186" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B187" s="1">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C187">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D187">
         <f t="shared" si="2"/>
-        <v>67.5</v>
-      </c>
-      <c r="E187" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="F187" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B188" s="1">
-        <v>5.3</v>
+        <v>25</v>
       </c>
       <c r="C188">
         <v>250</v>
       </c>
       <c r="D188">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>62.5</v>
+      </c>
+      <c r="E188" t="s">
+        <v>206</v>
       </c>
       <c r="F188" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B189" s="1">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C189">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D189">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>67.5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>207</v>
       </c>
       <c r="F189" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B190" s="1">
-        <v>15</v>
+        <v>5.3</v>
       </c>
       <c r="C190">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D190">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E190" t="s">
-        <v>54</v>
+        <v>13.25</v>
       </c>
       <c r="F190" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B191" s="1">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C191">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D191">
         <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="E191" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="F191" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B192" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C192">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="D192">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>30</v>
+      </c>
+      <c r="E192" t="s">
+        <v>54</v>
       </c>
       <c r="F192" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B193" s="1">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="C193">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D193">
         <f t="shared" si="2"/>
-        <v>640</v>
+        <v>365</v>
+      </c>
+      <c r="E193" t="s">
+        <v>214</v>
       </c>
       <c r="F193" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B194" s="1">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C194">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="D194">
         <f t="shared" si="2"/>
-        <v>197.5</v>
+        <v>105</v>
       </c>
       <c r="F194" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B195" s="1">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="C195">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D195">
         <f t="shared" si="2"/>
-        <v>595</v>
-      </c>
-      <c r="E195" t="s">
-        <v>221</v>
+        <v>640</v>
       </c>
       <c r="F195" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B196" s="1">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C196">
         <v>250</v>
       </c>
       <c r="D196">
         <f t="shared" si="2"/>
-        <v>92.5</v>
+        <v>197.5</v>
       </c>
       <c r="F196" t="s">
         <v>82</v>
@@ -4941,45 +4983,249 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B197" s="1">
-        <v>6.93</v>
+        <v>119</v>
       </c>
       <c r="C197">
         <v>500</v>
       </c>
       <c r="D197">
         <f t="shared" si="2"/>
-        <v>34.65</v>
+        <v>595</v>
+      </c>
+      <c r="E197" t="s">
+        <v>221</v>
       </c>
       <c r="F197" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B198" s="1">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C198">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="D198">
         <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>224</v>
+      </c>
+      <c r="B199" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="C199">
+        <v>500</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="2"/>
+        <v>34.65</v>
+      </c>
+      <c r="F199" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>226</v>
+      </c>
+      <c r="B200" s="1">
+        <v>21</v>
+      </c>
+      <c r="C200">
+        <v>700</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E200" t="s">
         <v>136</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F200" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>227</v>
+      </c>
+      <c r="B201" s="1">
+        <v>110</v>
+      </c>
+      <c r="C201">
+        <v>700</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
+      <c r="F201" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>228</v>
+      </c>
+      <c r="B202" s="1">
+        <v>14</v>
+      </c>
+      <c r="C202">
+        <v>1000</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="F202" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>229</v>
+      </c>
+      <c r="B203" s="1">
+        <v>51</v>
+      </c>
+      <c r="C203">
+        <v>100</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="F203" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>230</v>
+      </c>
+      <c r="B204" s="1">
+        <v>56</v>
+      </c>
+      <c r="C204">
+        <v>750</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="F204" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>232</v>
+      </c>
+      <c r="B205" s="1">
+        <v>16</v>
+      </c>
+      <c r="C205">
+        <v>750</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="E205" t="s">
+        <v>233</v>
+      </c>
+      <c r="F205" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>234</v>
+      </c>
+      <c r="B206" s="1">
+        <v>25</v>
+      </c>
+      <c r="C206">
+        <v>1000</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="F206" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>235</v>
+      </c>
+      <c r="B207" s="1">
+        <v>23</v>
+      </c>
+      <c r="C207">
+        <v>500</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="F207" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>237</v>
+      </c>
+      <c r="B208" s="1">
+        <v>58</v>
+      </c>
+      <c r="C208">
+        <v>250</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="F208" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>238</v>
+      </c>
+      <c r="B209" s="1">
+        <v>45</v>
+      </c>
+      <c r="C209">
+        <v>1000</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="F209" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F197" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}"/>
+  <autoFilter ref="A1:F207" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{DE91FE44-BF38-44FB-844C-1B53654C778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F9749E-A116-41A8-953A-EF62768196C8}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{DE91FE44-BF38-44FB-844C-1B53654C778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D679D1F-DF42-4163-8A57-C5F705D73119}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{9CEB87A9-AAE3-4144-8460-A009C5F567C6}"/>
+    <workbookView xWindow="7605" yWindow="3030" windowWidth="21600" windowHeight="11040" xr2:uid="{9CEB87A9-AAE3-4144-8460-A009C5F567C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbon_footprint" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Carbon_footprint!$A$1:$F$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Carbon_footprint!$A$1:$F$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1184,7 +1184,7 @@
         <v>400</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D46" si="0">B3*(C3/100)</f>
+        <f t="shared" ref="D3:D47" si="0">B3*(C3/100)</f>
         <v>1688</v>
       </c>
       <c r="F3" t="s">
@@ -1373,589 +1373,589 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <f>B14*(C14/100)</f>
+        <v>450</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>55</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>500</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>1500</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1500</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>49</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1000</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>85</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>250</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>212.5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>33</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>200</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>25</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>600</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="F20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>37</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>750</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>277.5</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>235</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>250</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>587.5</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>100</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>83</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>200</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>18</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1000</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>500</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>31</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>500</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="F27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>100</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>100</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1">
         <v>34</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>300</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="F29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>76</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>1000</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <f t="shared" si="0"/>
         <v>760</v>
       </c>
-      <c r="F30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>20</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>1000</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="F32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <v>14</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>150</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>179</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>100</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
         <v>275</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>500</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <f t="shared" si="0"/>
         <v>1375</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
         <v>212</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>250</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>5</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="1">
         <v>3.61</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>2500</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <f t="shared" si="0"/>
         <v>90.25</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="1">
         <v>4.2300000000000004</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>1000</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <f t="shared" si="0"/>
         <v>42.300000000000004</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1">
         <v>235</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>200</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="1">
         <v>303</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>250</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <f t="shared" si="0"/>
         <v>757.5</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="1">
         <v>31</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>500</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>25</v>
       </c>
-      <c r="F40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="1">
         <v>235</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>200</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1">
         <v>23</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>200</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="F42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="1">
         <v>43</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>150</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <f t="shared" si="0"/>
         <v>64.5</v>
       </c>
-      <c r="F43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="F44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B45" s="1">
         <v>23</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>200</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="F44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="1">
-        <v>51</v>
-      </c>
-      <c r="C45">
-        <v>1000</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>510</v>
-      </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
         <v>51</v>
@@ -1967,26 +1967,26 @@
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="E46" t="s">
-        <v>42</v>
-      </c>
       <c r="F46" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:D159" si="1">B47*(C47/100)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
       </c>
       <c r="F47" t="s">
         <v>83</v>
@@ -1994,46 +1994,43 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" ref="D48:D160" si="1">B48*(C48/100)</f>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="E49" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1">
         <v>32</v>
@@ -2045,143 +2042,146 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
       <c r="F50" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C51">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="C53">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>470</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-      <c r="E54" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C55">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>275</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C56">
         <v>200</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E56" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1">
         <v>15</v>
       </c>
       <c r="C57">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>54</v>
       </c>
       <c r="F57" t="s">
         <v>82</v>
@@ -2189,56 +2189,53 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>422.5</v>
+        <v>150</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
-        <v>6.14</v>
+        <v>169</v>
       </c>
       <c r="C59">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>61.4</v>
+        <v>422.5</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1">
-        <v>31</v>
+        <v>6.14</v>
       </c>
       <c r="C60">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>155</v>
-      </c>
-      <c r="E60" t="s">
-        <v>25</v>
+        <v>61.4</v>
       </c>
       <c r="F60" t="s">
         <v>82</v>
@@ -2246,17 +2243,17 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1">
         <v>31</v>
       </c>
       <c r="C61">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>232.5</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
         <v>25</v>
@@ -2267,80 +2264,80 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="C62">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>232.5</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="C63">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>700</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C64">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="E64" t="s">
-        <v>68</v>
+        <v>500</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="B65" s="1">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="C65">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
         <v>80</v>
@@ -2348,43 +2345,46 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1">
+        <v>235</v>
+      </c>
+      <c r="C66">
+        <v>200</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>470</v>
+      </c>
+      <c r="E66" t="s">
         <v>20</v>
       </c>
-      <c r="C66">
-        <v>1000</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1">
-        <v>9.3699999999999992</v>
+        <v>20</v>
       </c>
       <c r="C67">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>234.24999999999997</v>
+        <v>200</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1">
         <v>9.3699999999999992</v>
@@ -2402,17 +2402,17 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="C69">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
-        <v>23.25</v>
+        <v>234.24999999999997</v>
       </c>
       <c r="F69" t="s">
         <v>81</v>
@@ -2420,25 +2420,25 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1">
-        <v>48</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C70">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>23.25</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1">
         <v>48</v>
@@ -2456,17 +2456,17 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C72">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
-        <v>374</v>
+        <v>240</v>
       </c>
       <c r="F72" t="s">
         <v>80</v>
@@ -2474,82 +2474,82 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1">
-        <v>9.25</v>
+        <v>68</v>
       </c>
       <c r="C73">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
-        <v>92.5</v>
+        <v>374</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>51</v>
+        <v>9.25</v>
       </c>
       <c r="C74">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>168.29999999999998</v>
-      </c>
-      <c r="E74" t="s">
-        <v>42</v>
+        <v>92.5</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C75">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="D75">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>168.29999999999998</v>
+      </c>
+      <c r="E75" t="s">
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>4.43</v>
+        <v>178</v>
       </c>
       <c r="C76">
         <v>400</v>
       </c>
       <c r="D76">
         <f t="shared" si="1"/>
-        <v>17.72</v>
+        <v>712</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>4.43</v>
@@ -2561,131 +2561,131 @@
         <f t="shared" si="1"/>
         <v>17.72</v>
       </c>
-      <c r="E77" t="s">
-        <v>75</v>
-      </c>
       <c r="F77" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>20</v>
+        <v>4.43</v>
       </c>
       <c r="C78">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D78">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>17.72</v>
       </c>
       <c r="E78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="C79">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D79">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>50</v>
       </c>
       <c r="E79" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="B80" s="1">
-        <v>11</v>
+        <v>1200</v>
       </c>
       <c r="C80">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>1200</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F80" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C81">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
-        <v>187.5</v>
+        <v>33</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C82">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="D82">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>187.5</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C83">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>30</v>
       </c>
       <c r="F83" t="s">
         <v>81</v>
@@ -2693,41 +2693,38 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="1">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="C84">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D84">
         <f t="shared" si="1"/>
-        <v>1068</v>
-      </c>
-      <c r="E84" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F84" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B85" s="1">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="C85">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
-        <v>1210</v>
+        <v>1068</v>
       </c>
       <c r="E85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F85" t="s">
         <v>79</v>
@@ -2735,62 +2732,62 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86" s="1">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="C86">
         <v>500</v>
       </c>
       <c r="D86">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>1210</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" s="1">
-        <v>303</v>
+        <v>32</v>
       </c>
       <c r="C87">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
-        <v>757.5</v>
+        <v>160</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" s="1">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="C88">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D88">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>757.5</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
         <v>80</v>
@@ -2798,7 +2795,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="1">
         <v>235</v>
@@ -2819,70 +2816,70 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="1">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="C90">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D90">
         <f t="shared" si="1"/>
-        <v>82.5</v>
+        <v>470</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="1">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="C91">
         <v>250</v>
       </c>
       <c r="D91">
         <f t="shared" si="1"/>
-        <v>367.5</v>
+        <v>82.5</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="1">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="C92">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
-        <v>277.5</v>
+        <v>367.5</v>
       </c>
       <c r="E92" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B93" s="1">
         <v>37</v>
@@ -2903,95 +2900,95 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B94" s="1">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C94">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="D94">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>277.5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="1">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="C95">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="D95">
         <f t="shared" si="1"/>
-        <v>735</v>
-      </c>
-      <c r="E95" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="F95" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B96" s="1">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="C96">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="D96">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>735</v>
+      </c>
+      <c r="E96" t="s">
+        <v>102</v>
       </c>
       <c r="F96" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B97" s="1">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D97">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>70</v>
       </c>
       <c r="F97" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" s="1">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="C98">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D98">
         <f t="shared" si="1"/>
-        <v>565</v>
-      </c>
-      <c r="E98" t="s">
-        <v>113</v>
+        <v>445</v>
       </c>
       <c r="F98" t="s">
         <v>79</v>
@@ -2999,106 +2996,106 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="C99">
         <v>500</v>
       </c>
       <c r="D99">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>565</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F99" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C100">
         <v>500</v>
       </c>
       <c r="D100">
         <f t="shared" si="1"/>
-        <v>310</v>
+        <v>55</v>
       </c>
       <c r="E100" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="1">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="C101">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
-        <v>302</v>
+        <v>310</v>
+      </c>
+      <c r="E101" t="s">
+        <v>117</v>
       </c>
       <c r="F101" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="B102" s="1">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="C102">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D102">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="F102" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="B103" s="1">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C103">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D103">
         <f t="shared" si="1"/>
-        <v>490</v>
-      </c>
-      <c r="E103" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F103" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" s="1">
         <v>49</v>
@@ -3119,41 +3116,41 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B105" s="1">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C105">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D105">
         <f t="shared" si="1"/>
-        <v>735</v>
+        <v>490</v>
       </c>
       <c r="E105" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B106" s="1">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="C106">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D106">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>735</v>
       </c>
       <c r="E106" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F106" t="s">
         <v>83</v>
@@ -3161,119 +3158,119 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B107" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C107">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D107">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="E107" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F107" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B108" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C108">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="D108">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>147</v>
+      </c>
+      <c r="E108" t="s">
+        <v>136</v>
       </c>
       <c r="F108" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" s="1">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="C109">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="D109">
         <f t="shared" si="1"/>
-        <v>470</v>
-      </c>
-      <c r="E109" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" s="1">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="C110">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D110">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>470</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B111" s="1">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="C111">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D111">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B112" s="1">
         <v>55</v>
       </c>
       <c r="C112">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D112">
         <f t="shared" si="1"/>
-        <v>137.5</v>
+        <v>275</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
@@ -3284,74 +3281,77 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B113" s="1">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="C113">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D113">
         <f t="shared" si="1"/>
-        <v>1050</v>
+        <v>137.5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="1">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="C114">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="D114">
         <f t="shared" si="1"/>
-        <v>470</v>
-      </c>
-      <c r="E114" t="s">
-        <v>20</v>
+        <v>1050</v>
       </c>
       <c r="F114" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="1">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="C115">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D115">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>470</v>
+      </c>
+      <c r="E115" t="s">
+        <v>20</v>
       </c>
       <c r="F115" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B116" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C116">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D116">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
         <v>81</v>
@@ -3359,182 +3359,182 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" s="1">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C117">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D117">
         <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="E117" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B118" s="1">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C118">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D118">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="E118" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B119" s="1">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C119">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="D119">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="E119" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F119" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B120" s="1">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="C120">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="D120">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>147</v>
       </c>
       <c r="E120" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="F120" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B121" s="1">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="C121">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D121">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>470</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B122" s="1">
+        <v>32</v>
+      </c>
+      <c r="C122">
+        <v>500</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="E122" t="s">
         <v>11</v>
       </c>
-      <c r="C122">
-        <v>200</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
       <c r="F122" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B123" s="1">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D123">
         <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="E123" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B124" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C124">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="D124">
         <f t="shared" si="1"/>
-        <v>277.5</v>
+        <v>160</v>
       </c>
       <c r="E124" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B125" s="1">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C125">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="D125">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>277.5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>19</v>
       </c>
       <c r="F125" t="s">
         <v>83</v>
@@ -3542,20 +3542,17 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B126" s="1">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C126">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="D126">
         <f t="shared" si="1"/>
-        <v>277.5</v>
-      </c>
-      <c r="E126" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="F126" t="s">
         <v>83</v>
@@ -3563,28 +3560,28 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B127" s="1">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="C127">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="D127">
         <f t="shared" si="1"/>
-        <v>424</v>
+        <v>277.5</v>
       </c>
       <c r="E127" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F127" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="B128" s="1">
         <v>212</v>
@@ -3605,101 +3602,101 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B129" s="1">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="C129">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="D129">
         <f t="shared" si="1"/>
-        <v>277.5</v>
+        <v>424</v>
       </c>
       <c r="E129" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B130" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C130">
         <v>750</v>
       </c>
       <c r="D130">
         <f t="shared" si="1"/>
-        <v>232.5</v>
+        <v>277.5</v>
       </c>
       <c r="E130" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F130" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B131" s="1">
-        <v>7.5</v>
+        <v>31</v>
       </c>
       <c r="C131">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="D131">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>232.5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>59</v>
       </c>
       <c r="F131" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B132" s="1">
-        <v>100</v>
+        <v>7.5</v>
       </c>
       <c r="C132">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D132">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E132" t="s">
-        <v>26</v>
+        <v>37.5</v>
       </c>
       <c r="F132" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B133" s="1">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="C133">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D133">
         <f t="shared" si="1"/>
-        <v>432</v>
+        <v>100</v>
       </c>
       <c r="E133" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="F133" t="s">
         <v>80</v>
@@ -3707,20 +3704,20 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B134" s="1">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="C134">
         <v>200</v>
       </c>
       <c r="D134">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>432</v>
       </c>
       <c r="E134" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="F134" t="s">
         <v>80</v>
@@ -3728,80 +3725,83 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B135" s="1">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C135">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D135">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B136" s="1">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C136">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D136">
         <f t="shared" si="1"/>
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="E136" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="F136" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B137" s="1">
-        <v>9.3000000000000007</v>
+        <v>62</v>
       </c>
       <c r="C137">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D137">
         <f t="shared" si="1"/>
-        <v>23.25</v>
+        <v>310</v>
       </c>
       <c r="E137" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F137" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B138" s="1">
-        <v>26</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C138">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D138">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>23.25</v>
+      </c>
+      <c r="E138" t="s">
+        <v>67</v>
       </c>
       <c r="F138" t="s">
         <v>81</v>
@@ -3809,191 +3809,188 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B139" s="1">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C139">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D139">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="F139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B140" s="1">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C140">
         <v>250</v>
       </c>
       <c r="D140">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>215</v>
       </c>
       <c r="F140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B141" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C141">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D141">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>37.5</v>
       </c>
       <c r="F141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B142" s="1">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="C142">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="D142">
         <f t="shared" si="1"/>
-        <v>735</v>
-      </c>
-      <c r="E142" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B143" s="1">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C143">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="D143">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>735</v>
+      </c>
+      <c r="E143" t="s">
+        <v>102</v>
       </c>
       <c r="F143" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B144" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C144">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D144">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E144" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="F144" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B145" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C145">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="D145">
         <f t="shared" si="1"/>
-        <v>82.5</v>
+        <v>100</v>
+      </c>
+      <c r="E145" t="s">
+        <v>26</v>
       </c>
       <c r="F145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B146" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C146">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="D146">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="E146" t="s">
-        <v>165</v>
+        <v>82.5</v>
       </c>
       <c r="F146" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B147" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C147">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D147">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="E147" t="s">
+        <v>165</v>
       </c>
       <c r="F147" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B148" s="1">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C148">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D148">
         <f t="shared" si="1"/>
-        <v>166</v>
-      </c>
-      <c r="E148" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F148" t="s">
         <v>80</v>
@@ -4001,77 +3998,80 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B149" s="1">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C149">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D149">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>166</v>
       </c>
       <c r="E149" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="F149" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B150" s="1">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C150">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D150">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>72.5</v>
       </c>
       <c r="E150" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="F150" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B151" s="1">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="C151">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D151">
         <f t="shared" si="1"/>
-        <v>1820</v>
+        <v>98</v>
+      </c>
+      <c r="E151" t="s">
+        <v>15</v>
       </c>
       <c r="F151" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B152" s="1">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C152">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D152">
         <f t="shared" si="1"/>
-        <v>314</v>
+        <v>1820</v>
       </c>
       <c r="F152" t="s">
         <v>81</v>
@@ -4079,56 +4079,56 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B153" s="1">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C153">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="D153">
         <f t="shared" si="1"/>
-        <v>735</v>
-      </c>
-      <c r="E153" t="s">
-        <v>102</v>
+        <v>314</v>
       </c>
       <c r="F153" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B154" s="1">
-        <v>9.1</v>
+        <v>105</v>
       </c>
       <c r="C154">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="D154">
         <f t="shared" si="1"/>
-        <v>27.299999999999997</v>
+        <v>735</v>
+      </c>
+      <c r="E154" t="s">
+        <v>102</v>
       </c>
       <c r="F154" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B155" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="C155">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D155">
         <f t="shared" si="1"/>
-        <v>46.5</v>
+        <v>27.299999999999997</v>
       </c>
       <c r="F155" t="s">
         <v>81</v>
@@ -4136,53 +4136,53 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B156" s="1">
-        <v>287</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C156">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D156">
         <f t="shared" si="1"/>
-        <v>430.5</v>
+        <v>46.5</v>
       </c>
       <c r="F156" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B157" s="1">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c r="C157">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D157">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>430.5</v>
       </c>
       <c r="F157" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B158" s="1">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="C158">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D158">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>249</v>
       </c>
       <c r="F158" t="s">
         <v>80</v>
@@ -4190,39 +4190,39 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B159" s="1">
-        <f>VLOOKUP(E159,A:B,2,FALSE)</f>
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="C159">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D159">
         <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="E159" t="s">
-        <v>42</v>
+        <v>700</v>
       </c>
       <c r="F159" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B160" s="1">
-        <v>105</v>
+        <f>VLOOKUP(E160,A:B,2,FALSE)</f>
+        <v>51</v>
       </c>
       <c r="C160">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="D160">
-        <f t="shared" ref="D160:D209" si="2">B160*(C160/100)</f>
-        <v>735</v>
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="E160" t="s">
+        <v>42</v>
       </c>
       <c r="F160" t="s">
         <v>83</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B161" s="1">
         <v>105</v>
@@ -4239,52 +4239,52 @@
         <v>700</v>
       </c>
       <c r="D161">
+        <f t="shared" ref="D161:D210" si="2">B161*(C161/100)</f>
+        <v>735</v>
+      </c>
+      <c r="F161" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" s="1">
+        <v>105</v>
+      </c>
+      <c r="C162">
+        <v>700</v>
+      </c>
+      <c r="D162">
         <f t="shared" si="2"/>
         <v>735</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F162" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>185</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B163" s="1">
         <v>12</v>
       </c>
-      <c r="C162">
+      <c r="C163">
         <v>250</v>
       </c>
-      <c r="D162">
+      <c r="D163">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F163" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>186</v>
-      </c>
-      <c r="B163" s="1">
-        <v>6.14</v>
-      </c>
-      <c r="C163">
-        <v>200</v>
-      </c>
-      <c r="D163">
-        <f t="shared" si="2"/>
-        <v>12.28</v>
-      </c>
-      <c r="F163" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B164" s="1">
         <v>6.14</v>
@@ -4296,304 +4296,299 @@
         <f t="shared" si="2"/>
         <v>12.28</v>
       </c>
-      <c r="E164" t="s">
-        <v>186</v>
-      </c>
       <c r="F164" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B165" s="1">
-        <v>1142</v>
+        <v>6.14</v>
       </c>
       <c r="C165">
         <v>200</v>
       </c>
       <c r="D165">
         <f t="shared" si="2"/>
-        <v>2284</v>
+        <v>12.28</v>
+      </c>
+      <c r="E165" t="s">
+        <v>186</v>
       </c>
       <c r="F165" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>190</v>
-      </c>
-      <c r="B166" s="2">
-        <f t="shared" ref="B166:B172" si="3">VLOOKUP(E166,A:B,2,FALSE)</f>
-        <v>235</v>
+        <v>189</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1142</v>
       </c>
       <c r="C166">
-        <f t="shared" ref="C166:C172" si="4">VLOOKUP(E166,A:C,3,FALSE)</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D166">
         <f t="shared" si="2"/>
-        <v>587.5</v>
-      </c>
-      <c r="E166" t="s">
-        <v>20</v>
-      </c>
-      <c r="F166" t="str">
-        <f t="shared" ref="F166:F172" si="5">VLOOKUP(E166,A:F,6,FALSE)</f>
-        <v>Milchprodukte / Eier</v>
+        <v>2284</v>
+      </c>
+      <c r="F166" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B167" s="2">
-        <f t="shared" si="3"/>
-        <v>287</v>
+        <f>VLOOKUP(E167,A:B,2,FALSE)</f>
+        <v>235</v>
       </c>
       <c r="C167">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f>VLOOKUP(E167,A:C,3,FALSE)</f>
+        <v>250</v>
       </c>
       <c r="D167">
         <f t="shared" si="2"/>
-        <v>574</v>
+        <v>587.5</v>
       </c>
       <c r="E167" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="5"/>
-        <v>Fleisch / Fisch</v>
+        <f>VLOOKUP(E167,A:F,6,FALSE)</f>
+        <v>Milchprodukte / Eier</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B168" s="2">
-        <f t="shared" si="3"/>
-        <v>151</v>
+        <f>VLOOKUP(E168,A:B,2,FALSE)</f>
+        <v>287</v>
       </c>
       <c r="C168">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(E168,A:C,3,FALSE)</f>
         <v>200</v>
       </c>
       <c r="D168">
         <f t="shared" si="2"/>
-        <v>302</v>
+        <v>574</v>
       </c>
       <c r="E168" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(E168,A:F,6,FALSE)</f>
         <v>Fleisch / Fisch</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B169" s="2">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f>VLOOKUP(E169,A:B,2,FALSE)</f>
+        <v>151</v>
       </c>
       <c r="C169">
-        <f t="shared" si="4"/>
-        <v>1000</v>
+        <f>VLOOKUP(E169,A:C,3,FALSE)</f>
+        <v>200</v>
       </c>
       <c r="D169">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="5"/>
-        <v>Sonstiges</v>
+        <f>VLOOKUP(E169,A:F,6,FALSE)</f>
+        <v>Fleisch / Fisch</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B170" s="2">
-        <f t="shared" si="3"/>
-        <v>287</v>
+        <f>VLOOKUP(E170,A:B,2,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="C170">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f>VLOOKUP(E170,A:C,3,FALSE)</f>
+        <v>1000</v>
       </c>
       <c r="D170">
         <f t="shared" si="2"/>
-        <v>574</v>
+        <v>150</v>
       </c>
       <c r="E170" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="5"/>
-        <v>Fleisch / Fisch</v>
+        <f>VLOOKUP(E170,A:F,6,FALSE)</f>
+        <v>Sonstiges</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B171" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
+        <f>VLOOKUP(E171,A:B,2,FALSE)</f>
+        <v>287</v>
       </c>
       <c r="C171">
-        <f t="shared" si="4"/>
-        <v>500</v>
+        <f>VLOOKUP(E171,A:C,3,FALSE)</f>
+        <v>200</v>
       </c>
       <c r="D171">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>574</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="5"/>
-        <v>Sonstiges</v>
+        <f>VLOOKUP(E171,A:F,6,FALSE)</f>
+        <v>Fleisch / Fisch</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B172" s="2">
-        <f t="shared" si="3"/>
-        <v>169</v>
+        <f>VLOOKUP(E172,A:B,2,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="C172">
-        <f t="shared" si="4"/>
-        <v>250</v>
+        <f>VLOOKUP(E172,A:C,3,FALSE)</f>
+        <v>500</v>
       </c>
       <c r="D172">
         <f t="shared" si="2"/>
-        <v>422.5</v>
+        <v>160</v>
       </c>
       <c r="E172" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="5"/>
-        <v>Milchprodukte / Eier</v>
+        <f>VLOOKUP(E172,A:F,6,FALSE)</f>
+        <v>Sonstiges</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B173" s="2">
-        <v>23</v>
+        <f>VLOOKUP(E173,A:B,2,FALSE)</f>
+        <v>169</v>
       </c>
       <c r="C173">
-        <v>400</v>
+        <f>VLOOKUP(E173,A:C,3,FALSE)</f>
+        <v>250</v>
       </c>
       <c r="D173">
         <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="F173" t="s">
-        <v>81</v>
+        <v>422.5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>56</v>
+      </c>
+      <c r="F173" t="str">
+        <f>VLOOKUP(E173,A:F,6,FALSE)</f>
+        <v>Milchprodukte / Eier</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B174" s="2">
-        <f t="shared" ref="B174:B183" si="6">VLOOKUP(E174,A:B,2,FALSE)</f>
         <v>23</v>
       </c>
       <c r="C174">
-        <f>VLOOKUP(E174,A:C,3,FALSE)</f>
         <v>400</v>
       </c>
       <c r="D174">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="E174" t="s">
-        <v>199</v>
-      </c>
-      <c r="F174" t="str">
-        <f>VLOOKUP(E174,A:F,6,FALSE)</f>
-        <v>Obst / Gemüse</v>
+      <c r="F174" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B175" s="2">
-        <f t="shared" si="6"/>
-        <v>6.14</v>
+        <f>VLOOKUP(E175,A:B,2,FALSE)</f>
+        <v>23</v>
       </c>
       <c r="C175">
         <f>VLOOKUP(E175,A:C,3,FALSE)</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D175">
         <f t="shared" si="2"/>
-        <v>12.28</v>
+        <v>92</v>
       </c>
       <c r="E175" t="s">
-        <v>186</v>
-      </c>
-      <c r="F175" t="s">
-        <v>82</v>
+        <v>199</v>
+      </c>
+      <c r="F175" t="str">
+        <f>VLOOKUP(E175,A:F,6,FALSE)</f>
+        <v>Obst / Gemüse</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B176" s="2">
-        <f t="shared" si="6"/>
-        <v>235</v>
+        <f>VLOOKUP(E176,A:B,2,FALSE)</f>
+        <v>6.14</v>
       </c>
       <c r="C176">
-        <v>140</v>
+        <f>VLOOKUP(E176,A:C,3,FALSE)</f>
+        <v>200</v>
       </c>
       <c r="D176">
         <f t="shared" si="2"/>
-        <v>329</v>
+        <v>12.28</v>
       </c>
       <c r="E176" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="F176" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B177" s="2">
-        <f t="shared" si="6"/>
-        <v>303</v>
+        <f>VLOOKUP(E177,A:B,2,FALSE)</f>
+        <v>235</v>
       </c>
       <c r="C177">
-        <f>VLOOKUP(E177,A:C,3,FALSE)</f>
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="D177">
         <f t="shared" si="2"/>
-        <v>757.5</v>
+        <v>329</v>
       </c>
       <c r="E177" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="F177" t="s">
         <v>80</v>
@@ -4601,33 +4596,33 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B178" s="2">
-        <f t="shared" si="6"/>
-        <v>37</v>
+        <f>VLOOKUP(E178,A:B,2,FALSE)</f>
+        <v>303</v>
       </c>
       <c r="C178">
         <f>VLOOKUP(E178,A:C,3,FALSE)</f>
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="D178">
         <f t="shared" si="2"/>
-        <v>277.5</v>
+        <v>757.5</v>
       </c>
       <c r="E178" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B179" s="2">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(E179,A:B,2,FALSE)</f>
         <v>37</v>
       </c>
       <c r="C179">
@@ -4647,67 +4642,67 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B180" s="2">
-        <f t="shared" si="6"/>
-        <v>169</v>
+        <f>VLOOKUP(E180,A:B,2,FALSE)</f>
+        <v>37</v>
       </c>
       <c r="C180">
-        <v>200</v>
+        <f>VLOOKUP(E180,A:C,3,FALSE)</f>
+        <v>750</v>
       </c>
       <c r="D180">
         <f t="shared" si="2"/>
-        <v>338</v>
+        <v>277.5</v>
       </c>
       <c r="E180" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F180" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B181" s="2">
-        <f t="shared" si="6"/>
-        <v>43</v>
+        <f>VLOOKUP(E181,A:B,2,FALSE)</f>
+        <v>169</v>
       </c>
       <c r="C181">
-        <f t="shared" ref="C181" si="7">VLOOKUP(E181,A:C,3,FALSE)</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D181">
         <f t="shared" si="2"/>
-        <v>64.5</v>
+        <v>338</v>
       </c>
       <c r="E181" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F181" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B182" s="2">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f>VLOOKUP(E182,A:B,2,FALSE)</f>
+        <v>43</v>
       </c>
       <c r="C182">
         <f>VLOOKUP(E182,A:C,3,FALSE)</f>
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="D182">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>64.5</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
         <v>82</v>
@@ -4715,93 +4710,98 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B183" s="2">
-        <f t="shared" si="6"/>
-        <v>178</v>
+        <f>VLOOKUP(E183,A:B,2,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="C183">
-        <v>200</v>
+        <f>VLOOKUP(E183,A:C,3,FALSE)</f>
+        <v>500</v>
       </c>
       <c r="D183">
         <f t="shared" si="2"/>
-        <v>356</v>
+        <v>160</v>
       </c>
       <c r="E183" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>195</v>
-      </c>
-      <c r="B184" s="1">
-        <v>150</v>
+        <v>208</v>
+      </c>
+      <c r="B184" s="2">
+        <f>VLOOKUP(E184,A:B,2,FALSE)</f>
+        <v>178</v>
       </c>
       <c r="C184">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="D184">
         <f t="shared" si="2"/>
-        <v>103.49999999999999</v>
+        <v>356</v>
+      </c>
+      <c r="E184" t="s">
+        <v>74</v>
       </c>
       <c r="F184" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B185" s="1">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C185">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="D185">
         <f t="shared" si="2"/>
-        <v>201.6</v>
+        <v>103.49999999999999</v>
       </c>
       <c r="F185" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>202</v>
-      </c>
-      <c r="B186" s="2">
-        <v>22</v>
+        <v>200</v>
+      </c>
+      <c r="B186" s="1">
+        <v>168</v>
       </c>
       <c r="C186">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D186">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>201.6</v>
       </c>
       <c r="F186" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>203</v>
-      </c>
-      <c r="B187" s="1">
-        <v>41</v>
+        <v>202</v>
+      </c>
+      <c r="B187" s="2">
+        <v>22</v>
       </c>
       <c r="C187">
         <v>200</v>
       </c>
       <c r="D187">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F187" t="s">
         <v>81</v>
@@ -4809,41 +4809,38 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B188" s="1">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C188">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D188">
         <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-      <c r="E188" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="F188" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B189" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C189">
         <v>250</v>
       </c>
       <c r="D189">
         <f t="shared" si="2"/>
-        <v>67.5</v>
+        <v>62.5</v>
       </c>
       <c r="E189" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F189" t="s">
         <v>82</v>
@@ -4851,77 +4848,77 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B190" s="1">
-        <v>5.3</v>
+        <v>27</v>
       </c>
       <c r="C190">
         <v>250</v>
       </c>
       <c r="D190">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>67.5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>207</v>
       </c>
       <c r="F190" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B191" s="1">
-        <v>86</v>
+        <v>5.3</v>
       </c>
       <c r="C191">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D191">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>13.25</v>
       </c>
       <c r="F191" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B192" s="1">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C192">
         <v>200</v>
       </c>
       <c r="D192">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E192" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="F192" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B193" s="1">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C193">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D193">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>30</v>
       </c>
       <c r="E193" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="F193" t="s">
         <v>82</v>
@@ -4929,74 +4926,74 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B194" s="1">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C194">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="D194">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>365</v>
+      </c>
+      <c r="E194" t="s">
+        <v>214</v>
       </c>
       <c r="F194" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B195" s="1">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="C195">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="D195">
         <f t="shared" si="2"/>
-        <v>640</v>
+        <v>105</v>
       </c>
       <c r="F195" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B196" s="1">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="C196">
         <v>250</v>
       </c>
       <c r="D196">
         <f t="shared" si="2"/>
-        <v>197.5</v>
+        <v>640</v>
       </c>
       <c r="F196" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B197" s="1">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C197">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D197">
         <f t="shared" si="2"/>
-        <v>595</v>
-      </c>
-      <c r="E197" t="s">
-        <v>221</v>
+        <v>197.5</v>
       </c>
       <c r="F197" t="s">
         <v>82</v>
@@ -5004,17 +5001,20 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B198" s="1">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C198">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D198">
         <f t="shared" si="2"/>
-        <v>92.5</v>
+        <v>595</v>
+      </c>
+      <c r="E198" t="s">
+        <v>221</v>
       </c>
       <c r="F198" t="s">
         <v>82</v>
@@ -5022,56 +5022,56 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B199" s="1">
-        <v>6.93</v>
+        <v>37</v>
       </c>
       <c r="C199">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D199">
         <f t="shared" si="2"/>
-        <v>34.65</v>
+        <v>92.5</v>
       </c>
       <c r="F199" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B200" s="1">
-        <v>21</v>
+        <v>6.93</v>
       </c>
       <c r="C200">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="D200">
         <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
-      <c r="E200" t="s">
-        <v>136</v>
+        <v>34.65</v>
       </c>
       <c r="F200" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B201" s="1">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="C201">
         <v>700</v>
       </c>
       <c r="D201">
         <f t="shared" si="2"/>
-        <v>770</v>
+        <v>147</v>
+      </c>
+      <c r="E201" t="s">
+        <v>136</v>
       </c>
       <c r="F201" t="s">
         <v>82</v>
@@ -5079,35 +5079,35 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B202" s="1">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="C202">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D202">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>770</v>
       </c>
       <c r="F202" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B203" s="1">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C203">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D203">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="F203" t="s">
         <v>81</v>
@@ -5115,17 +5115,17 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B204" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C204">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="D204">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>51</v>
       </c>
       <c r="F204" t="s">
         <v>81</v>
@@ -5133,38 +5133,38 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B205" s="1">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C205">
         <v>750</v>
       </c>
       <c r="D205">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="E205" t="s">
-        <v>233</v>
+        <v>420</v>
       </c>
       <c r="F205" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B206" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C206">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="D206">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>120</v>
+      </c>
+      <c r="E206" t="s">
+        <v>233</v>
       </c>
       <c r="F206" t="s">
         <v>82</v>
@@ -5172,17 +5172,17 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B207" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C207">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D207">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="F207" t="s">
         <v>82</v>
@@ -5190,42 +5190,42 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B208" s="1">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C208">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D208">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="F208" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B209" s="1">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C209">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="D209">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>145</v>
       </c>
       <c r="F209" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F207" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}"/>
+  <autoFilter ref="A1:F208" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\OneDrive\Dokumente\Count_prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{DE91FE44-BF38-44FB-844C-1B53654C778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D679D1F-DF42-4163-8A57-C5F705D73119}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8021E3D-CD10-45B7-AE3F-8C1685110C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="3030" windowWidth="21600" windowHeight="11040" xr2:uid="{9CEB87A9-AAE3-4144-8460-A009C5F567C6}"/>
+    <workbookView xWindow="27330" yWindow="1575" windowWidth="21600" windowHeight="11040" xr2:uid="{9CEB87A9-AAE3-4144-8460-A009C5F567C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbon_footprint" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Carbon_footprint!$A$1:$F$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Carbon_footprint!$A$1:$F$217</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="250">
   <si>
     <t>Hähnchen Fleisch</t>
   </si>
@@ -754,6 +754,39 @@
   </si>
   <si>
     <t>Kokosmilch</t>
+  </si>
+  <si>
+    <t>Lachs</t>
+  </si>
+  <si>
+    <t>Mortadella</t>
+  </si>
+  <si>
+    <t>Putenbrust Paprika</t>
+  </si>
+  <si>
+    <t>Schweinebraten</t>
+  </si>
+  <si>
+    <t>Wurstfleisch</t>
+  </si>
+  <si>
+    <t>Putenbrust</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>Roastbeef</t>
+  </si>
+  <si>
+    <t>Skyr</t>
+  </si>
+  <si>
+    <t>Speisequark</t>
+  </si>
+  <si>
+    <t>Quark</t>
   </si>
 </sst>
 </file>
@@ -1119,23 +1152,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -1155,7 +1188,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1191,7 +1224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +1260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1245,7 +1278,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1263,7 +1296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1332,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1350,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1335,7 +1368,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1371,7 +1404,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>238</v>
       </c>
@@ -1389,7 +1422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1407,7 +1440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1425,7 +1458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1443,7 +1476,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1461,7 +1494,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1479,7 +1512,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1497,7 +1530,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1515,7 +1548,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1533,7 +1566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1551,7 +1584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1569,7 +1602,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1620,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1605,7 +1638,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1656,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1641,7 +1674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1659,7 +1692,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1677,7 +1710,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1695,7 +1728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1713,7 +1746,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1731,7 +1764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1749,7 +1782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1767,7 +1800,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1788,7 +1821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1806,7 +1839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1824,7 +1857,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1842,7 +1875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1860,7 +1893,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1881,7 +1914,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1899,7 +1932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1917,7 +1950,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1935,7 +1968,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -1953,7 +1986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -1971,7 +2004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -1992,7 +2025,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2010,7 +2043,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2028,7 +2061,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2049,7 +2082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -2067,7 +2100,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2088,7 +2121,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2109,7 +2142,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -2127,7 +2160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2148,7 +2181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -2166,7 +2199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2187,7 +2220,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2205,7 +2238,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2223,7 +2256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2241,7 +2274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2262,7 +2295,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2283,7 +2316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2304,7 +2337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2322,7 +2355,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>173</v>
       </c>
@@ -2343,7 +2376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2364,7 +2397,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2382,7 +2415,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2400,7 +2433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2418,7 +2451,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -2436,7 +2469,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -2454,7 +2487,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -2472,7 +2505,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -2490,7 +2523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2508,7 +2541,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2529,7 +2562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2547,7 +2580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2565,7 +2598,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2586,7 +2619,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2607,7 +2640,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -2628,7 +2661,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2649,7 +2682,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2670,7 +2703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2691,7 +2724,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2709,7 +2742,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2730,7 +2763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -2751,7 +2784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -2772,7 +2805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -2793,7 +2826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2814,7 +2847,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -2835,7 +2868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -2856,7 +2889,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2877,7 +2910,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -2898,7 +2931,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -2919,7 +2952,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -2937,7 +2970,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -2958,7 +2991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -2976,7 +3009,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -2994,7 +3027,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -3015,7 +3048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -3036,7 +3069,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -3057,7 +3090,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -3075,7 +3108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -3093,7 +3126,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -3114,7 +3147,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -3135,7 +3168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -3156,7 +3189,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -3177,7 +3210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -3198,7 +3231,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -3216,7 +3249,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -3237,7 +3270,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -3258,7 +3291,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -3279,7 +3312,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -3300,7 +3333,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -3318,7 +3351,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -3339,7 +3372,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -3357,7 +3390,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -3375,7 +3408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -3396,7 +3429,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>137</v>
       </c>
@@ -3417,7 +3450,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -3438,7 +3471,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -3459,7 +3492,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -3480,7 +3513,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>140</v>
       </c>
@@ -3498,7 +3531,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>141</v>
       </c>
@@ -3519,7 +3552,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -3540,7 +3573,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>143</v>
       </c>
@@ -3558,7 +3591,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>144</v>
       </c>
@@ -3579,7 +3612,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>170</v>
       </c>
@@ -3600,7 +3633,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>145</v>
       </c>
@@ -3621,7 +3654,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -3642,7 +3675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -3663,7 +3696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -3681,7 +3714,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -3702,7 +3735,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -3723,7 +3756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -3744,7 +3777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -3765,7 +3798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -3786,7 +3819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -3807,7 +3840,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -3825,7 +3858,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>157</v>
       </c>
@@ -3843,7 +3876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -3861,7 +3894,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -3879,7 +3912,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>160</v>
       </c>
@@ -3900,7 +3933,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -3918,7 +3951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>162</v>
       </c>
@@ -3939,7 +3972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -3957,7 +3990,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>164</v>
       </c>
@@ -3978,7 +4011,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>166</v>
       </c>
@@ -3996,7 +4029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -4017,7 +4050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>168</v>
       </c>
@@ -4038,7 +4071,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -4059,7 +4092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>174</v>
       </c>
@@ -4077,7 +4110,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>175</v>
       </c>
@@ -4095,7 +4128,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>176</v>
       </c>
@@ -4116,7 +4149,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>177</v>
       </c>
@@ -4134,7 +4167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>178</v>
       </c>
@@ -4152,7 +4185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>179</v>
       </c>
@@ -4170,7 +4203,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>180</v>
       </c>
@@ -4188,7 +4221,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -4206,7 +4239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>182</v>
       </c>
@@ -4228,7 +4261,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>183</v>
       </c>
@@ -4239,14 +4272,14 @@
         <v>700</v>
       </c>
       <c r="D161">
-        <f t="shared" ref="D161:D210" si="2">B161*(C161/100)</f>
+        <f t="shared" ref="D161:D218" si="2">B161*(C161/100)</f>
         <v>735</v>
       </c>
       <c r="F161" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>184</v>
       </c>
@@ -4264,7 +4297,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>185</v>
       </c>
@@ -4282,7 +4315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>186</v>
       </c>
@@ -4300,7 +4333,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>187</v>
       </c>
@@ -4321,7 +4354,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>189</v>
       </c>
@@ -4339,7 +4372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>190</v>
       </c>
@@ -4363,7 +4396,7 @@
         <v>Milchprodukte / Eier</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>191</v>
       </c>
@@ -4387,7 +4420,7 @@
         <v>Fleisch / Fisch</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>192</v>
       </c>
@@ -4411,7 +4444,7 @@
         <v>Fleisch / Fisch</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>193</v>
       </c>
@@ -4435,7 +4468,7 @@
         <v>Sonstiges</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>194</v>
       </c>
@@ -4459,7 +4492,7 @@
         <v>Fleisch / Fisch</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>197</v>
       </c>
@@ -4483,7 +4516,7 @@
         <v>Sonstiges</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>198</v>
       </c>
@@ -4507,7 +4540,7 @@
         <v>Milchprodukte / Eier</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>199</v>
       </c>
@@ -4525,7 +4558,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>196</v>
       </c>
@@ -4549,683 +4582,879 @@
         <v>Obst / Gemüse</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="B176" s="2">
         <f>VLOOKUP(E176,A:B,2,FALSE)</f>
-        <v>6.14</v>
+        <v>106</v>
       </c>
       <c r="C176">
         <f>VLOOKUP(E176,A:C,3,FALSE)</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D176">
         <f t="shared" si="2"/>
-        <v>12.28</v>
+        <v>265</v>
       </c>
       <c r="E176" t="s">
-        <v>186</v>
-      </c>
-      <c r="F176" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="F176" t="str">
+        <f>VLOOKUP(E176,A:F,6,FALSE)</f>
+        <v>Milchprodukte / Eier</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B177" s="2">
         <f>VLOOKUP(E177,A:B,2,FALSE)</f>
-        <v>235</v>
+        <v>6.14</v>
       </c>
       <c r="C177">
-        <v>140</v>
+        <f>VLOOKUP(E177,A:C,3,FALSE)</f>
+        <v>200</v>
       </c>
       <c r="D177">
         <f t="shared" si="2"/>
-        <v>329</v>
+        <v>12.28</v>
       </c>
       <c r="E177" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="F177" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B178" s="2">
         <f>VLOOKUP(E178,A:B,2,FALSE)</f>
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="C178">
-        <f>VLOOKUP(E178,A:C,3,FALSE)</f>
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="D178">
         <f t="shared" si="2"/>
-        <v>757.5</v>
+        <v>329</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="F178" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B179" s="2">
         <f>VLOOKUP(E179,A:B,2,FALSE)</f>
-        <v>37</v>
+        <v>303</v>
       </c>
       <c r="C179">
         <f>VLOOKUP(E179,A:C,3,FALSE)</f>
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="D179">
         <f t="shared" si="2"/>
-        <v>277.5</v>
+        <v>757.5</v>
       </c>
       <c r="E179" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="B180" s="2">
-        <f>VLOOKUP(E180,A:B,2,FALSE)</f>
-        <v>37</v>
+        <v>989</v>
       </c>
       <c r="C180">
-        <f>VLOOKUP(E180,A:C,3,FALSE)</f>
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="D180">
         <f t="shared" si="2"/>
-        <v>277.5</v>
+        <v>989</v>
       </c>
       <c r="E180" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="F180" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B181" s="2">
         <f>VLOOKUP(E181,A:B,2,FALSE)</f>
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="C181">
-        <v>200</v>
+        <f>VLOOKUP(E181,A:C,3,FALSE)</f>
+        <v>750</v>
       </c>
       <c r="D181">
         <f t="shared" si="2"/>
-        <v>338</v>
+        <v>277.5</v>
       </c>
       <c r="E181" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F181" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B182" s="2">
         <f>VLOOKUP(E182,A:B,2,FALSE)</f>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C182">
-        <f>VLOOKUP(E182,A:C,3,FALSE)</f>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D182">
         <f t="shared" si="2"/>
-        <v>64.5</v>
+        <v>415</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F182" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B183" s="2">
         <f>VLOOKUP(E183,A:B,2,FALSE)</f>
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C183">
         <f>VLOOKUP(E183,A:C,3,FALSE)</f>
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="D183">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="F183" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="B184" s="2">
         <f>VLOOKUP(E184,A:B,2,FALSE)</f>
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="C184">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D184">
         <f t="shared" si="2"/>
-        <v>356</v>
+        <v>135.6</v>
       </c>
       <c r="E184" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="F184" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>195</v>
-      </c>
-      <c r="B185" s="1">
-        <v>150</v>
+        <v>222</v>
+      </c>
+      <c r="B185" s="2">
+        <f>VLOOKUP(E185,A:B,2,FALSE)</f>
+        <v>37</v>
       </c>
       <c r="C185">
-        <v>69</v>
+        <f>VLOOKUP(E185,A:C,3,FALSE)</f>
+        <v>750</v>
       </c>
       <c r="D185">
         <f t="shared" si="2"/>
-        <v>103.49999999999999</v>
+        <v>277.5</v>
+      </c>
+      <c r="E185" t="s">
+        <v>19</v>
       </c>
       <c r="F185" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>231</v>
+      </c>
+      <c r="B186" s="2">
+        <f>VLOOKUP(E186,A:B,2,FALSE)</f>
+        <v>169</v>
+      </c>
+      <c r="C186">
         <v>200</v>
       </c>
-      <c r="B186" s="1">
-        <v>168</v>
-      </c>
-      <c r="C186">
-        <v>120</v>
-      </c>
       <c r="D186">
         <f t="shared" si="2"/>
-        <v>201.6</v>
+        <v>338</v>
+      </c>
+      <c r="E186" t="s">
+        <v>56</v>
       </c>
       <c r="F186" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="B187" s="2">
-        <v>22</v>
+        <f>VLOOKUP(E187,A:B,2,FALSE)</f>
+        <v>178</v>
       </c>
       <c r="C187">
-        <v>200</v>
+        <f>VLOOKUP(E187,A:C,3,FALSE)</f>
+        <v>250</v>
       </c>
       <c r="D187">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>445</v>
+      </c>
+      <c r="E187" t="s">
+        <v>111</v>
       </c>
       <c r="F187" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>203</v>
-      </c>
-      <c r="B188" s="1">
+        <v>241</v>
+      </c>
+      <c r="B188" s="2">
+        <f>VLOOKUP(E188,A:B,2,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="C188">
+        <v>120</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>135.6</v>
+      </c>
+      <c r="E188" t="s">
+        <v>112</v>
+      </c>
+      <c r="F188" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>236</v>
+      </c>
+      <c r="B189" s="2">
+        <f>VLOOKUP(E189,A:B,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="C189">
+        <f>VLOOKUP(E189,A:C,3,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>64.5</v>
+      </c>
+      <c r="E189" t="s">
         <v>41</v>
       </c>
-      <c r="C188">
-        <v>200</v>
-      </c>
-      <c r="D188">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="F188" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>204</v>
-      </c>
-      <c r="B189" s="1">
-        <v>25</v>
-      </c>
-      <c r="C189">
-        <v>250</v>
-      </c>
-      <c r="D189">
-        <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-      <c r="E189" t="s">
-        <v>206</v>
-      </c>
       <c r="F189" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>205</v>
-      </c>
-      <c r="B190" s="1">
-        <v>27</v>
+        <v>240</v>
+      </c>
+      <c r="B190" s="2">
+        <v>110</v>
       </c>
       <c r="C190">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="D190">
         <f t="shared" si="2"/>
-        <v>67.5</v>
+        <v>132</v>
       </c>
       <c r="E190" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="F190" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>210</v>
-      </c>
-      <c r="B191" s="1">
-        <v>5.3</v>
+        <v>225</v>
+      </c>
+      <c r="B191" s="2">
+        <f>VLOOKUP(E191,A:B,2,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="C191">
-        <v>250</v>
+        <f>VLOOKUP(E191,A:C,3,FALSE)</f>
+        <v>500</v>
       </c>
       <c r="D191">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>160</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>211</v>
-      </c>
-      <c r="B192" s="1">
-        <v>86</v>
+        <v>208</v>
+      </c>
+      <c r="B192" s="2">
+        <f>VLOOKUP(E192,A:B,2,FALSE)</f>
+        <v>178</v>
       </c>
       <c r="C192">
         <v>200</v>
       </c>
       <c r="D192">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>356</v>
+      </c>
+      <c r="E192" t="s">
+        <v>74</v>
       </c>
       <c r="F192" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" s="1">
+        <v>150</v>
+      </c>
+      <c r="C193">
+        <v>69</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>103.49999999999999</v>
+      </c>
+      <c r="F193" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>249</v>
+      </c>
+      <c r="B194" s="1">
+        <v>106</v>
+      </c>
+      <c r="C194">
+        <v>250</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="2"/>
+        <v>265</v>
+      </c>
+      <c r="F194" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>212</v>
-      </c>
-      <c r="B193" s="1">
-        <v>15</v>
-      </c>
-      <c r="C193">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>200</v>
       </c>
-      <c r="D193">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E193" t="s">
-        <v>54</v>
-      </c>
-      <c r="F193" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>213</v>
-      </c>
-      <c r="B194" s="1">
-        <v>73</v>
-      </c>
-      <c r="C194">
-        <v>500</v>
-      </c>
-      <c r="D194">
-        <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="E194" t="s">
-        <v>214</v>
-      </c>
-      <c r="F194" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>215</v>
-      </c>
       <c r="B195" s="1">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="C195">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="D195">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>201.6</v>
       </c>
       <c r="F195" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>202</v>
+      </c>
+      <c r="B196" s="2">
+        <v>22</v>
+      </c>
+      <c r="C196">
+        <v>200</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F196" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>216</v>
-      </c>
-      <c r="B196" s="1">
-        <v>256</v>
-      </c>
-      <c r="C196">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>203</v>
+      </c>
+      <c r="B197" s="1">
+        <v>41</v>
+      </c>
+      <c r="C197">
+        <v>200</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F197" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198" s="1">
+        <v>25</v>
+      </c>
+      <c r="C198">
         <v>250</v>
       </c>
-      <c r="D196">
-        <f t="shared" si="2"/>
-        <v>640</v>
-      </c>
-      <c r="F196" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>218</v>
-      </c>
-      <c r="B197" s="1">
-        <v>79</v>
-      </c>
-      <c r="C197">
-        <v>250</v>
-      </c>
-      <c r="D197">
-        <f t="shared" si="2"/>
-        <v>197.5</v>
-      </c>
-      <c r="F197" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>220</v>
-      </c>
-      <c r="B198" s="1">
-        <v>119</v>
-      </c>
-      <c r="C198">
-        <v>500</v>
-      </c>
       <c r="D198">
         <f t="shared" si="2"/>
-        <v>595</v>
+        <v>62.5</v>
       </c>
       <c r="E198" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F198" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B199" s="1">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C199">
         <v>250</v>
       </c>
       <c r="D199">
         <f t="shared" si="2"/>
-        <v>92.5</v>
+        <v>67.5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>207</v>
       </c>
       <c r="F199" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B200" s="1">
-        <v>6.93</v>
+        <v>5.3</v>
       </c>
       <c r="C200">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D200">
         <f t="shared" si="2"/>
-        <v>34.65</v>
+        <v>13.25</v>
       </c>
       <c r="F200" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B201" s="1">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C201">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="D201">
         <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
-      <c r="E201" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="F201" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B202" s="1">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="C202">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="D202">
         <f t="shared" si="2"/>
-        <v>770</v>
+        <v>30</v>
+      </c>
+      <c r="E202" t="s">
+        <v>54</v>
       </c>
       <c r="F202" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B203" s="1">
+        <v>73</v>
+      </c>
+      <c r="C203">
+        <v>500</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="E203" t="s">
+        <v>214</v>
+      </c>
+      <c r="F203" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>215</v>
+      </c>
+      <c r="B204" s="1">
         <v>14</v>
       </c>
-      <c r="C203">
-        <v>1000</v>
-      </c>
-      <c r="D203">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="F203" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>229</v>
-      </c>
-      <c r="B204" s="1">
-        <v>51</v>
-      </c>
       <c r="C204">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="D204">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F204" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B205" s="1">
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="C205">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="D205">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>640</v>
       </c>
       <c r="F205" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B206" s="1">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C206">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="D206">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="E206" t="s">
-        <v>233</v>
+        <v>197.5</v>
       </c>
       <c r="F206" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B207" s="1">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C207">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D207">
         <f t="shared" si="2"/>
+        <v>595</v>
+      </c>
+      <c r="E207" t="s">
+        <v>221</v>
+      </c>
+      <c r="F207" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>223</v>
+      </c>
+      <c r="B208" s="1">
+        <v>37</v>
+      </c>
+      <c r="C208">
         <v>250</v>
       </c>
-      <c r="F207" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>235</v>
-      </c>
-      <c r="B208" s="1">
-        <v>23</v>
-      </c>
-      <c r="C208">
+      <c r="D208">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="F208" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>224</v>
+      </c>
+      <c r="B209" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="C209">
         <v>500</v>
       </c>
-      <c r="D208">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="F208" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>237</v>
-      </c>
-      <c r="B209" s="1">
-        <v>58</v>
-      </c>
-      <c r="C209">
-        <v>250</v>
-      </c>
       <c r="D209">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>34.65</v>
       </c>
       <c r="F209" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>226</v>
+      </c>
+      <c r="B210" s="1">
+        <v>21</v>
+      </c>
+      <c r="C210">
+        <v>700</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="E210" t="s">
+        <v>136</v>
+      </c>
+      <c r="F210" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>227</v>
+      </c>
+      <c r="B211" s="1">
+        <v>110</v>
+      </c>
+      <c r="C211">
+        <v>700</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
+      <c r="F211" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>228</v>
+      </c>
+      <c r="B212" s="1">
+        <v>14</v>
+      </c>
+      <c r="C212">
+        <v>1000</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="F212" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>229</v>
+      </c>
+      <c r="B213" s="1">
+        <v>51</v>
+      </c>
+      <c r="C213">
+        <v>100</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="F213" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>230</v>
+      </c>
+      <c r="B214" s="1">
+        <v>56</v>
+      </c>
+      <c r="C214">
+        <v>750</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="F214" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>232</v>
+      </c>
+      <c r="B215" s="1">
+        <v>16</v>
+      </c>
+      <c r="C215">
+        <v>750</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="E215" t="s">
+        <v>233</v>
+      </c>
+      <c r="F215" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>234</v>
+      </c>
+      <c r="B216" s="1">
+        <v>25</v>
+      </c>
+      <c r="C216">
+        <v>1000</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="F216" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>235</v>
+      </c>
+      <c r="B217" s="1">
+        <v>23</v>
+      </c>
+      <c r="C217">
+        <v>500</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="F217" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>237</v>
+      </c>
+      <c r="B218" s="1">
+        <v>58</v>
+      </c>
+      <c r="C218">
+        <v>250</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="F218" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F208" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}"/>
+  <autoFilter ref="A1:F217" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\OneDrive\Dokumente\Count_prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8021E3D-CD10-45B7-AE3F-8C1685110C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEC2B97-8D99-4297-8C2F-FFC2F2728838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27330" yWindow="1575" windowWidth="21600" windowHeight="11040" xr2:uid="{9CEB87A9-AAE3-4144-8460-A009C5F567C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{9CEB87A9-AAE3-4144-8460-A009C5F567C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbon_footprint" sheetId="1" r:id="rId1"/>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D95502D-50C3-4DDD-A8F3-7C8C0FCBD78D}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="D180" sqref="D180"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="K226" sqref="K226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCE0F4FC-4947-4AF6-9424-84D1A50A4E8B}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF3D3C3-10A7-43ED-92F5-2242DD47F9FC}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11415" xr2:uid="{1575D379-9279-429E-8A00-2E1BF894E283}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1575D379-9279-429E-8A00-2E1BF894E283}"/>
   </bookViews>
   <sheets>
     <sheet name="Grocery_footprint" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grocery_footprint!$A$1:$D$488</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grocery_footprint!$A$1:$D$498</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="509">
   <si>
     <t>typical_weight</t>
   </si>
@@ -1529,6 +1529,42 @@
   </si>
   <si>
     <t>Mettenden</t>
+  </si>
+  <si>
+    <t>Doritos</t>
+  </si>
+  <si>
+    <t>Nic Nac's</t>
+  </si>
+  <si>
+    <t>Gnocchi</t>
+  </si>
+  <si>
+    <t>Lillet Rose</t>
+  </si>
+  <si>
+    <t>Schweppes Wild Berry</t>
+  </si>
+  <si>
+    <t>Gouda jung</t>
+  </si>
+  <si>
+    <t>Dt. Markenbutter</t>
+  </si>
+  <si>
+    <t>Schmelzkaesezubereitung</t>
+  </si>
+  <si>
+    <t>Kartoffelknoedel</t>
+  </si>
+  <si>
+    <t>Wachs-Brechbohnen</t>
+  </si>
+  <si>
+    <t>Maultaschen</t>
+  </si>
+  <si>
+    <t>Banane lose</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1596,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1568,15 +1604,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1891,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}">
-  <dimension ref="A1:F488"/>
+  <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="H436" sqref="H436"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E457" sqref="E457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6506,10 +6553,10 @@
         <v>213.82782137587878</v>
       </c>
       <c r="C271">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D271">
-        <v>534.56955343969696</v>
+        <v>427.65559999999999</v>
       </c>
       <c r="F271" t="s">
         <v>383</v>
@@ -8869,10 +8916,10 @@
         <v>107.77267860594679</v>
       </c>
       <c r="C410">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D410">
-        <v>161.65901790892019</v>
+        <v>538.86350000000004</v>
       </c>
       <c r="F410" t="s">
         <v>384</v>
@@ -8886,10 +8933,10 @@
         <v>107.77267860594679</v>
       </c>
       <c r="C411">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D411">
-        <v>161.65901790892019</v>
+        <v>538.86350000000004</v>
       </c>
       <c r="F411" t="s">
         <v>384</v>
@@ -10043,10 +10090,10 @@
         <v>291.5540934880687</v>
       </c>
       <c r="C479">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D479">
-        <v>583.1081869761374</v>
+        <v>1457.77045</v>
       </c>
       <c r="F479" t="s">
         <v>383</v>
@@ -10162,10 +10209,10 @@
         <v>397.09658434909136</v>
       </c>
       <c r="C486">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D486">
-        <v>1985.4829217454567</v>
+        <v>15883.86</v>
       </c>
       <c r="F486" t="s">
         <v>384</v>
@@ -10189,24 +10236,229 @@
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+      <c r="A488" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B488">
+      <c r="B488" s="2">
         <v>506.10882273164447</v>
       </c>
-      <c r="C488">
+      <c r="C488" s="2">
         <v>200</v>
       </c>
-      <c r="D488">
+      <c r="D488" s="2">
         <v>1012.2176454632889</v>
       </c>
-      <c r="F488" t="s">
+      <c r="E488" s="2"/>
+      <c r="F488" s="2" t="s">
         <v>381</v>
       </c>
     </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B489">
+        <v>189.5269395707852</v>
+      </c>
+      <c r="C489">
+        <v>150</v>
+      </c>
+      <c r="D489">
+        <v>284.29040935617797</v>
+      </c>
+      <c r="F489" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B490">
+        <v>54.813128231837617</v>
+      </c>
+      <c r="C490">
+        <v>1000</v>
+      </c>
+      <c r="D490">
+        <v>548.13128231837618</v>
+      </c>
+      <c r="F490" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B491">
+        <v>250.47264001678226</v>
+      </c>
+      <c r="C491">
+        <v>250</v>
+      </c>
+      <c r="D491">
+        <v>626.18160004195568</v>
+      </c>
+      <c r="F491" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B492">
+        <v>214.27348726536511</v>
+      </c>
+      <c r="C492">
+        <v>250</v>
+      </c>
+      <c r="D492">
+        <v>535.68371816341278</v>
+      </c>
+      <c r="F492" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B493">
+        <v>187.23444372851921</v>
+      </c>
+      <c r="C493">
+        <v>750</v>
+      </c>
+      <c r="D493">
+        <v>1404.2583279638941</v>
+      </c>
+      <c r="F493" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B494">
+        <v>772.41037351381658</v>
+      </c>
+      <c r="C494">
+        <v>200</v>
+      </c>
+      <c r="D494">
+        <v>1544.8208</v>
+      </c>
+      <c r="F494" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B495">
+        <v>392.03766637964208</v>
+      </c>
+      <c r="C495">
+        <v>250</v>
+      </c>
+      <c r="D495">
+        <v>980.09416594910522</v>
+      </c>
+      <c r="F495" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B496">
+        <v>772.41037351381658</v>
+      </c>
+      <c r="C496">
+        <v>125</v>
+      </c>
+      <c r="D496">
+        <v>965.51289999999995</v>
+      </c>
+      <c r="F496" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B497">
+        <v>130.6517576810553</v>
+      </c>
+      <c r="C497">
+        <v>500</v>
+      </c>
+      <c r="D497">
+        <v>653.2587884052765</v>
+      </c>
+      <c r="F497" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B498">
+        <v>104.09554725031116</v>
+      </c>
+      <c r="C498">
+        <v>400</v>
+      </c>
+      <c r="D498">
+        <v>416.38200000000001</v>
+      </c>
+      <c r="F498" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B499">
+        <v>126.57325595679386</v>
+      </c>
+      <c r="C499">
+        <v>200</v>
+      </c>
+      <c r="D499">
+        <v>253.14651191358772</v>
+      </c>
+      <c r="F499" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B500">
+        <v>98.234837170729406</v>
+      </c>
+      <c r="C500">
+        <v>300</v>
+      </c>
+      <c r="D500">
+        <v>294.70440000000002</v>
+      </c>
+      <c r="F500" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D488" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}"/>
+  <autoFilter ref="A1:D498" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF3D3C3-10A7-43ED-92F5-2242DD47F9FC}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1B12FAE-C30C-44C3-AA64-C9D240245357}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1575D379-9279-429E-8A00-2E1BF894E283}"/>
+    <workbookView xWindow="22860" yWindow="1095" windowWidth="28800" windowHeight="15600" xr2:uid="{1575D379-9279-429E-8A00-2E1BF894E283}"/>
   </bookViews>
   <sheets>
     <sheet name="Grocery_footprint" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="526">
   <si>
     <t>typical_weight</t>
   </si>
@@ -1534,9 +1534,6 @@
     <t>Doritos</t>
   </si>
   <si>
-    <t>Nic Nac's</t>
-  </si>
-  <si>
     <t>Gnocchi</t>
   </si>
   <si>
@@ -1564,7 +1561,61 @@
     <t>Maultaschen</t>
   </si>
   <si>
-    <t>Banane lose</t>
+    <t>Nic Nacs</t>
+  </si>
+  <si>
+    <t>Banane</t>
+  </si>
+  <si>
+    <t>Sonnenmais</t>
+  </si>
+  <si>
+    <t>Pils</t>
+  </si>
+  <si>
+    <t>Schweineschitzel</t>
+  </si>
+  <si>
+    <t>Airwaves</t>
+  </si>
+  <si>
+    <t>Muesli</t>
+  </si>
+  <si>
+    <t>Olivenvariation</t>
+  </si>
+  <si>
+    <t>Passata Rustica</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Paulaner</t>
+  </si>
+  <si>
+    <t>Gouda</t>
+  </si>
+  <si>
+    <t>Sojacuisine</t>
+  </si>
+  <si>
+    <t>Laugenbrezel</t>
+  </si>
+  <si>
+    <t>Haferfl.</t>
+  </si>
+  <si>
+    <t>Bio-Streichcreme</t>
+  </si>
+  <si>
+    <t>Tonic Water</t>
+  </si>
+  <si>
+    <t>Baguette</t>
+  </si>
+  <si>
+    <t>Miwa. Still</t>
   </si>
 </sst>
 </file>
@@ -1617,13 +1668,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1938,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}">
-  <dimension ref="A1:F500"/>
+  <dimension ref="A1:F517"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E457" sqref="E457"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,13 +2029,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>70.12458970785093</v>
       </c>
       <c r="C2">
         <v>400</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>280.49835883140372</v>
       </c>
       <c r="F2" t="s">
@@ -1993,13 +2046,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>83.478029857749547</v>
       </c>
       <c r="C3">
         <v>1500</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1252.1704478662432</v>
       </c>
       <c r="F3" t="s">
@@ -2010,13 +2063,13 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>97.467641693605003</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>194.93528338721001</v>
       </c>
       <c r="F4" t="s">
@@ -2027,13 +2080,13 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>194.57437091102688</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>389.14874182205375</v>
       </c>
       <c r="F5" t="s">
@@ -2044,13 +2097,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>55.56717128051551</v>
       </c>
       <c r="C6">
         <v>500</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>277.83585640257752</v>
       </c>
       <c r="F6" t="s">
@@ -2061,13 +2114,13 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>101.79225458028007</v>
       </c>
       <c r="C7">
         <v>125</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>127.24031822535009</v>
       </c>
       <c r="F7" t="s">
@@ -2078,13 +2131,13 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>15195.385119542516</v>
       </c>
       <c r="C8">
         <v>250</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>37988.462798856286</v>
       </c>
       <c r="F8" t="s">
@@ -2095,13 +2148,13 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>3251.4568098666437</v>
       </c>
       <c r="C9">
         <v>400</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>13005.827239466575</v>
       </c>
       <c r="F9" t="s">
@@ -2112,13 +2165,13 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>4569.0624232737719</v>
       </c>
       <c r="C10">
         <v>250</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>11422.65605818443</v>
       </c>
       <c r="F10" t="s">
@@ -2129,13 +2182,13 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>8089.4392674364217</v>
       </c>
       <c r="C11">
         <v>600</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>48536.635604618532</v>
       </c>
       <c r="F11" t="s">
@@ -2146,13 +2199,13 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>59.79980984426529</v>
       </c>
       <c r="C12">
         <v>500</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>298.99904922132646</v>
       </c>
       <c r="F12" t="s">
@@ -2163,13 +2216,13 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>59.79980984426529</v>
       </c>
       <c r="C13">
         <v>500</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>298.99904922132646</v>
       </c>
       <c r="F13" t="s">
@@ -2180,13 +2233,13 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>298.11890681849718</v>
       </c>
       <c r="C14">
         <v>200</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>596.23781363699436</v>
       </c>
       <c r="F14" t="s">
@@ -2197,13 +2250,13 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>272.97772445012896</v>
       </c>
       <c r="C15">
         <v>400</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>1091.9108978005158</v>
       </c>
       <c r="F15" t="s">
@@ -2214,13 +2267,13 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>288.43201541602332</v>
       </c>
       <c r="C16">
         <v>200</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>576.86403083204664</v>
       </c>
       <c r="F16" t="s">
@@ -2231,13 +2284,13 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>126.34971492032049</v>
       </c>
       <c r="C17">
         <v>400</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>505.39885968128198</v>
       </c>
       <c r="F17" t="s">
@@ -2248,13 +2301,13 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>107.83823141273871</v>
       </c>
       <c r="C18">
         <v>275</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>296.55513638503146</v>
       </c>
       <c r="F18" t="s">
@@ -2265,13 +2318,13 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>73.925500834528108</v>
       </c>
       <c r="C19">
         <v>750</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>554.44125625896083</v>
       </c>
       <c r="F19" t="s">
@@ -2282,13 +2335,13 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>73.925500834528108</v>
       </c>
       <c r="C20">
         <v>500</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>369.62750417264056</v>
       </c>
       <c r="F20" t="s">
@@ -2299,13 +2352,13 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>73.925500834528108</v>
       </c>
       <c r="C21">
         <v>400</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>295.70200333811243</v>
       </c>
       <c r="F21" t="s">
@@ -2316,13 +2369,13 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>61.782120641021471</v>
       </c>
       <c r="C22">
         <v>500</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>308.91060320510735</v>
       </c>
       <c r="F22" t="s">
@@ -2333,13 +2386,13 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>156.3350221886551</v>
       </c>
       <c r="C23">
         <v>275</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>429.92131101880153</v>
       </c>
       <c r="F23" t="s">
@@ -2350,13 +2403,13 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>151.31097330587934</v>
       </c>
       <c r="C24">
         <v>500</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>756.55486652939669</v>
       </c>
       <c r="F24" t="s">
@@ -2367,13 +2420,13 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>176.05994409747044</v>
       </c>
       <c r="C25">
         <v>500</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>880.29972048735215</v>
       </c>
       <c r="F25" t="s">
@@ -2384,13 +2437,13 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>211.91139374935486</v>
       </c>
       <c r="C26">
         <v>500</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>1059.5569687467744</v>
       </c>
       <c r="F26" t="s">
@@ -2401,13 +2454,13 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>169.53173602602533</v>
       </c>
       <c r="C27">
         <v>500</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>847.65868013012664</v>
       </c>
       <c r="F27" t="s">
@@ -2418,13 +2471,13 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>392.03766637964208</v>
       </c>
       <c r="C28">
         <v>250</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>980.09416594910522</v>
       </c>
       <c r="F28" t="s">
@@ -2435,13 +2488,13 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>379.97386298482741</v>
       </c>
       <c r="C29">
         <v>250</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>949.93465746206857</v>
       </c>
       <c r="F29" t="s">
@@ -2452,13 +2505,13 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>215.01695792762703</v>
       </c>
       <c r="C30">
         <v>400</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>860.06783171050813</v>
       </c>
       <c r="F30" t="s">
@@ -2469,13 +2522,13 @@
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>176.73982730095358</v>
       </c>
       <c r="C31">
         <v>200</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>353.47965460190716</v>
       </c>
       <c r="F31" t="s">
@@ -2486,13 +2539,13 @@
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>215.01695792762703</v>
       </c>
       <c r="C32">
         <v>400</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>860.06783171050813</v>
       </c>
       <c r="F32" t="s">
@@ -2503,13 +2556,13 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>215.01695792762703</v>
       </c>
       <c r="C33">
         <v>1400</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>3010.2374109867783</v>
       </c>
       <c r="F33" t="s">
@@ -2520,13 +2573,13 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>262.83659205086985</v>
       </c>
       <c r="C34">
         <v>200</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>525.67318410173971</v>
       </c>
       <c r="F34" t="s">
@@ -2537,13 +2590,13 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>479.57973327760567</v>
       </c>
       <c r="C35">
         <v>200</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>959.15946655521134</v>
       </c>
       <c r="F35" t="s">
@@ -2554,13 +2607,13 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>506.10882273164447</v>
       </c>
       <c r="C36">
         <v>200</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>1012.2176454632889</v>
       </c>
       <c r="F36" t="s">
@@ -2571,13 +2624,13 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>337.70028920197637</v>
       </c>
       <c r="C37">
         <v>250</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>844.25072300494094</v>
       </c>
       <c r="F37" t="s">
@@ -2588,13 +2641,13 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>4583.8646134878918</v>
       </c>
       <c r="C38">
         <v>150</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>6875.7969202318382</v>
       </c>
       <c r="F38" t="s">
@@ -2605,13 +2658,13 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>351.3973090673702</v>
       </c>
       <c r="C39">
         <v>200</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>702.7946181347404</v>
       </c>
       <c r="F39" t="s">
@@ -2622,13 +2675,13 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>181.01987947210236</v>
       </c>
       <c r="C40">
         <v>500</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>905.09939736051183</v>
       </c>
       <c r="F40" t="s">
@@ -2639,13 +2692,13 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>324.79326371947207</v>
       </c>
       <c r="C41">
         <v>200</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>649.58652743894413</v>
       </c>
       <c r="F41" t="s">
@@ -2656,13 +2709,13 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>138.84644259212649</v>
       </c>
       <c r="C42">
         <v>400</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>555.38577036850597</v>
       </c>
       <c r="F42" t="s">
@@ -2673,13 +2726,13 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>132.24084289791932</v>
       </c>
       <c r="C43">
         <v>400</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>528.96337159167729</v>
       </c>
       <c r="F43" t="s">
@@ -2690,13 +2743,13 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>343.5154680311332</v>
       </c>
       <c r="C44">
         <v>400</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>1374.0618721245328</v>
       </c>
       <c r="F44" t="s">
@@ -2707,13 +2760,13 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>841.14941735933758</v>
       </c>
       <c r="C45">
         <v>100</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>841.14941735933758</v>
       </c>
       <c r="F45" t="s">
@@ -2724,13 +2777,13 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>1011.1088339668102</v>
       </c>
       <c r="C46">
         <v>500</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>5055.544169834051</v>
       </c>
       <c r="F46" t="s">
@@ -2741,13 +2794,13 @@
       <c r="A47" t="s">
         <v>405</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>317.51083185249956</v>
       </c>
       <c r="C47">
         <v>500</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>1587.5541592624977</v>
       </c>
       <c r="F47" t="s">
@@ -2758,13 +2811,13 @@
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>498.01052934238385</v>
       </c>
       <c r="C48">
         <v>500</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>2490.0526467119194</v>
       </c>
       <c r="F48" t="s">
@@ -2775,13 +2828,13 @@
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>3411.4532081073521</v>
       </c>
       <c r="C49">
         <v>150</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>5117.1798121610282</v>
       </c>
       <c r="F49" t="s">
@@ -2792,13 +2845,13 @@
       <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>401.57405194276913</v>
       </c>
       <c r="C50">
         <v>150</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>602.36107791415373</v>
       </c>
       <c r="F50" t="s">
@@ -2809,13 +2862,13 @@
       <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>486.32349226418756</v>
       </c>
       <c r="C51">
         <v>150</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>729.48523839628137</v>
       </c>
       <c r="F51" t="s">
@@ -2826,13 +2879,13 @@
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>227.0877699723049</v>
       </c>
       <c r="C52">
         <v>250</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>567.71942493076222</v>
       </c>
       <c r="F52" t="s">
@@ -2843,13 +2896,13 @@
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>227.0877699723049</v>
       </c>
       <c r="C53">
         <v>2500</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>5677.1942493076222</v>
       </c>
       <c r="F53" t="s">
@@ -2860,13 +2913,13 @@
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>108.33031475499141</v>
       </c>
       <c r="C54">
         <v>500</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>541.651573774957</v>
       </c>
       <c r="F54" t="s">
@@ -2877,13 +2930,13 @@
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>125.18096166312343</v>
       </c>
       <c r="C55">
         <v>500</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>625.90480831561717</v>
       </c>
       <c r="F55" t="s">
@@ -2894,13 +2947,13 @@
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C56">
         <v>250</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F56" t="s">
@@ -2911,13 +2964,13 @@
       <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C57">
         <v>150</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>1158.6155602707249</v>
       </c>
       <c r="F57" t="s">
@@ -2928,13 +2981,13 @@
       <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>282.85588983646983</v>
       </c>
       <c r="C58">
         <v>200</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>565.71177967293966</v>
       </c>
       <c r="F58" t="s">
@@ -2945,13 +2998,13 @@
       <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>1188.7820442272243</v>
       </c>
       <c r="C59">
         <v>300</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>3566.3461326816732</v>
       </c>
       <c r="F59" t="s">
@@ -2962,13 +3015,13 @@
       <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>662.64479133754503</v>
       </c>
       <c r="C60">
         <v>320</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>2120.4633322801442</v>
       </c>
       <c r="F60" t="s">
@@ -2979,13 +3032,13 @@
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>1133.3210603457374</v>
       </c>
       <c r="C61">
         <v>100</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>1133.3210603457374</v>
       </c>
       <c r="F61" t="s">
@@ -2996,13 +3049,13 @@
       <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>985.0063060913609</v>
       </c>
       <c r="C62">
         <v>400</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>3940.0252243654436</v>
       </c>
       <c r="F62" t="s">
@@ -3013,13 +3066,13 @@
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>177.19091798514168</v>
       </c>
       <c r="C63">
         <v>600</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>1063.14550791085</v>
       </c>
       <c r="F63" t="s">
@@ -3030,13 +3083,13 @@
       <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>915.18570406984429</v>
       </c>
       <c r="C64">
         <v>200</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>1830.3714081396886</v>
       </c>
       <c r="F64" t="s">
@@ -3047,13 +3100,13 @@
       <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>1468.0803609182792</v>
       </c>
       <c r="C65">
         <v>300</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>4404.2410827548374</v>
       </c>
       <c r="F65" t="s">
@@ -3064,13 +3117,13 @@
       <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>1159.2371996882007</v>
       </c>
       <c r="C66">
         <v>200</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>2318.4743993764014</v>
       </c>
       <c r="F66" t="s">
@@ -3081,13 +3134,13 @@
       <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>659.25158451865639</v>
       </c>
       <c r="C67">
         <v>300</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>1977.7547535559693</v>
       </c>
       <c r="F67" t="s">
@@ -3098,13 +3151,13 @@
       <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>76.873795005082968</v>
       </c>
       <c r="C68">
         <v>1000</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>768.73795005082968</v>
       </c>
       <c r="F68" t="s">
@@ -3115,13 +3168,13 @@
       <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>83.591185835820013</v>
       </c>
       <c r="C69">
         <v>1000</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>835.91185835820011</v>
       </c>
       <c r="F69" t="s">
@@ -3132,13 +3185,13 @@
       <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>114.29719236487412</v>
       </c>
       <c r="C70">
         <v>1000</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>1142.9719236487413</v>
       </c>
       <c r="F70" t="s">
@@ -3149,13 +3202,13 @@
       <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>63.291762127992449</v>
       </c>
       <c r="C71">
         <v>1000</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>632.91762127992445</v>
       </c>
       <c r="F71" t="s">
@@ -3166,13 +3219,13 @@
       <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>84.9535278158436</v>
       </c>
       <c r="C72">
         <v>260</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>220.87917232119338</v>
       </c>
       <c r="F72" t="s">
@@ -3183,13 +3236,13 @@
       <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>1383.5911781735392</v>
       </c>
       <c r="C73">
         <v>250</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>3458.9779454338482</v>
       </c>
       <c r="F73" t="s">
@@ -3200,13 +3253,13 @@
       <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>731.67453732823924</v>
       </c>
       <c r="C74">
         <v>250</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>1829.1863433205981</v>
       </c>
       <c r="F74" t="s">
@@ -3217,13 +3270,13 @@
       <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>828.45570579435537</v>
       </c>
       <c r="C75">
         <v>250</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>2071.1392644858884</v>
       </c>
       <c r="F75" t="s">
@@ -3234,13 +3287,13 @@
       <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>1678.3306324885921</v>
       </c>
       <c r="C76">
         <v>250</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>4195.8265812214804</v>
       </c>
       <c r="F76" t="s">
@@ -3251,13 +3304,13 @@
       <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>271.54986729555748</v>
       </c>
       <c r="C77">
         <v>250</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>678.87466823889372</v>
       </c>
       <c r="F77" t="s">
@@ -3268,13 +3321,13 @@
       <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>258.49399888848183</v>
       </c>
       <c r="C78">
         <v>1000</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>2584.9399888848184</v>
       </c>
       <c r="F78" t="s">
@@ -3285,13 +3338,13 @@
       <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>239.69109159505504</v>
       </c>
       <c r="C79">
         <v>750</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>1797.6831869629127</v>
       </c>
       <c r="F79" t="s">
@@ -3302,13 +3355,13 @@
       <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>169.2549868162881</v>
       </c>
       <c r="C80">
         <v>450</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>761.64744067329639</v>
       </c>
       <c r="F80" t="s">
@@ -3319,13 +3372,13 @@
       <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>397.09658434909136</v>
       </c>
       <c r="C81">
         <v>500</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>1985.4829217454567</v>
       </c>
       <c r="F81" t="s">
@@ -3336,13 +3389,13 @@
       <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>132.10785813022346</v>
       </c>
       <c r="C82">
         <v>1000</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>1321.0785813022346</v>
       </c>
       <c r="F82" t="s">
@@ -3353,13 +3406,13 @@
       <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>130.00771946996321</v>
       </c>
       <c r="C83">
         <v>400</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>520.03087787985282</v>
       </c>
       <c r="F83" t="s">
@@ -3370,13 +3423,13 @@
       <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>180.09092597590936</v>
       </c>
       <c r="C84">
         <v>250</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>450.22731493977341</v>
       </c>
       <c r="F84" t="s">
@@ -3387,13 +3440,13 @@
       <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>263.36467310346069</v>
       </c>
       <c r="C85">
         <v>500</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>1316.8233655173035</v>
       </c>
       <c r="F85" t="s">
@@ -3404,13 +3457,13 @@
       <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>180.09092597590936</v>
       </c>
       <c r="C86">
         <v>250</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>450.22731493977341</v>
       </c>
       <c r="F86" t="s">
@@ -3421,13 +3474,13 @@
       <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>227.0877699723049</v>
       </c>
       <c r="C87">
         <v>300</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>681.26330991691475</v>
       </c>
       <c r="F87" t="s">
@@ -3438,13 +3491,13 @@
       <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>227.0877699723049</v>
       </c>
       <c r="C88">
         <v>200</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>454.1755399446098</v>
       </c>
       <c r="F88" t="s">
@@ -3455,13 +3508,13 @@
       <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>83.406489072356351</v>
       </c>
       <c r="C89">
         <v>500</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>417.03244536178175</v>
       </c>
       <c r="F89" t="s">
@@ -3472,13 +3525,13 @@
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>94.519518550353808</v>
       </c>
       <c r="C90">
         <v>500</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>472.59759275176907</v>
       </c>
       <c r="F90" t="s">
@@ -3489,13 +3542,13 @@
       <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>111.43188495349854</v>
       </c>
       <c r="C91">
         <v>500</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>557.15942476749274</v>
       </c>
       <c r="F91" t="s">
@@ -3506,13 +3559,13 @@
       <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>36.894872486866866</v>
       </c>
       <c r="C92">
         <v>75</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>27.671154365150151</v>
       </c>
       <c r="F92" t="s">
@@ -3523,13 +3576,13 @@
       <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>36.894872486866866</v>
       </c>
       <c r="C93">
         <v>75</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>27.671154365150151</v>
       </c>
       <c r="F93" t="s">
@@ -3540,13 +3593,13 @@
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>132.56810640440403</v>
       </c>
       <c r="C94">
         <v>150</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>198.85215960660605</v>
       </c>
       <c r="F94" t="s">
@@ -3557,13 +3610,13 @@
       <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>32.481980175241851</v>
       </c>
       <c r="C95">
         <v>75</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>24.361485131431387</v>
       </c>
       <c r="F95" t="s">
@@ -3574,13 +3627,13 @@
       <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>36.894872486866866</v>
       </c>
       <c r="C96">
         <v>75</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>27.671154365150151</v>
       </c>
       <c r="F96" t="s">
@@ -3591,13 +3644,13 @@
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>169.2549868162881</v>
       </c>
       <c r="C97">
         <v>400</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>677.01994726515238</v>
       </c>
       <c r="F97" t="s">
@@ -3608,13 +3661,13 @@
       <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>434.65266189188264</v>
       </c>
       <c r="C98">
         <v>200</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>869.30532378376529</v>
       </c>
       <c r="F98" t="s">
@@ -3625,13 +3678,13 @@
       <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>176.90972163674201</v>
       </c>
       <c r="C99">
         <v>500</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>884.54860818371003</v>
       </c>
       <c r="F99" t="s">
@@ -3642,13 +3695,13 @@
       <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>362.35554585643257</v>
       </c>
       <c r="C100">
         <v>250</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>905.88886464108145</v>
       </c>
       <c r="F100" t="s">
@@ -3659,13 +3712,13 @@
       <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>314.96783356262375</v>
       </c>
       <c r="C101">
         <v>250</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>787.41958390655941</v>
       </c>
       <c r="F101" t="s">
@@ -3676,13 +3729,13 @@
       <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>401.13194099582915</v>
       </c>
       <c r="C102">
         <v>200</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>802.26388199165831</v>
       </c>
       <c r="F102" t="s">
@@ -3693,13 +3746,13 @@
       <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>320.43649820993608</v>
       </c>
       <c r="C103">
         <v>200</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>640.87299641987215</v>
       </c>
       <c r="F103" t="s">
@@ -3710,13 +3763,13 @@
       <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>77.458491537051387</v>
       </c>
       <c r="C104">
         <v>500</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>387.29245768525692</v>
       </c>
       <c r="F104" t="s">
@@ -3727,13 +3780,13 @@
       <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>283.87859911802411</v>
       </c>
       <c r="C105">
         <v>1000</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
         <v>2838.7859911802411</v>
       </c>
       <c r="F105" t="s">
@@ -3744,13 +3797,13 @@
       <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <v>115.25106608475717</v>
       </c>
       <c r="C106">
         <v>175</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
         <v>201.68936564832504</v>
       </c>
       <c r="F106" t="s">
@@ -3761,13 +3814,13 @@
       <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>192.70310837583159</v>
       </c>
       <c r="C107">
         <v>1000</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="3">
         <v>1927.0310837583158</v>
       </c>
       <c r="F107" t="s">
@@ -3778,13 +3831,13 @@
       <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>43.909991228281939</v>
       </c>
       <c r="C108">
         <v>500</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
         <v>219.54995614140969</v>
       </c>
       <c r="F108" t="s">
@@ -3795,13 +3848,13 @@
       <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>29.590500982275863</v>
       </c>
       <c r="C109">
         <v>500</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="3">
         <v>147.95250491137932</v>
       </c>
       <c r="F109" t="s">
@@ -3812,13 +3865,13 @@
       <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <v>29.590500982275863</v>
       </c>
       <c r="C110">
         <v>750</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
         <v>221.92875736706898</v>
       </c>
       <c r="F110" t="s">
@@ -3829,13 +3882,13 @@
       <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="3">
         <v>70.859804828108764</v>
       </c>
       <c r="C111">
         <v>500</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="3">
         <v>354.29902414054379</v>
       </c>
       <c r="F111" t="s">
@@ -3846,13 +3899,13 @@
       <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="3">
         <v>70.859804828108764</v>
       </c>
       <c r="C112">
         <v>600</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
         <v>425.15882896865259</v>
       </c>
       <c r="F112" t="s">
@@ -3863,13 +3916,13 @@
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="3">
         <v>24.788707061870262</v>
       </c>
       <c r="C113">
         <v>600</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="3">
         <v>148.73224237122156</v>
       </c>
       <c r="F113" t="s">
@@ -3880,13 +3933,13 @@
       <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3">
         <v>24.788707061870262</v>
       </c>
       <c r="C114">
         <v>600</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="3">
         <v>148.73224237122156</v>
       </c>
       <c r="F114" t="s">
@@ -3897,13 +3950,13 @@
       <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3">
         <v>24.788707061870262</v>
       </c>
       <c r="C115">
         <v>500</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="3">
         <v>123.94353530935132</v>
       </c>
       <c r="F115" t="s">
@@ -3914,13 +3967,13 @@
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3">
         <v>24.788707061870262</v>
       </c>
       <c r="C116">
         <v>1400</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="3">
         <v>347.04189886618366</v>
       </c>
       <c r="F116" t="s">
@@ -3931,13 +3984,13 @@
       <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="3">
         <v>51.87259930414038</v>
       </c>
       <c r="C117">
         <v>500</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="3">
         <v>259.36299652070193</v>
       </c>
       <c r="F117" t="s">
@@ -3948,13 +4001,13 @@
       <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="3">
         <v>97.613510732824849</v>
       </c>
       <c r="C118">
         <v>500</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="3">
         <v>488.06755366412426</v>
       </c>
       <c r="F118" t="s">
@@ -3965,13 +4018,13 @@
       <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3">
         <v>87.983541076766542</v>
       </c>
       <c r="C119">
         <v>400</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="3">
         <v>351.93416430706617</v>
       </c>
       <c r="F119" t="s">
@@ -3982,13 +4035,13 @@
       <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3">
         <v>59.415466220075693</v>
       </c>
       <c r="C120">
         <v>300</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="3">
         <v>178.24639866022707</v>
       </c>
       <c r="F120" t="s">
@@ -3999,13 +4052,13 @@
       <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="3">
         <v>59.415466220075693</v>
       </c>
       <c r="C121">
         <v>300</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="3">
         <v>178.24639866022707</v>
       </c>
       <c r="F121" t="s">
@@ -4016,13 +4069,13 @@
       <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3">
         <v>24.788707061870262</v>
       </c>
       <c r="C122">
         <v>300</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="3">
         <v>74.36612118561078</v>
       </c>
       <c r="F122" t="s">
@@ -4033,13 +4086,13 @@
       <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <v>84.250995887775602</v>
       </c>
       <c r="C123">
         <v>500</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="3">
         <v>421.25497943887802</v>
       </c>
       <c r="F123" t="s">
@@ -4050,13 +4103,13 @@
       <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="3">
         <v>32.481980175241851</v>
       </c>
       <c r="C124">
         <v>200</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="3">
         <v>64.963960350483703</v>
       </c>
       <c r="F124" t="s">
@@ -4067,13 +4120,13 @@
       <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3">
         <v>64.317314172891074</v>
       </c>
       <c r="C125">
         <v>750</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="3">
         <v>482.37985629668304</v>
       </c>
       <c r="F125" t="s">
@@ -4084,13 +4137,13 @@
       <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3">
         <v>84.250995887775602</v>
       </c>
       <c r="C126">
         <v>1000</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="3">
         <v>842.50995887775605</v>
       </c>
       <c r="F126" t="s">
@@ -4101,13 +4154,13 @@
       <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <v>104.09554725031116</v>
       </c>
       <c r="C127">
         <v>500</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="3">
         <v>520.47773625155583</v>
       </c>
       <c r="F127" t="s">
@@ -4118,13 +4171,13 @@
       <c r="A128" t="s">
         <v>126</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <v>66.640321964340913</v>
       </c>
       <c r="C128">
         <v>500</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="3">
         <v>333.20160982170455</v>
       </c>
       <c r="F128" t="s">
@@ -4135,13 +4188,13 @@
       <c r="A129" t="s">
         <v>127</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <v>177.90929220645336</v>
       </c>
       <c r="C129">
         <v>500</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="3">
         <v>889.54646103226673</v>
       </c>
       <c r="F129" t="s">
@@ -4152,13 +4205,13 @@
       <c r="A130" t="s">
         <v>128</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3">
         <v>223.39761083025266</v>
       </c>
       <c r="C130">
         <v>500</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="3">
         <v>1116.9880541512632</v>
       </c>
       <c r="F130" t="s">
@@ -4169,13 +4222,13 @@
       <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="3">
         <v>104.09554725031116</v>
       </c>
       <c r="C131">
         <v>200</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="3">
         <v>208.19109450062231</v>
       </c>
       <c r="F131" t="s">
@@ -4186,13 +4239,13 @@
       <c r="A132" t="s">
         <v>130</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3">
         <v>73.944693468931916</v>
       </c>
       <c r="C132">
         <v>300</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="3">
         <v>221.83408040679575</v>
       </c>
       <c r="F132" t="s">
@@ -4203,13 +4256,13 @@
       <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3">
         <v>116.19428962622722</v>
       </c>
       <c r="C133">
         <v>1000</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="3">
         <v>1161.9428962622721</v>
       </c>
       <c r="F133" t="s">
@@ -4220,13 +4273,13 @@
       <c r="A134" t="s">
         <v>132</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="3">
         <v>87.169863249188936</v>
       </c>
       <c r="C134">
         <v>400</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="3">
         <v>348.67945299675574</v>
       </c>
       <c r="F134" t="s">
@@ -4237,13 +4290,13 @@
       <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="3">
         <v>21.674118734526314</v>
       </c>
       <c r="C135">
         <v>1000</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="3">
         <v>216.74118734526314</v>
       </c>
       <c r="F135" t="s">
@@ -4254,13 +4307,13 @@
       <c r="A136" t="s">
         <v>134</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <v>54.813128231837617</v>
       </c>
       <c r="C136">
         <v>1000</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="3">
         <v>548.13128231837618</v>
       </c>
       <c r="F136" t="s">
@@ -4271,13 +4324,13 @@
       <c r="A137" t="s">
         <v>135</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3">
         <v>164.13942618738039</v>
       </c>
       <c r="C137">
         <v>1000</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="3">
         <v>1641.394261873804</v>
       </c>
       <c r="F137" t="s">
@@ -4288,13 +4341,13 @@
       <c r="A138" t="s">
         <v>136</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="3">
         <v>427.25494619625977</v>
       </c>
       <c r="C138">
         <v>700</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="3">
         <v>2990.7846233738182</v>
       </c>
       <c r="F138" t="s">
@@ -4305,13 +4358,13 @@
       <c r="A139" t="s">
         <v>137</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="3">
         <v>339.23116812585135</v>
       </c>
       <c r="C139">
         <v>700</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="3">
         <v>2374.6181768809593</v>
       </c>
       <c r="F139" t="s">
@@ -4322,13 +4375,13 @@
       <c r="A140" t="s">
         <v>138</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <v>292.75397067206666</v>
       </c>
       <c r="C140">
         <v>400</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="3">
         <v>1171.0158826882666</v>
       </c>
       <c r="F140" t="s">
@@ -4339,13 +4392,13 @@
       <c r="A141" t="s">
         <v>139</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3">
         <v>945.95215885764298</v>
       </c>
       <c r="C141">
         <v>400</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="3">
         <v>3783.8086354305719</v>
       </c>
       <c r="F141" t="s">
@@ -4356,13 +4409,13 @@
       <c r="A142" t="s">
         <v>140</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3">
         <v>911.89839307604836</v>
       </c>
       <c r="C142">
         <v>250</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="3">
         <v>2279.7459826901209</v>
       </c>
       <c r="F142" t="s">
@@ -4373,13 +4426,13 @@
       <c r="A143" t="s">
         <v>141</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3">
         <v>986.64047854914975</v>
       </c>
       <c r="C143">
         <v>250</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="3">
         <v>2466.6011963728743</v>
       </c>
       <c r="F143" t="s">
@@ -4390,13 +4443,13 @@
       <c r="A144" t="s">
         <v>142</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="3">
         <v>933.99605312896517</v>
       </c>
       <c r="C144">
         <v>250</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="3">
         <v>2334.9901328224128</v>
       </c>
       <c r="F144" t="s">
@@ -4407,13 +4460,13 @@
       <c r="A145" t="s">
         <v>143</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="3">
         <v>986.64047854914975</v>
       </c>
       <c r="C145">
         <v>250</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="3">
         <v>2466.6011963728743</v>
       </c>
       <c r="F145" t="s">
@@ -4424,13 +4477,13 @@
       <c r="A146" t="s">
         <v>58</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="3">
         <v>986.64047854914975</v>
       </c>
       <c r="C146">
         <v>250</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="3">
         <v>2466.6011963728743</v>
       </c>
       <c r="F146" t="s">
@@ -4441,13 +4494,13 @@
       <c r="A147" t="s">
         <v>144</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="3">
         <v>666.28814716520662</v>
       </c>
       <c r="C147">
         <v>250</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="3">
         <v>1665.7203679130166</v>
       </c>
       <c r="F147" t="s">
@@ -4458,13 +4511,13 @@
       <c r="A148" t="s">
         <v>145</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="3">
         <v>978.11666192439407</v>
       </c>
       <c r="C148">
         <v>250</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="3">
         <v>2445.2916548109852</v>
       </c>
       <c r="F148" t="s">
@@ -4475,13 +4528,13 @@
       <c r="A149" t="s">
         <v>146</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="3">
         <v>1013.5476293194663</v>
       </c>
       <c r="C149">
         <v>250</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="3">
         <v>2533.8690732986656</v>
       </c>
       <c r="F149" t="s">
@@ -4492,13 +4545,13 @@
       <c r="A150" t="s">
         <v>147</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="3">
         <v>1219.7581602601861</v>
       </c>
       <c r="C150">
         <v>180</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="3">
         <v>2195.5646884683351</v>
       </c>
       <c r="F150" t="s">
@@ -4509,13 +4562,13 @@
       <c r="A151" t="s">
         <v>148</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="3">
         <v>121.50572192428396</v>
       </c>
       <c r="C151">
         <v>200</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="3">
         <v>243.01144384856792</v>
       </c>
       <c r="F151" t="s">
@@ -4526,13 +4579,13 @@
       <c r="A152" t="s">
         <v>149</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="3">
         <v>355.10230103591527</v>
       </c>
       <c r="C152">
         <v>200</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="3">
         <v>710.20460207183055</v>
       </c>
       <c r="F152" t="s">
@@ -4543,13 +4596,13 @@
       <c r="A153" t="s">
         <v>150</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="3">
         <v>187.96433709178135</v>
       </c>
       <c r="C153">
         <v>250</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="3">
         <v>469.91084272945335</v>
       </c>
       <c r="F153" t="s">
@@ -4560,13 +4613,13 @@
       <c r="A154" t="s">
         <v>151</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="3">
         <v>113.3312548142432</v>
       </c>
       <c r="C154">
         <v>250</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="3">
         <v>283.32813703560799</v>
       </c>
       <c r="F154" t="s">
@@ -4577,13 +4630,13 @@
       <c r="A155" t="s">
         <v>152</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="3">
         <v>46.028436927521817</v>
       </c>
       <c r="C155">
         <v>250</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="3">
         <v>115.07109231880455</v>
       </c>
       <c r="F155" t="s">
@@ -4594,13 +4647,13 @@
       <c r="A156" t="s">
         <v>153</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="3">
         <v>47.059589755488417</v>
       </c>
       <c r="C156">
         <v>400</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="3">
         <v>188.23835902195367</v>
       </c>
       <c r="F156" t="s">
@@ -4611,13 +4664,13 @@
       <c r="A157" t="s">
         <v>154</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="3">
         <v>47.059589755488417</v>
       </c>
       <c r="C157">
         <v>200</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="3">
         <v>94.119179510976835</v>
       </c>
       <c r="F157" t="s">
@@ -4628,13 +4681,13 @@
       <c r="A158" t="s">
         <v>155</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="3">
         <v>351.8350092718868</v>
       </c>
       <c r="C158">
         <v>1000</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="3">
         <v>3518.3500927188679</v>
       </c>
       <c r="F158" t="s">
@@ -4645,13 +4698,13 @@
       <c r="A159" t="s">
         <v>156</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="3">
         <v>38.755261417681503</v>
       </c>
       <c r="C159">
         <v>1000</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="3">
         <v>387.55261417681504</v>
       </c>
       <c r="F159" t="s">
@@ -4662,13 +4715,13 @@
       <c r="A160" t="s">
         <v>157</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="3">
         <v>37.066018076956333</v>
       </c>
       <c r="C160">
         <v>1000</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="3">
         <v>370.66018076956334</v>
       </c>
       <c r="F160" t="s">
@@ -4679,13 +4732,13 @@
       <c r="A161" t="s">
         <v>158</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="3">
         <v>38.118011649298857</v>
       </c>
       <c r="C161">
         <v>1000</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="3">
         <v>381.18011649298859</v>
       </c>
       <c r="F161" t="s">
@@ -4696,13 +4749,13 @@
       <c r="A162" t="s">
         <v>159</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="3">
         <v>37.825926317592973</v>
       </c>
       <c r="C162">
         <v>150</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="3">
         <v>56.73888947638946</v>
       </c>
       <c r="F162" t="s">
@@ -4713,13 +4766,13 @@
       <c r="A163" t="s">
         <v>160</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="3">
         <v>1141.7604079996006</v>
       </c>
       <c r="C163">
         <v>500</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="3">
         <v>5708.8020399980032</v>
       </c>
       <c r="F163" t="s">
@@ -4730,13 +4783,13 @@
       <c r="A164" t="s">
         <v>161</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="3">
         <v>51.634251815286582</v>
       </c>
       <c r="C164">
         <v>150</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="3">
         <v>77.451377722929877</v>
       </c>
       <c r="F164" t="s">
@@ -4747,13 +4800,13 @@
       <c r="A165" t="s">
         <v>162</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="3">
         <v>1141.7604079996006</v>
       </c>
       <c r="C165">
         <v>250</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="3">
         <v>2854.4010199990016</v>
       </c>
       <c r="F165" t="s">
@@ -4764,13 +4817,13 @@
       <c r="A166" t="s">
         <v>163</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="3">
         <v>126.57325595679386</v>
       </c>
       <c r="C166">
         <v>200</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="3">
         <v>253.14651191358772</v>
       </c>
       <c r="F166" t="s">
@@ -4781,13 +4834,13 @@
       <c r="A167" t="s">
         <v>164</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="3">
         <v>1108.4720889207413</v>
       </c>
       <c r="C167">
         <v>300</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="3">
         <v>3325.416266762224</v>
       </c>
       <c r="F167" t="s">
@@ -4798,13 +4851,13 @@
       <c r="A168" t="s">
         <v>165</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="3">
         <v>184.37923300513188</v>
       </c>
       <c r="C168">
         <v>1000</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="3">
         <v>1843.7923300513189</v>
       </c>
       <c r="F168" t="s">
@@ -4815,13 +4868,13 @@
       <c r="A169" t="s">
         <v>166</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="3">
         <v>726.13450064472522</v>
       </c>
       <c r="C169">
         <v>150</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="3">
         <v>1089.2017509670877</v>
       </c>
       <c r="F169" t="s">
@@ -4832,13 +4885,13 @@
       <c r="A170" t="s">
         <v>167</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="3">
         <v>131.34629097016665</v>
       </c>
       <c r="C170">
         <v>250</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="3">
         <v>328.36572742541659</v>
       </c>
       <c r="F170" t="s">
@@ -4849,13 +4902,13 @@
       <c r="A171" t="s">
         <v>168</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="3">
         <v>360.89030705168699</v>
       </c>
       <c r="C171">
         <v>1000</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="3">
         <v>3608.9030705168698</v>
       </c>
       <c r="F171" t="s">
@@ -4866,13 +4919,13 @@
       <c r="A172" t="s">
         <v>169</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="3">
         <v>324.19352050881395</v>
       </c>
       <c r="C172">
         <v>400</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="3">
         <v>1296.7740820352558</v>
       </c>
       <c r="F172" t="s">
@@ -4883,13 +4936,13 @@
       <c r="A173" t="s">
         <v>170</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="3">
         <v>296.19413268215249</v>
       </c>
       <c r="C173">
         <v>600</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="3">
         <v>1777.1647960929149</v>
       </c>
       <c r="F173" t="s">
@@ -4900,13 +4953,13 @@
       <c r="A174" t="s">
         <v>171</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="3">
         <v>379.38472395216087</v>
       </c>
       <c r="C174">
         <v>400</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="3">
         <v>1517.5388958086435</v>
       </c>
       <c r="F174" t="s">
@@ -4917,13 +4970,13 @@
       <c r="A175" t="s">
         <v>172</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="3">
         <v>315.28464388901989</v>
       </c>
       <c r="C175">
         <v>400</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="3">
         <v>1261.1385755560796</v>
       </c>
       <c r="F175" t="s">
@@ -4934,13 +4987,13 @@
       <c r="A176" t="s">
         <v>173</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="3">
         <v>255.68801166189559</v>
       </c>
       <c r="C176">
         <v>400</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="3">
         <v>1022.7520466475823</v>
       </c>
       <c r="F176" t="s">
@@ -4951,13 +5004,13 @@
       <c r="A177" t="s">
         <v>174</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="3">
         <v>440.14180144605865</v>
       </c>
       <c r="C177">
         <v>1000</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="3">
         <v>4401.4180144605862</v>
       </c>
       <c r="F177" t="s">
@@ -4968,13 +5021,13 @@
       <c r="A178" t="s">
         <v>175</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="3">
         <v>625.47288843423632</v>
       </c>
       <c r="C178">
         <v>250</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="3">
         <v>1563.6822210855908</v>
       </c>
       <c r="F178" t="s">
@@ -4985,13 +5038,13 @@
       <c r="A179" t="s">
         <v>176</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="3">
         <v>92.610487415493608</v>
       </c>
       <c r="C179">
         <v>700</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="3">
         <v>648.27341190845527</v>
       </c>
       <c r="F179" t="s">
@@ -5002,13 +5055,13 @@
       <c r="A180" t="s">
         <v>177</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="3">
         <v>173.38245526961657</v>
       </c>
       <c r="C180">
         <v>350</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="3">
         <v>606.83859344365806</v>
       </c>
       <c r="F180" t="s">
@@ -5019,13 +5072,13 @@
       <c r="A181" t="s">
         <v>178</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="3">
         <v>65.7389581155619</v>
       </c>
       <c r="C181">
         <v>750</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="3">
         <v>493.04218586671425</v>
       </c>
       <c r="F181" t="s">
@@ -5036,13 +5089,13 @@
       <c r="A182" t="s">
         <v>179</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="3">
         <v>38.263724852863554</v>
       </c>
       <c r="C182">
         <v>500</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="3">
         <v>191.31862426431778</v>
       </c>
       <c r="F182" t="s">
@@ -5053,13 +5106,13 @@
       <c r="A183" t="s">
         <v>180</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="3">
         <v>94.251251635337894</v>
       </c>
       <c r="C183">
         <v>500</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="3">
         <v>471.25625817668947</v>
       </c>
       <c r="F183" t="s">
@@ -5070,13 +5123,13 @@
       <c r="A184" t="s">
         <v>181</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="3">
         <v>357.91902286039812</v>
       </c>
       <c r="C184">
         <v>400</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="3">
         <v>1431.6760914415925</v>
       </c>
       <c r="F184" t="s">
@@ -5087,13 +5140,13 @@
       <c r="A185" t="s">
         <v>182</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="3">
         <v>357.91902286039812</v>
       </c>
       <c r="C185">
         <v>200</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="3">
         <v>715.83804572079623</v>
       </c>
       <c r="F185" t="s">
@@ -5104,13 +5157,13 @@
       <c r="A186" t="s">
         <v>183</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="3">
         <v>289.74519896693471</v>
       </c>
       <c r="C186">
         <v>350</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="3">
         <v>1014.1081963842714</v>
       </c>
       <c r="F186" t="s">
@@ -5121,13 +5174,13 @@
       <c r="A187" t="s">
         <v>184</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="3">
         <v>1374.0173079517238</v>
       </c>
       <c r="C187">
         <v>400</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="3">
         <v>5496.069231806895</v>
       </c>
       <c r="F187" t="s">
@@ -5138,13 +5191,13 @@
       <c r="A188" t="s">
         <v>185</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="3">
         <v>198.83842849463767</v>
       </c>
       <c r="C188">
         <v>300</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="3">
         <v>596.51528548391298</v>
       </c>
       <c r="F188" t="s">
@@ -5155,13 +5208,13 @@
       <c r="A189" t="s">
         <v>186</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="3">
         <v>287.36507161873294</v>
       </c>
       <c r="C189">
         <v>400</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="3">
         <v>1149.4602864749318</v>
       </c>
       <c r="F189" t="s">
@@ -5172,13 +5225,13 @@
       <c r="A190" t="s">
         <v>187</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="3">
         <v>298.98224568167274</v>
       </c>
       <c r="C190">
         <v>400</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="3">
         <v>1195.9289827266909</v>
       </c>
       <c r="F190" t="s">
@@ -5189,13 +5242,13 @@
       <c r="A191" t="s">
         <v>188</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="3">
         <v>325.9527984736672</v>
       </c>
       <c r="C191">
         <v>400</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="3">
         <v>1303.8111938946688</v>
       </c>
       <c r="F191" t="s">
@@ -5206,13 +5259,13 @@
       <c r="A192" t="s">
         <v>189</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="3">
         <v>35.537759207231524</v>
       </c>
       <c r="C192">
         <v>2500</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="3">
         <v>888.44398018078812</v>
       </c>
       <c r="F192" t="s">
@@ -5223,13 +5276,13 @@
       <c r="A193" t="s">
         <v>426</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="3">
         <v>25.228645250900719</v>
       </c>
       <c r="C193">
         <v>500</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="3">
         <v>126.14322625450359</v>
       </c>
       <c r="F193" t="s">
@@ -5240,13 +5293,13 @@
       <c r="A194" t="s">
         <v>190</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="3">
         <v>36.894872486866866</v>
       </c>
       <c r="C194">
         <v>400</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="3">
         <v>147.57948994746747</v>
       </c>
       <c r="F194" t="s">
@@ -5257,13 +5310,13 @@
       <c r="A195" t="s">
         <v>191</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="3">
         <v>31.009666922689743</v>
       </c>
       <c r="C195">
         <v>250</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="3">
         <v>77.524167306724351</v>
       </c>
       <c r="F195" t="s">
@@ -5274,13 +5327,13 @@
       <c r="A196" t="s">
         <v>192</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="3">
         <v>29.590500982275863</v>
       </c>
       <c r="C196">
         <v>400</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="3">
         <v>118.36200392910345</v>
       </c>
       <c r="F196" t="s">
@@ -5291,13 +5344,13 @@
       <c r="A197" t="s">
         <v>193</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="3">
         <v>185.30189856739705</v>
       </c>
       <c r="C197">
         <v>100</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="3">
         <v>185.30189856739705</v>
       </c>
       <c r="F197" t="s">
@@ -5308,13 +5361,13 @@
       <c r="A198" t="s">
         <v>194</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="3">
         <v>446.0872894423066</v>
       </c>
       <c r="C198">
         <v>250</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="3">
         <v>1115.2182236057665</v>
       </c>
       <c r="F198" t="s">
@@ -5325,13 +5378,13 @@
       <c r="A199" t="s">
         <v>195</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="3">
         <v>25.228645250900719</v>
       </c>
       <c r="C199">
         <v>250</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="3">
         <v>63.071613127251794</v>
       </c>
       <c r="F199" t="s">
@@ -5342,13 +5395,13 @@
       <c r="A200" t="s">
         <v>196</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="3">
         <v>36.561406222970199</v>
       </c>
       <c r="C200">
         <v>2500</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="3">
         <v>914.03515557425499</v>
       </c>
       <c r="F200" t="s">
@@ -5359,13 +5412,13 @@
       <c r="A201" t="s">
         <v>427</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="3">
         <v>36.958561465061216</v>
       </c>
       <c r="C201">
         <v>500</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="3">
         <v>184.79280732530609</v>
       </c>
       <c r="F201" t="s">
@@ -5376,13 +5429,13 @@
       <c r="A202" t="s">
         <v>197</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="3">
         <v>89.887004185173737</v>
       </c>
       <c r="C202">
         <v>2500</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="3">
         <v>2247.1751046293434</v>
       </c>
       <c r="F202" t="s">
@@ -5393,13 +5446,13 @@
       <c r="A203" t="s">
         <v>424</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="3">
         <v>89.887004185173737</v>
       </c>
       <c r="C203">
         <v>150</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="3">
         <v>134.83050627776061</v>
       </c>
       <c r="F203" t="s">
@@ -5410,13 +5463,13 @@
       <c r="A204" t="s">
         <v>198</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="3">
         <v>74.143821039957189</v>
       </c>
       <c r="C204">
         <v>500</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="3">
         <v>370.71910519978593</v>
       </c>
       <c r="F204" t="s">
@@ -5427,13 +5480,13 @@
       <c r="A205" t="s">
         <v>199</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="3">
         <v>89.419151732760525</v>
       </c>
       <c r="C205">
         <v>300</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="3">
         <v>268.2574551982816</v>
       </c>
       <c r="F205" t="s">
@@ -5444,13 +5497,13 @@
       <c r="A206" t="s">
         <v>200</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="3">
         <v>291.5540934880687</v>
       </c>
       <c r="C206">
         <v>200</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="3">
         <v>583.1081869761374</v>
       </c>
       <c r="F206" t="s">
@@ -5461,13 +5514,13 @@
       <c r="A207" t="s">
         <v>201</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="3">
         <v>2743.1376091341963</v>
       </c>
       <c r="C207">
         <v>250</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="3">
         <v>6857.8440228354903</v>
       </c>
       <c r="F207" t="s">
@@ -5478,13 +5531,13 @@
       <c r="A208" t="s">
         <v>202</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="3">
         <v>355.42552805377261</v>
       </c>
       <c r="C208">
         <v>500</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="3">
         <v>1777.1276402688632</v>
       </c>
       <c r="F208" t="s">
@@ -5495,13 +5548,13 @@
       <c r="A209" t="s">
         <v>203</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="3">
         <v>1052.150898522292</v>
       </c>
       <c r="C209">
         <v>250</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="3">
         <v>2630.3772463057298</v>
       </c>
       <c r="F209" t="s">
@@ -5512,13 +5565,13 @@
       <c r="A210" t="s">
         <v>204</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="3">
         <v>355.42552805377261</v>
       </c>
       <c r="C210">
         <v>1000</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="3">
         <v>3554.2552805377263</v>
       </c>
       <c r="F210" t="s">
@@ -5529,13 +5582,13 @@
       <c r="A211" t="s">
         <v>205</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="3">
         <v>589.88102480077328</v>
       </c>
       <c r="C211">
         <v>250</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="3">
         <v>1474.7025620019331</v>
       </c>
       <c r="F211" t="s">
@@ -5546,13 +5599,13 @@
       <c r="A212" t="s">
         <v>206</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="3">
         <v>1243.4839442518776</v>
       </c>
       <c r="C212">
         <v>250</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="3">
         <v>3108.709860629694</v>
       </c>
       <c r="F212" t="s">
@@ -5563,13 +5616,13 @@
       <c r="A213" t="s">
         <v>207</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="3">
         <v>124.52036757374793</v>
       </c>
       <c r="C213">
         <v>200</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="3">
         <v>249.04073514749587</v>
       </c>
       <c r="F213" t="s">
@@ -5580,13 +5633,13 @@
       <c r="A214" t="s">
         <v>208</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="3">
         <v>250.47264001678226</v>
       </c>
       <c r="C214">
         <v>250</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="3">
         <v>626.18160004195568</v>
       </c>
       <c r="F214" t="s">
@@ -5597,13 +5650,13 @@
       <c r="A215" t="s">
         <v>209</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="3">
         <v>56.156606169667654</v>
       </c>
       <c r="C215">
         <v>250</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="3">
         <v>140.39151542416914</v>
       </c>
       <c r="F215" t="s">
@@ -5614,13 +5667,13 @@
       <c r="A216" t="s">
         <v>210</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="3">
         <v>83.981138676786529</v>
       </c>
       <c r="C216">
         <v>125</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="3">
         <v>104.97642334598316</v>
       </c>
       <c r="F216" t="s">
@@ -5631,13 +5684,13 @@
       <c r="A217" t="s">
         <v>211</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="3">
         <v>53.441700036576911</v>
       </c>
       <c r="C217">
         <v>150</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="3">
         <v>80.162550054865363</v>
       </c>
       <c r="F217" t="s">
@@ -5648,13 +5701,13 @@
       <c r="A218" t="s">
         <v>212</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="3">
         <v>290.51358026671596</v>
       </c>
       <c r="C218">
         <v>300</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="3">
         <v>871.54074080014789</v>
       </c>
       <c r="F218" t="s">
@@ -5665,13 +5718,13 @@
       <c r="A219" t="s">
         <v>213</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="3">
         <v>90.722046659706265</v>
       </c>
       <c r="C219">
         <v>125</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="3">
         <v>113.40255832463284</v>
       </c>
       <c r="F219" t="s">
@@ -5682,13 +5735,13 @@
       <c r="A220" t="s">
         <v>214</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="3">
         <v>90.722046659706265</v>
       </c>
       <c r="C220">
         <v>125</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="3">
         <v>113.40255832463284</v>
       </c>
       <c r="F220" t="s">
@@ -5699,13 +5752,13 @@
       <c r="A221" t="s">
         <v>215</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="3">
         <v>84.956610966005314</v>
       </c>
       <c r="C221">
         <v>125</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="3">
         <v>106.19576370750664</v>
       </c>
       <c r="F221" t="s">
@@ -5716,13 +5769,13 @@
       <c r="A222" t="s">
         <v>216</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="3">
         <v>98.461269314281751</v>
       </c>
       <c r="C222">
         <v>500</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="3">
         <v>492.30634657140877</v>
       </c>
       <c r="F222" t="s">
@@ -5733,13 +5786,13 @@
       <c r="A223" t="s">
         <v>217</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="3">
         <v>102.25602285483012</v>
       </c>
       <c r="C223">
         <v>400</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="3">
         <v>409.02409141932048</v>
       </c>
       <c r="F223" t="s">
@@ -5750,13 +5803,13 @@
       <c r="A224" t="s">
         <v>218</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="3">
         <v>85.751129885427133</v>
       </c>
       <c r="C224">
         <v>400</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="3">
         <v>343.00451954170853</v>
       </c>
       <c r="F224" t="s">
@@ -5767,13 +5820,13 @@
       <c r="A225" t="s">
         <v>219</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="3">
         <v>291.5540934880687</v>
       </c>
       <c r="C225">
         <v>200</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="3">
         <v>583.1081869761374</v>
       </c>
       <c r="F225" t="s">
@@ -5784,13 +5837,13 @@
       <c r="A226" t="s">
         <v>220</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="3">
         <v>291.5540934880687</v>
       </c>
       <c r="C226">
         <v>200</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="3">
         <v>583.1081869761374</v>
       </c>
       <c r="F226" t="s">
@@ -5801,13 +5854,13 @@
       <c r="A227" t="s">
         <v>221</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="3">
         <v>114.67840340908978</v>
       </c>
       <c r="C227">
         <v>400</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="3">
         <v>458.71361363635913</v>
       </c>
       <c r="F227" t="s">
@@ -5818,13 +5871,13 @@
       <c r="A228" t="s">
         <v>222</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="3">
         <v>60.89876298602141</v>
       </c>
       <c r="C228">
         <v>400</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="3">
         <v>243.59505194408564</v>
       </c>
       <c r="F228" t="s">
@@ -5835,13 +5888,13 @@
       <c r="A229" t="s">
         <v>402</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="3">
         <v>128.26324010231602</v>
       </c>
       <c r="C229">
         <v>750</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="3">
         <v>961.9743007673701</v>
       </c>
       <c r="F229" t="s">
@@ -5852,13 +5905,13 @@
       <c r="A230" t="s">
         <v>223</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="3">
         <v>248.62487390304358</v>
       </c>
       <c r="C230">
         <v>400</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="3">
         <v>994.49949561217431</v>
       </c>
       <c r="F230" t="s">
@@ -5869,13 +5922,13 @@
       <c r="A231" t="s">
         <v>224</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="3">
         <v>430.09698505544804</v>
       </c>
       <c r="C231">
         <v>175</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="3">
         <v>752.66972384703411</v>
       </c>
       <c r="F231" t="s">
@@ -5886,13 +5939,13 @@
       <c r="A232" t="s">
         <v>225</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="3">
         <v>175.79854376755634</v>
       </c>
       <c r="C232">
         <v>175</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="3">
         <v>307.64745159322359</v>
       </c>
       <c r="F232" t="s">
@@ -5903,13 +5956,13 @@
       <c r="A233" t="s">
         <v>226</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="3">
         <v>469.81429167123582</v>
       </c>
       <c r="C233">
         <v>100</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="3">
         <v>469.81429167123582</v>
       </c>
       <c r="F233" t="s">
@@ -5920,13 +5973,13 @@
       <c r="A234" t="s">
         <v>227</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="3">
         <v>822.25133026015862</v>
       </c>
       <c r="C234">
         <v>700</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="3">
         <v>5755.7593118211107</v>
       </c>
       <c r="F234" t="s">
@@ -5937,13 +5990,13 @@
       <c r="A235" t="s">
         <v>228</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="3">
         <v>204.17659682971208</v>
       </c>
       <c r="C235">
         <v>700</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="3">
         <v>1429.2361778079846</v>
       </c>
       <c r="F235" t="s">
@@ -5954,13 +6007,13 @@
       <c r="A236" t="s">
         <v>229</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="3">
         <v>204.17659682971208</v>
       </c>
       <c r="C236">
         <v>700</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="3">
         <v>1429.2361778079846</v>
       </c>
       <c r="F236" t="s">
@@ -5971,13 +6024,13 @@
       <c r="A237" t="s">
         <v>230</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="3">
         <v>57.872890718271918</v>
       </c>
       <c r="C237">
         <v>200</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="3">
         <v>115.74578143654384</v>
       </c>
       <c r="F237" t="s">
@@ -5988,13 +6041,13 @@
       <c r="A238" t="s">
         <v>231</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="3">
         <v>74.889318737725148</v>
       </c>
       <c r="C238">
         <v>400</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="3">
         <v>299.55727495090059</v>
       </c>
       <c r="F238" t="s">
@@ -6005,13 +6058,13 @@
       <c r="A239" t="s">
         <v>232</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="3">
         <v>170.86675270503909</v>
       </c>
       <c r="C239">
         <v>200</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="3">
         <v>341.73350541007818</v>
       </c>
       <c r="F239" t="s">
@@ -6022,13 +6075,13 @@
       <c r="A240" t="s">
         <v>233</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="3">
         <v>186.82453116750324</v>
       </c>
       <c r="C240">
         <v>100</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="3">
         <v>186.82453116750324</v>
       </c>
       <c r="F240" t="s">
@@ -6039,13 +6092,13 @@
       <c r="A241" t="s">
         <v>234</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="3">
         <v>186.82453116750324</v>
       </c>
       <c r="C241">
         <v>100</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="3">
         <v>186.82453116750324</v>
       </c>
       <c r="F241" t="s">
@@ -6056,13 +6109,13 @@
       <c r="A242" t="s">
         <v>235</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="3">
         <v>104.61950885481822</v>
       </c>
       <c r="C242">
         <v>300</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="3">
         <v>313.85852656445468</v>
       </c>
       <c r="F242" t="s">
@@ -6073,13 +6126,13 @@
       <c r="A243" t="s">
         <v>236</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="3">
         <v>96.194000807585638</v>
       </c>
       <c r="C243">
         <v>500</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="3">
         <v>480.97000403792822</v>
       </c>
       <c r="F243" t="s">
@@ -6090,13 +6143,13 @@
       <c r="A244" t="s">
         <v>237</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="3">
         <v>96.194000807585638</v>
       </c>
       <c r="C244">
         <v>500</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="3">
         <v>480.97000403792822</v>
       </c>
       <c r="F244" t="s">
@@ -6107,13 +6160,13 @@
       <c r="A245" t="s">
         <v>238</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="3">
         <v>106.62398325080156</v>
       </c>
       <c r="C245">
         <v>100</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="3">
         <v>106.62398325080156</v>
       </c>
       <c r="F245" t="s">
@@ -6124,13 +6177,13 @@
       <c r="A246" t="s">
         <v>239</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="3">
         <v>200.34994879913921</v>
       </c>
       <c r="C246">
         <v>1000</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="3">
         <v>2003.499487991392</v>
       </c>
       <c r="F246" t="s">
@@ -6141,13 +6194,13 @@
       <c r="A247" t="s">
         <v>240</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="3">
         <v>192.40557624223774</v>
       </c>
       <c r="C247">
         <v>500</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="3">
         <v>962.02788121118874</v>
       </c>
       <c r="F247" t="s">
@@ -6158,13 +6211,13 @@
       <c r="A248" t="s">
         <v>241</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="3">
         <v>517.92397060366523</v>
       </c>
       <c r="C248">
         <v>500</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="3">
         <v>2589.619853018326</v>
       </c>
       <c r="F248" t="s">
@@ -6175,13 +6228,13 @@
       <c r="A249" t="s">
         <v>242</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="3">
         <v>496.99799401306439</v>
       </c>
       <c r="C249">
         <v>100</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="3">
         <v>496.99799401306439</v>
       </c>
       <c r="F249" t="s">
@@ -6192,13 +6245,13 @@
       <c r="A250" t="s">
         <v>243</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="3">
         <v>596.30234083137611</v>
       </c>
       <c r="C250">
         <v>50</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="3">
         <v>298.15117041568806</v>
       </c>
       <c r="F250" t="s">
@@ -6209,13 +6262,13 @@
       <c r="A251" t="s">
         <v>244</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="3">
         <v>274.03647872765237</v>
       </c>
       <c r="C251">
         <v>125</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="3">
         <v>342.54559840956546</v>
       </c>
       <c r="F251" t="s">
@@ -6226,13 +6279,13 @@
       <c r="A252" t="s">
         <v>245</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="3">
         <v>373.88590330062442</v>
       </c>
       <c r="C252">
         <v>100</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="3">
         <v>373.88590330062442</v>
       </c>
       <c r="F252" t="s">
@@ -6243,13 +6296,13 @@
       <c r="A253" t="s">
         <v>246</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="3">
         <v>208.66313039415857</v>
       </c>
       <c r="C253">
         <v>20</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="3">
         <v>41.732626078831714</v>
       </c>
       <c r="F253" t="s">
@@ -6260,13 +6313,13 @@
       <c r="A254" t="s">
         <v>247</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="3">
         <v>202.18908590787092</v>
       </c>
       <c r="C254">
         <v>200</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="3">
         <v>404.37817181574184</v>
       </c>
       <c r="F254" t="s">
@@ -6277,13 +6330,13 @@
       <c r="A255" t="s">
         <v>457</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="3">
         <v>98.234837170729406</v>
       </c>
       <c r="C255">
         <v>1000</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="3">
         <v>982.34837170729406</v>
       </c>
       <c r="F255" t="s">
@@ -6294,13 +6347,13 @@
       <c r="A256" t="s">
         <v>450</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="3">
         <v>94.428012748225825</v>
       </c>
       <c r="C256">
         <v>500</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="3">
         <v>472.1400637411291</v>
       </c>
       <c r="F256" t="s">
@@ -6311,13 +6364,13 @@
       <c r="A257" t="s">
         <v>248</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="3">
         <v>77.750810440699624</v>
       </c>
       <c r="C257">
         <v>2500</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="3">
         <v>1943.7702610174906</v>
       </c>
       <c r="F257" t="s">
@@ -6328,13 +6381,13 @@
       <c r="A258" t="s">
         <v>446</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="3">
         <v>81.07479748926427</v>
       </c>
       <c r="C258">
         <v>1500</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="3">
         <v>1216.1219623389641</v>
       </c>
       <c r="F258" t="s">
@@ -6345,13 +6398,13 @@
       <c r="A259" t="s">
         <v>249</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="3">
         <v>70.542221595431471</v>
       </c>
       <c r="C259">
         <v>1500</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="3">
         <v>1058.133323931472</v>
       </c>
       <c r="F259" t="s">
@@ -6362,13 +6415,13 @@
       <c r="A260" t="s">
         <v>250</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="3">
         <v>87.123641243634808</v>
       </c>
       <c r="C260">
         <v>200</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="3">
         <v>174.24728248726962</v>
       </c>
       <c r="F260" t="s">
@@ -6379,13 +6432,13 @@
       <c r="A261" t="s">
         <v>251</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="3">
         <v>64.625979880627611</v>
       </c>
       <c r="C261">
         <v>1000</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="3">
         <v>646.25979880627608</v>
       </c>
       <c r="F261" t="s">
@@ -6396,13 +6449,13 @@
       <c r="A262" t="s">
         <v>252</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="3">
         <v>92.970616219949761</v>
       </c>
       <c r="C262">
         <v>200</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="3">
         <v>185.94123243989952</v>
       </c>
       <c r="F262" t="s">
@@ -6413,13 +6466,13 @@
       <c r="A263" t="s">
         <v>253</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="3">
         <v>85.887129558960467</v>
       </c>
       <c r="C263">
         <v>200</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="3">
         <v>171.77425911792093</v>
       </c>
       <c r="F263" t="s">
@@ -6430,13 +6483,13 @@
       <c r="A264" t="s">
         <v>393</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="3">
         <v>97.283728880828747</v>
       </c>
       <c r="C264">
         <v>1500</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="3">
         <v>1459.2559332124313</v>
       </c>
       <c r="F264" t="s">
@@ -6447,13 +6500,13 @@
       <c r="A265" t="s">
         <v>254</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="3">
         <v>92.533937964152443</v>
       </c>
       <c r="C265">
         <v>80</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="3">
         <v>74.027150371321952</v>
       </c>
       <c r="F265" t="s">
@@ -6464,13 +6517,13 @@
       <c r="A266" t="s">
         <v>255</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="3">
         <v>301.98029052998879</v>
       </c>
       <c r="C266">
         <v>150</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="3">
         <v>452.97043579498319</v>
       </c>
       <c r="F266" t="s">
@@ -6481,13 +6534,13 @@
       <c r="A267" t="s">
         <v>256</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="3">
         <v>318.0574017556246</v>
       </c>
       <c r="C267">
         <v>400</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="3">
         <v>1272.2296070224984</v>
       </c>
       <c r="F267" t="s">
@@ -6498,13 +6551,13 @@
       <c r="A268" t="s">
         <v>257</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="3">
         <v>79.377445499452435</v>
       </c>
       <c r="C268">
         <v>1000</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="3">
         <v>793.77445499452438</v>
       </c>
       <c r="F268" t="s">
@@ -6515,13 +6568,13 @@
       <c r="A269" t="s">
         <v>258</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="3">
         <v>60.624986466568899</v>
       </c>
       <c r="C269">
         <v>1000</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="3">
         <v>606.24986466568896</v>
       </c>
       <c r="F269" t="s">
@@ -6532,13 +6585,13 @@
       <c r="A270" t="s">
         <v>259</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="3">
         <v>48.123347111313215</v>
       </c>
       <c r="C270">
         <v>1000</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="3">
         <v>481.23347111313217</v>
       </c>
       <c r="F270" t="s">
@@ -6549,13 +6602,13 @@
       <c r="A271" t="s">
         <v>260</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="3">
         <v>213.82782137587878</v>
       </c>
       <c r="C271">
         <v>200</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="3">
         <v>427.65559999999999</v>
       </c>
       <c r="F271" t="s">
@@ -6566,13 +6619,13 @@
       <c r="A272" t="s">
         <v>261</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="3">
         <v>5035.514881953377</v>
       </c>
       <c r="C272">
         <v>150</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="3">
         <v>7553.2723229300655</v>
       </c>
       <c r="F272" t="s">
@@ -6583,13 +6636,13 @@
       <c r="A273" t="s">
         <v>262</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="3">
         <v>284.55090963136053</v>
       </c>
       <c r="C273">
         <v>350</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="3">
         <v>995.92818370976181</v>
       </c>
       <c r="F273" t="s">
@@ -6600,13 +6653,13 @@
       <c r="A274" t="s">
         <v>263</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="3">
         <v>376.49076621808263</v>
       </c>
       <c r="C274">
         <v>1000</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="3">
         <v>3764.9076621808263</v>
       </c>
       <c r="F274" t="s">
@@ -6617,13 +6670,13 @@
       <c r="A275" t="s">
         <v>264</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="3">
         <v>382.90853047647829</v>
       </c>
       <c r="C275">
         <v>750</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="3">
         <v>2871.8139785735871</v>
       </c>
       <c r="F275" t="s">
@@ -6634,13 +6687,13 @@
       <c r="A276" t="s">
         <v>265</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="3">
         <v>383.72708619947463</v>
       </c>
       <c r="C276">
         <v>1000</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="3">
         <v>3837.2708619947462</v>
       </c>
       <c r="F276" t="s">
@@ -6651,13 +6704,13 @@
       <c r="A277" t="s">
         <v>266</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="3">
         <v>430.07320058578694</v>
       </c>
       <c r="C277">
         <v>500</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="3">
         <v>2150.3660029289349</v>
       </c>
       <c r="F277" t="s">
@@ -6668,13 +6721,13 @@
       <c r="A278" t="s">
         <v>267</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="3">
         <v>417.40928211220677</v>
       </c>
       <c r="C278">
         <v>200</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="3">
         <v>834.81856422441354</v>
       </c>
       <c r="F278" t="s">
@@ -6685,13 +6738,13 @@
       <c r="A279" t="s">
         <v>268</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="3">
         <v>170.88428457106653</v>
       </c>
       <c r="C279">
         <v>250</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="3">
         <v>427.2107114276663</v>
       </c>
       <c r="F279" t="s">
@@ -6702,13 +6755,13 @@
       <c r="A280" t="s">
         <v>269</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="3">
         <v>170.45028071562024</v>
       </c>
       <c r="C280">
         <v>200</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="3">
         <v>340.90056143124048</v>
       </c>
       <c r="F280" t="s">
@@ -6719,13 +6772,13 @@
       <c r="A281" t="s">
         <v>270</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="3">
         <v>72.834446446342085</v>
       </c>
       <c r="C281">
         <v>400</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="3">
         <v>291.33778578536834</v>
       </c>
       <c r="F281" t="s">
@@ -6736,13 +6789,13 @@
       <c r="A282" t="s">
         <v>271</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="3">
         <v>126.35908682580457</v>
       </c>
       <c r="C282">
         <v>500</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="3">
         <v>631.79543412902285</v>
       </c>
       <c r="F282" t="s">
@@ -6753,13 +6806,13 @@
       <c r="A283" t="s">
         <v>272</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="3">
         <v>157.6420156646457</v>
       </c>
       <c r="C283">
         <v>500</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="3">
         <v>788.21007832322846</v>
       </c>
       <c r="F283" t="s">
@@ -6770,13 +6823,13 @@
       <c r="A284" t="s">
         <v>273</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="3">
         <v>500.02335679893429</v>
       </c>
       <c r="C284">
         <v>350</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="3">
         <v>1750.0817487962699</v>
       </c>
       <c r="F284" t="s">
@@ -6787,13 +6840,13 @@
       <c r="A285" t="s">
         <v>274</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="3">
         <v>153.8113744689883</v>
       </c>
       <c r="C285">
         <v>130</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="3">
         <v>199.9547868096848</v>
       </c>
       <c r="F285" t="s">
@@ -6804,13 +6857,13 @@
       <c r="A286" t="s">
         <v>275</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="3">
         <v>126.35908682580457</v>
       </c>
       <c r="C286">
         <v>400</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="3">
         <v>505.43634730321827</v>
       </c>
       <c r="F286" t="s">
@@ -6821,13 +6874,13 @@
       <c r="A287" t="s">
         <v>276</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="3">
         <v>417.40928211220677</v>
       </c>
       <c r="C287">
         <v>150</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="3">
         <v>626.11392316831018</v>
       </c>
       <c r="F287" t="s">
@@ -6838,13 +6891,13 @@
       <c r="A288" t="s">
         <v>277</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="3">
         <v>120.70858639638882</v>
       </c>
       <c r="C288">
         <v>150</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="3">
         <v>181.06287959458325</v>
       </c>
       <c r="F288" t="s">
@@ -6855,13 +6908,13 @@
       <c r="A289" t="s">
         <v>278</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="3">
         <v>70.328076429607663</v>
       </c>
       <c r="C289">
         <v>250</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="3">
         <v>175.82019107401916</v>
       </c>
       <c r="F289" t="s">
@@ -6872,13 +6925,13 @@
       <c r="A290" t="s">
         <v>431</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="3">
         <v>283.69603593878952</v>
       </c>
       <c r="C290">
         <v>750</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="3">
         <v>2127.7202695409214</v>
       </c>
       <c r="F290" t="s">
@@ -6889,13 +6942,13 @@
       <c r="A291" t="s">
         <v>280</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="3">
         <v>248.35506006498485</v>
       </c>
       <c r="C291">
         <v>150</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="3">
         <v>372.53259009747728</v>
       </c>
       <c r="F291" t="s">
@@ -6906,13 +6959,13 @@
       <c r="A292" t="s">
         <v>281</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="3">
         <v>201.13794295580527</v>
       </c>
       <c r="C292">
         <v>250</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="3">
         <v>502.84485738951321</v>
       </c>
       <c r="F292" t="s">
@@ -6923,13 +6976,13 @@
       <c r="A293" t="s">
         <v>282</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="3">
         <v>152.53898875847921</v>
       </c>
       <c r="C293">
         <v>400</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="3">
         <v>610.15595503391683</v>
       </c>
       <c r="F293" t="s">
@@ -6940,13 +6993,13 @@
       <c r="A294" t="s">
         <v>283</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="3">
         <v>130.6517576810553</v>
       </c>
       <c r="C294">
         <v>500</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="3">
         <v>653.2587884052765</v>
       </c>
       <c r="F294" t="s">
@@ -6957,13 +7010,13 @@
       <c r="A295" t="s">
         <v>284</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="3">
         <v>136.36679087129505</v>
       </c>
       <c r="C295">
         <v>400</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="3">
         <v>545.46716348518021</v>
       </c>
       <c r="F295" t="s">
@@ -6974,13 +7027,13 @@
       <c r="A296" t="s">
         <v>285</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="3">
         <v>149.31261429687004</v>
       </c>
       <c r="C296">
         <v>250</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="3">
         <v>373.28153574217509</v>
       </c>
       <c r="F296" t="s">
@@ -6991,13 +7044,13 @@
       <c r="A297" t="s">
         <v>286</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="3">
         <v>217.91287245628391</v>
       </c>
       <c r="C297">
         <v>150</v>
       </c>
-      <c r="D297">
+      <c r="D297" s="3">
         <v>326.86930868442585</v>
       </c>
       <c r="F297" t="s">
@@ -7008,13 +7061,13 @@
       <c r="A298" t="s">
         <v>287</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="3">
         <v>187.23444372851921</v>
       </c>
       <c r="C298">
         <v>750</v>
       </c>
-      <c r="D298">
+      <c r="D298" s="3">
         <v>1404.2583279638941</v>
       </c>
       <c r="F298" t="s">
@@ -7025,13 +7078,13 @@
       <c r="A299" t="s">
         <v>288</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="3">
         <v>187.23444372851921</v>
       </c>
       <c r="C299">
         <v>750</v>
       </c>
-      <c r="D299">
+      <c r="D299" s="3">
         <v>1404.2583279638941</v>
       </c>
       <c r="F299" t="s">
@@ -7042,13 +7095,13 @@
       <c r="A300" t="s">
         <v>289</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="3">
         <v>187.23444372851921</v>
       </c>
       <c r="C300">
         <v>750</v>
       </c>
-      <c r="D300">
+      <c r="D300" s="3">
         <v>1404.2583279638941</v>
       </c>
       <c r="F300" t="s">
@@ -7059,13 +7112,13 @@
       <c r="A301" t="s">
         <v>290</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="3">
         <v>187.23444372851921</v>
       </c>
       <c r="C301">
         <v>750</v>
       </c>
-      <c r="D301">
+      <c r="D301" s="3">
         <v>1404.2583279638941</v>
       </c>
       <c r="F301" t="s">
@@ -7076,13 +7129,13 @@
       <c r="A302" t="s">
         <v>291</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="3">
         <v>144.82315024363351</v>
       </c>
       <c r="C302">
         <v>40</v>
       </c>
-      <c r="D302">
+      <c r="D302" s="3">
         <v>57.929260097453408</v>
       </c>
       <c r="F302" t="s">
@@ -7093,13 +7146,13 @@
       <c r="A303" t="s">
         <v>292</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="3">
         <v>181.01987947210236</v>
       </c>
       <c r="C303">
         <v>200</v>
       </c>
-      <c r="D303">
+      <c r="D303" s="3">
         <v>362.03975894420472</v>
       </c>
       <c r="F303" t="s">
@@ -7110,13 +7163,13 @@
       <c r="A304" t="s">
         <v>293</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="3">
         <v>382.90168199918543</v>
       </c>
       <c r="C304">
         <v>200</v>
       </c>
-      <c r="D304">
+      <c r="D304" s="3">
         <v>765.80336399837086</v>
       </c>
       <c r="F304" t="s">
@@ -7127,13 +7180,13 @@
       <c r="A305" t="s">
         <v>294</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="3">
         <v>885.19962371925646</v>
       </c>
       <c r="C305">
         <v>500</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="3">
         <v>4425.9981185962824</v>
       </c>
       <c r="F305" t="s">
@@ -7144,13 +7197,13 @@
       <c r="A306" t="s">
         <v>295</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="3">
         <v>173.84487605374557</v>
       </c>
       <c r="C306">
         <v>500</v>
       </c>
-      <c r="D306">
+      <c r="D306" s="3">
         <v>869.22438026872783</v>
       </c>
       <c r="F306" t="s">
@@ -7161,13 +7214,13 @@
       <c r="A307" t="s">
         <v>296</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="3">
         <v>184.84299996770974</v>
       </c>
       <c r="C307">
         <v>500</v>
       </c>
-      <c r="D307">
+      <c r="D307" s="3">
         <v>924.21499983854869</v>
       </c>
       <c r="F307" t="s">
@@ -7178,13 +7231,13 @@
       <c r="A308" t="s">
         <v>297</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="3">
         <v>251.29285201490825</v>
       </c>
       <c r="C308">
         <v>180</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="3">
         <v>452.32713362683484</v>
       </c>
       <c r="F308" t="s">
@@ -7195,13 +7248,13 @@
       <c r="A309" t="s">
         <v>298</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="3">
         <v>72.485246668560464</v>
       </c>
       <c r="C309">
         <v>150</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="3">
         <v>108.72787000284069</v>
       </c>
       <c r="F309" t="s">
@@ -7212,13 +7265,13 @@
       <c r="A310" t="s">
         <v>391</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="3">
         <v>107.77267860594679</v>
       </c>
       <c r="C310">
         <v>150</v>
       </c>
-      <c r="D310">
+      <c r="D310" s="3">
         <v>161.65901790892019</v>
       </c>
       <c r="F310" t="s">
@@ -7229,13 +7282,13 @@
       <c r="A311" t="s">
         <v>299</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="3">
         <v>449.58040245311281</v>
       </c>
       <c r="C311">
         <v>200</v>
       </c>
-      <c r="D311">
+      <c r="D311" s="3">
         <v>899.16080490622562</v>
       </c>
       <c r="F311" t="s">
@@ -7246,13 +7299,13 @@
       <c r="A312" t="s">
         <v>300</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="3">
         <v>150.60726369476203</v>
       </c>
       <c r="C312">
         <v>200</v>
       </c>
-      <c r="D312">
+      <c r="D312" s="3">
         <v>301.21452738952405</v>
       </c>
       <c r="F312" t="s">
@@ -7263,13 +7316,13 @@
       <c r="A313" t="s">
         <v>301</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="3">
         <v>300.45031558233512</v>
       </c>
       <c r="C313">
         <v>200</v>
       </c>
-      <c r="D313">
+      <c r="D313" s="3">
         <v>600.90063116467024</v>
       </c>
       <c r="F313" t="s">
@@ -7280,13 +7333,13 @@
       <c r="A314" t="s">
         <v>302</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="3">
         <v>150.20419422360769</v>
       </c>
       <c r="C314">
         <v>150</v>
       </c>
-      <c r="D314">
+      <c r="D314" s="3">
         <v>225.30629133541152</v>
       </c>
       <c r="F314" t="s">
@@ -7297,13 +7350,13 @@
       <c r="A315" t="s">
         <v>303</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="3">
         <v>158.59931122286093</v>
       </c>
       <c r="C315">
         <v>500</v>
       </c>
-      <c r="D315">
+      <c r="D315" s="3">
         <v>792.99655611430467</v>
       </c>
       <c r="F315" t="s">
@@ -7314,13 +7367,13 @@
       <c r="A316" t="s">
         <v>304</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="3">
         <v>221.32453259086341</v>
       </c>
       <c r="C316">
         <v>250</v>
       </c>
-      <c r="D316">
+      <c r="D316" s="3">
         <v>553.31133147715855</v>
       </c>
       <c r="F316" t="s">
@@ -7331,13 +7384,13 @@
       <c r="A317" t="s">
         <v>305</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="3">
         <v>110.12998716377571</v>
       </c>
       <c r="C317">
         <v>200</v>
       </c>
-      <c r="D317">
+      <c r="D317" s="3">
         <v>220.25997432755142</v>
       </c>
       <c r="F317" t="s">
@@ -7348,13 +7401,13 @@
       <c r="A318" t="s">
         <v>306</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="3">
         <v>3649.0681229234515</v>
       </c>
       <c r="C318">
         <v>250</v>
       </c>
-      <c r="D318">
+      <c r="D318" s="3">
         <v>9122.6703073086283</v>
       </c>
       <c r="F318" t="s">
@@ -7365,13 +7418,13 @@
       <c r="A319" t="s">
         <v>307</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="3">
         <v>81.543145110204193</v>
       </c>
       <c r="C319">
         <v>1000</v>
       </c>
-      <c r="D319">
+      <c r="D319" s="3">
         <v>815.43145110204193</v>
       </c>
       <c r="F319" t="s">
@@ -7382,13 +7435,13 @@
       <c r="A320" t="s">
         <v>308</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="3">
         <v>53.011250513288878</v>
       </c>
       <c r="C320">
         <v>250</v>
       </c>
-      <c r="D320">
+      <c r="D320" s="3">
         <v>132.52812628322221</v>
       </c>
       <c r="F320" t="s">
@@ -7399,13 +7452,13 @@
       <c r="A321" t="s">
         <v>309</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="3">
         <v>158.55906864814543</v>
       </c>
       <c r="C321">
         <v>150</v>
       </c>
-      <c r="D321">
+      <c r="D321" s="3">
         <v>237.83860297221815</v>
       </c>
       <c r="F321" t="s">
@@ -7416,13 +7469,13 @@
       <c r="A322" t="s">
         <v>310</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="3">
         <v>73.925500834528108</v>
       </c>
       <c r="C322">
         <v>150</v>
       </c>
-      <c r="D322">
+      <c r="D322" s="3">
         <v>110.88825125179216</v>
       </c>
       <c r="F322" t="s">
@@ -7433,13 +7486,13 @@
       <c r="A323" t="s">
         <v>311</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="3">
         <v>233.24002989631637</v>
       </c>
       <c r="C323">
         <v>200</v>
       </c>
-      <c r="D323">
+      <c r="D323" s="3">
         <v>466.48005979263274</v>
       </c>
       <c r="F323" t="s">
@@ -7450,13 +7503,13 @@
       <c r="A324" t="s">
         <v>312</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="3">
         <v>233.24002989631637</v>
       </c>
       <c r="C324">
         <v>200</v>
       </c>
-      <c r="D324">
+      <c r="D324" s="3">
         <v>466.48005979263274</v>
       </c>
       <c r="F324" t="s">
@@ -7467,13 +7520,13 @@
       <c r="A325" t="s">
         <v>313</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="3">
         <v>349.80187468899044</v>
       </c>
       <c r="C325">
         <v>250</v>
       </c>
-      <c r="D325">
+      <c r="D325" s="3">
         <v>874.50468672247609</v>
       </c>
       <c r="F325" t="s">
@@ -7484,13 +7537,13 @@
       <c r="A326" t="s">
         <v>314</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="3">
         <v>117.84546206833909</v>
       </c>
       <c r="C326">
         <v>170</v>
       </c>
-      <c r="D326">
+      <c r="D326" s="3">
         <v>200.33728551617645</v>
       </c>
       <c r="F326" t="s">
@@ -7501,13 +7554,13 @@
       <c r="A327" t="s">
         <v>315</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="3">
         <v>186.69074803151699</v>
       </c>
       <c r="C327">
         <v>60</v>
       </c>
-      <c r="D327">
+      <c r="D327" s="3">
         <v>112.0144488189102</v>
       </c>
       <c r="F327" t="s">
@@ -7518,13 +7571,13 @@
       <c r="A328" t="s">
         <v>316</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="3">
         <v>161.95750649472618</v>
       </c>
       <c r="C328">
         <v>150</v>
       </c>
-      <c r="D328">
+      <c r="D328" s="3">
         <v>242.93625974208925</v>
       </c>
       <c r="F328" t="s">
@@ -7535,13 +7588,13 @@
       <c r="A329" t="s">
         <v>317</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="3">
         <v>232.57331971331277</v>
       </c>
       <c r="C329">
         <v>400</v>
       </c>
-      <c r="D329">
+      <c r="D329" s="3">
         <v>930.29327885325108</v>
       </c>
       <c r="F329" t="s">
@@ -7552,13 +7605,13 @@
       <c r="A330" t="s">
         <v>279</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="3">
         <v>65.246146832503271</v>
       </c>
       <c r="C330">
         <v>750</v>
       </c>
-      <c r="D330">
+      <c r="D330" s="3">
         <v>489.34610124377451</v>
       </c>
       <c r="F330" t="s">
@@ -7569,13 +7622,13 @@
       <c r="A331" t="s">
         <v>318</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="3">
         <v>142.47514660122579</v>
       </c>
       <c r="C331">
         <v>750</v>
       </c>
-      <c r="D331">
+      <c r="D331" s="3">
         <v>1068.5635995091934</v>
       </c>
       <c r="F331" t="s">
@@ -7586,13 +7639,13 @@
       <c r="A332" t="s">
         <v>319</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="3">
         <v>189.5269395707852</v>
       </c>
       <c r="C332">
         <v>300</v>
       </c>
-      <c r="D332">
+      <c r="D332" s="3">
         <v>568.58081871235561</v>
       </c>
       <c r="F332" t="s">
@@ -7603,13 +7656,13 @@
       <c r="A333" t="s">
         <v>320</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="3">
         <v>48.963567647082925</v>
       </c>
       <c r="C333">
         <v>400</v>
       </c>
-      <c r="D333">
+      <c r="D333" s="3">
         <v>195.8542705883317</v>
       </c>
       <c r="F333" t="s">
@@ -7620,13 +7673,13 @@
       <c r="A334" t="s">
         <v>321</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="3">
         <v>48.250870205400091</v>
       </c>
       <c r="C334">
         <v>150</v>
       </c>
-      <c r="D334">
+      <c r="D334" s="3">
         <v>72.376305308100143</v>
       </c>
       <c r="F334" t="s">
@@ -7637,13 +7690,13 @@
       <c r="A335" t="s">
         <v>322</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="3">
         <v>214.27348726536511</v>
       </c>
       <c r="C335">
         <v>250</v>
       </c>
-      <c r="D335">
+      <c r="D335" s="3">
         <v>535.68371816341278</v>
       </c>
       <c r="F335" t="s">
@@ -7654,13 +7707,13 @@
       <c r="A336" t="s">
         <v>323</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="3">
         <v>104.67759855796577</v>
       </c>
       <c r="C336">
         <v>400</v>
       </c>
-      <c r="D336">
+      <c r="D336" s="3">
         <v>418.71039423186306</v>
       </c>
       <c r="F336" t="s">
@@ -7671,13 +7724,13 @@
       <c r="A337" t="s">
         <v>324</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="3">
         <v>606.85119940278457</v>
       </c>
       <c r="C337">
         <v>250</v>
       </c>
-      <c r="D337">
+      <c r="D337" s="3">
         <v>1517.1279985069614</v>
       </c>
       <c r="F337" t="s">
@@ -7688,13 +7741,13 @@
       <c r="A338" t="s">
         <v>325</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="3">
         <v>118.31726006065557</v>
       </c>
       <c r="C338">
         <v>500</v>
       </c>
-      <c r="D338">
+      <c r="D338" s="3">
         <v>591.58630030327788</v>
       </c>
       <c r="F338" t="s">
@@ -7705,13 +7758,13 @@
       <c r="A339" t="s">
         <v>326</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="3">
         <v>109.71013162384457</v>
       </c>
       <c r="C339">
         <v>750</v>
       </c>
-      <c r="D339">
+      <c r="D339" s="3">
         <v>822.82598717883434</v>
       </c>
       <c r="F339" t="s">
@@ -7722,13 +7775,13 @@
       <c r="A340" t="s">
         <v>327</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="3">
         <v>172.29544988085209</v>
       </c>
       <c r="C340">
         <v>250</v>
       </c>
-      <c r="D340">
+      <c r="D340" s="3">
         <v>430.73862470213021</v>
       </c>
       <c r="F340" t="s">
@@ -7739,13 +7792,13 @@
       <c r="A341" t="s">
         <v>328</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="3">
         <v>124.52239824682906</v>
       </c>
       <c r="C341">
         <v>250</v>
       </c>
-      <c r="D341">
+      <c r="D341" s="3">
         <v>311.30599561707265</v>
       </c>
       <c r="F341" t="s">
@@ -7756,13 +7809,13 @@
       <c r="A342" t="s">
         <v>329</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="3">
         <v>138.59166133953454</v>
       </c>
       <c r="C342">
         <v>300</v>
       </c>
-      <c r="D342">
+      <c r="D342" s="3">
         <v>415.77498401860362</v>
       </c>
       <c r="F342" t="s">
@@ -7773,13 +7826,13 @@
       <c r="A343" t="s">
         <v>330</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="3">
         <v>60.89876298602141</v>
       </c>
       <c r="C343">
         <v>200</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="3">
         <v>121.79752597204282</v>
       </c>
       <c r="F343" t="s">
@@ -7790,13 +7843,13 @@
       <c r="A344" t="s">
         <v>331</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="3">
         <v>104.67759855796577</v>
       </c>
       <c r="C344">
         <v>400</v>
       </c>
-      <c r="D344">
+      <c r="D344" s="3">
         <v>418.71039423186306</v>
       </c>
       <c r="F344" t="s">
@@ -7807,13 +7860,13 @@
       <c r="A345" t="s">
         <v>332</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="3">
         <v>170.29467971858506</v>
       </c>
       <c r="C345">
         <v>400</v>
       </c>
-      <c r="D345">
+      <c r="D345" s="3">
         <v>681.17871887434023</v>
       </c>
       <c r="F345" t="s">
@@ -7824,13 +7877,13 @@
       <c r="A346" t="s">
         <v>333</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="3">
         <v>337.73642343974274</v>
       </c>
       <c r="C346">
         <v>300</v>
       </c>
-      <c r="D346">
+      <c r="D346" s="3">
         <v>1013.2092703192282</v>
       </c>
       <c r="F346" t="s">
@@ -7841,13 +7894,13 @@
       <c r="A347" t="s">
         <v>334</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="3">
         <v>157.6420156646457</v>
       </c>
       <c r="C347">
         <v>300</v>
       </c>
-      <c r="D347">
+      <c r="D347" s="3">
         <v>472.92604699393712</v>
       </c>
       <c r="F347" t="s">
@@ -7858,13 +7911,13 @@
       <c r="A348" t="s">
         <v>335</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="3">
         <v>279.39450653580604</v>
       </c>
       <c r="C348">
         <v>250</v>
       </c>
-      <c r="D348">
+      <c r="D348" s="3">
         <v>698.48626633951517</v>
       </c>
       <c r="F348" t="s">
@@ -7875,13 +7928,13 @@
       <c r="A349" t="s">
         <v>336</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="3">
         <v>288.98169397959947</v>
       </c>
       <c r="C349">
         <v>200</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="3">
         <v>577.96338795919894</v>
       </c>
       <c r="F349" t="s">
@@ -7892,13 +7945,13 @@
       <c r="A350" t="s">
         <v>337</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="3">
         <v>408.10661242371896</v>
       </c>
       <c r="C350">
         <v>150</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="3">
         <v>612.15991863557838</v>
       </c>
       <c r="F350" t="s">
@@ -7909,13 +7962,13 @@
       <c r="A351" t="s">
         <v>338</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="3">
         <v>194.57437091102688</v>
       </c>
       <c r="C351">
         <v>200</v>
       </c>
-      <c r="D351">
+      <c r="D351" s="3">
         <v>389.14874182205375</v>
       </c>
       <c r="F351" t="s">
@@ -7926,13 +7979,13 @@
       <c r="A352" t="s">
         <v>339</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="3">
         <v>248.64778546778132</v>
       </c>
       <c r="C352">
         <v>200</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="3">
         <v>497.29557093556264</v>
       </c>
       <c r="F352" t="s">
@@ -7943,13 +7996,13 @@
       <c r="A353" t="s">
         <v>340</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="3">
         <v>291.5540934880687</v>
       </c>
       <c r="C353">
         <v>250</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="3">
         <v>728.88523372017175</v>
       </c>
       <c r="F353" t="s">
@@ -7960,13 +8013,13 @@
       <c r="A354" t="s">
         <v>341</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="3">
         <v>2107.3485475875204</v>
       </c>
       <c r="C354">
         <v>500</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="3">
         <v>10536.742737937602</v>
       </c>
       <c r="F354" t="s">
@@ -7977,13 +8030,13 @@
       <c r="A355" t="s">
         <v>342</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="3">
         <v>86.235881163811953</v>
       </c>
       <c r="C355">
         <v>150</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="3">
         <v>129.35382174571794</v>
       </c>
       <c r="F355" t="s">
@@ -7994,13 +8047,13 @@
       <c r="A356" t="s">
         <v>343</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="3">
         <v>178.22279720640577</v>
       </c>
       <c r="C356">
         <v>250</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="3">
         <v>445.55699301601442</v>
       </c>
       <c r="F356" t="s">
@@ -8011,13 +8064,13 @@
       <c r="A357" t="s">
         <v>344</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="3">
         <v>85.207890584104163</v>
       </c>
       <c r="C357">
         <v>250</v>
       </c>
-      <c r="D357">
+      <c r="D357" s="3">
         <v>213.01972646026042</v>
       </c>
       <c r="F357" t="s">
@@ -8028,13 +8081,13 @@
       <c r="A358" t="s">
         <v>345</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="3">
         <v>60.78940239538035</v>
       </c>
       <c r="C358">
         <v>250</v>
       </c>
-      <c r="D358">
+      <c r="D358" s="3">
         <v>151.97350598845088</v>
       </c>
       <c r="F358" t="s">
@@ -8045,13 +8098,13 @@
       <c r="A359" t="s">
         <v>346</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="3">
         <v>162.79457539717424</v>
       </c>
       <c r="C359">
         <v>200</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="3">
         <v>325.58915079434848</v>
       </c>
       <c r="F359" t="s">
@@ -8062,13 +8115,13 @@
       <c r="A360" t="s">
         <v>347</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="3">
         <v>204.79591839074516</v>
       </c>
       <c r="C360">
         <v>150</v>
       </c>
-      <c r="D360">
+      <c r="D360" s="3">
         <v>307.19387758611776</v>
       </c>
       <c r="F360" t="s">
@@ -8079,13 +8132,13 @@
       <c r="A361" t="s">
         <v>348</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="3">
         <v>368.04646466036922</v>
       </c>
       <c r="C361">
         <v>300</v>
       </c>
-      <c r="D361">
+      <c r="D361" s="3">
         <v>1104.1393939811078</v>
       </c>
       <c r="F361" t="s">
@@ -8096,13 +8149,13 @@
       <c r="A362" t="s">
         <v>349</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="3">
         <v>3822.1959422533455</v>
       </c>
       <c r="C362">
         <v>300</v>
       </c>
-      <c r="D362">
+      <c r="D362" s="3">
         <v>11466.587826760036</v>
       </c>
       <c r="F362" t="s">
@@ -8113,13 +8166,13 @@
       <c r="A363" t="s">
         <v>350</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="3">
         <v>140.52900100730631</v>
       </c>
       <c r="C363">
         <v>500</v>
       </c>
-      <c r="D363">
+      <c r="D363" s="3">
         <v>702.64500503653153</v>
       </c>
       <c r="F363" t="s">
@@ -8130,13 +8183,13 @@
       <c r="A364" t="s">
         <v>351</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="3">
         <v>153.8113744689883</v>
       </c>
       <c r="C364">
         <v>200</v>
       </c>
-      <c r="D364">
+      <c r="D364" s="3">
         <v>307.62274893797661</v>
       </c>
       <c r="F364" t="s">
@@ -8147,13 +8200,13 @@
       <c r="A365" t="s">
         <v>352</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="3">
         <v>181.4073252328896</v>
       </c>
       <c r="C365">
         <v>200</v>
       </c>
-      <c r="D365">
+      <c r="D365" s="3">
         <v>362.81465046577921</v>
       </c>
       <c r="F365" t="s">
@@ -8164,13 +8217,13 @@
       <c r="A366" t="s">
         <v>353</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="3">
         <v>289.53605714607403</v>
       </c>
       <c r="C366">
         <v>150</v>
       </c>
-      <c r="D366">
+      <c r="D366" s="3">
         <v>434.30408571911107</v>
       </c>
       <c r="F366" t="s">
@@ -8181,13 +8234,13 @@
       <c r="A367" t="s">
         <v>354</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="3">
         <v>196.98810335035972</v>
       </c>
       <c r="C367">
         <v>100</v>
       </c>
-      <c r="D367">
+      <c r="D367" s="3">
         <v>196.98810335035972</v>
       </c>
       <c r="F367" t="s">
@@ -8198,13 +8251,13 @@
       <c r="A368" t="s">
         <v>355</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="3">
         <v>114.9944309853133</v>
       </c>
       <c r="C368">
         <v>500</v>
       </c>
-      <c r="D368">
+      <c r="D368" s="3">
         <v>574.97215492656653</v>
       </c>
       <c r="F368" t="s">
@@ -8215,13 +8268,13 @@
       <c r="A369" t="s">
         <v>356</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="3">
         <v>152.54256985208332</v>
       </c>
       <c r="C369">
         <v>500</v>
       </c>
-      <c r="D369">
+      <c r="D369" s="3">
         <v>762.71284926041653</v>
       </c>
       <c r="F369" t="s">
@@ -8232,13 +8285,13 @@
       <c r="A370" t="s">
         <v>357</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="3">
         <v>306.92493827673724</v>
       </c>
       <c r="C370">
         <v>250</v>
       </c>
-      <c r="D370">
+      <c r="D370" s="3">
         <v>767.31234569184312</v>
       </c>
       <c r="F370" t="s">
@@ -8249,13 +8302,13 @@
       <c r="A371" t="s">
         <v>358</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="3">
         <v>233.71435568150488</v>
       </c>
       <c r="C371">
         <v>150</v>
       </c>
-      <c r="D371">
+      <c r="D371" s="3">
         <v>350.57153352225731</v>
       </c>
       <c r="F371" t="s">
@@ -8266,13 +8319,13 @@
       <c r="A372" t="s">
         <v>359</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="3">
         <v>292.75397067206666</v>
       </c>
       <c r="C372">
         <v>450</v>
       </c>
-      <c r="D372">
+      <c r="D372" s="3">
         <v>1317.3928680243</v>
       </c>
       <c r="F372" t="s">
@@ -8283,13 +8336,13 @@
       <c r="A373" t="s">
         <v>360</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="3">
         <v>48.417548951913467</v>
       </c>
       <c r="C373">
         <v>1000</v>
       </c>
-      <c r="D373">
+      <c r="D373" s="3">
         <v>484.17548951913466</v>
       </c>
       <c r="F373" t="s">
@@ -8300,13 +8353,13 @@
       <c r="A374" t="s">
         <v>361</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="3">
         <v>35.703592036955186</v>
       </c>
       <c r="C374">
         <v>250</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="3">
         <v>89.258980092387958</v>
       </c>
       <c r="F374" t="s">
@@ -8317,13 +8370,13 @@
       <c r="A375" t="s">
         <v>362</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="3">
         <v>181.74600214585391</v>
       </c>
       <c r="C375">
         <v>250</v>
       </c>
-      <c r="D375">
+      <c r="D375" s="3">
         <v>454.36500536463478</v>
       </c>
       <c r="F375" t="s">
@@ -8334,13 +8387,13 @@
       <c r="A376" t="s">
         <v>363</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="3">
         <v>89.887004185173737</v>
       </c>
       <c r="C376">
         <v>1000</v>
       </c>
-      <c r="D376">
+      <c r="D376" s="3">
         <v>898.87004185173737</v>
       </c>
       <c r="F376" t="s">
@@ -8351,13 +8404,13 @@
       <c r="A377" t="s">
         <v>364</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="3">
         <v>29.590500982275863</v>
       </c>
       <c r="C377">
         <v>75</v>
       </c>
-      <c r="D377">
+      <c r="D377" s="3">
         <v>22.192875736706895</v>
       </c>
       <c r="F377" t="s">
@@ -8368,13 +8421,13 @@
       <c r="A378" t="s">
         <v>365</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="3">
         <v>444.34334715699481</v>
       </c>
       <c r="C378">
         <v>50</v>
       </c>
-      <c r="D378">
+      <c r="D378" s="3">
         <v>222.1716735784974</v>
       </c>
       <c r="F378" t="s">
@@ -8385,13 +8438,13 @@
       <c r="A379" t="s">
         <v>366</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="3">
         <v>96.734679602757964</v>
       </c>
       <c r="C379">
         <v>500</v>
       </c>
-      <c r="D379">
+      <c r="D379" s="3">
         <v>483.67339801378984</v>
       </c>
       <c r="F379" t="s">
@@ -8402,13 +8455,13 @@
       <c r="A380" t="s">
         <v>385</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="3">
         <v>3586.3276817384271</v>
       </c>
       <c r="C380">
         <v>200</v>
       </c>
-      <c r="D380">
+      <c r="D380" s="3">
         <v>7172.6553634768543</v>
       </c>
       <c r="F380" t="s">
@@ -8419,13 +8472,13 @@
       <c r="A381" t="s">
         <v>367</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="3">
         <v>181.01987947210236</v>
       </c>
       <c r="C381">
         <v>300</v>
       </c>
-      <c r="D381">
+      <c r="D381" s="3">
         <v>543.05963841630705</v>
       </c>
       <c r="F381" t="s">
@@ -8436,13 +8489,13 @@
       <c r="A382" t="s">
         <v>368</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="3">
         <v>2629.594479413634</v>
       </c>
       <c r="C382">
         <v>300</v>
       </c>
-      <c r="D382">
+      <c r="D382" s="3">
         <v>7888.7834382409019</v>
       </c>
       <c r="F382" t="s">
@@ -8453,13 +8506,13 @@
       <c r="A383" t="s">
         <v>369</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="3">
         <v>73.925500834528108</v>
       </c>
       <c r="C383">
         <v>200</v>
       </c>
-      <c r="D383">
+      <c r="D383" s="3">
         <v>147.85100166905622</v>
       </c>
       <c r="F383" t="s">
@@ -8470,13 +8523,13 @@
       <c r="A384" t="s">
         <v>370</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="3">
         <v>291.5540934880687</v>
       </c>
       <c r="C384">
         <v>200</v>
       </c>
-      <c r="D384">
+      <c r="D384" s="3">
         <v>583.1081869761374</v>
       </c>
       <c r="F384" t="s">
@@ -8487,13 +8540,13 @@
       <c r="A385" t="s">
         <v>371</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="3">
         <v>291.5540934880687</v>
       </c>
       <c r="C385">
         <v>150</v>
       </c>
-      <c r="D385">
+      <c r="D385" s="3">
         <v>437.33114023210305</v>
       </c>
       <c r="F385" t="s">
@@ -8504,13 +8557,13 @@
       <c r="A386" t="s">
         <v>372</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="3">
         <v>99.585991133759123</v>
       </c>
       <c r="C386">
         <v>150</v>
       </c>
-      <c r="D386">
+      <c r="D386" s="3">
         <v>149.37898670063868</v>
       </c>
       <c r="F386" t="s">
@@ -8521,13 +8574,13 @@
       <c r="A387" t="s">
         <v>373</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="3">
         <v>397.09658434909136</v>
       </c>
       <c r="C387">
         <v>500</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="3">
         <v>1985.4829217454567</v>
       </c>
       <c r="F387" t="s">
@@ -8538,13 +8591,13 @@
       <c r="A388" t="s">
         <v>374</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="3">
         <v>216.46700440415407</v>
       </c>
       <c r="C388">
         <v>250</v>
       </c>
-      <c r="D388">
+      <c r="D388" s="3">
         <v>541.16751101038517</v>
       </c>
       <c r="F388" t="s">
@@ -8555,13 +8608,13 @@
       <c r="A389" t="s">
         <v>386</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="3">
         <v>357.91902286039812</v>
       </c>
       <c r="C389">
         <v>400</v>
       </c>
-      <c r="D389">
+      <c r="D389" s="3">
         <v>1431.6760914415925</v>
       </c>
       <c r="F389" t="s">
@@ -8572,13 +8625,13 @@
       <c r="A390" t="s">
         <v>387</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="3">
         <v>337.70028920197637</v>
       </c>
       <c r="C390">
         <v>250</v>
       </c>
-      <c r="D390">
+      <c r="D390" s="3">
         <v>844.25072300494094</v>
       </c>
       <c r="F390" t="s">
@@ -8589,13 +8642,13 @@
       <c r="A391" t="s">
         <v>388</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="3">
         <v>84.9535278158436</v>
       </c>
       <c r="C391">
         <v>260</v>
       </c>
-      <c r="D391">
+      <c r="D391" s="3">
         <v>220.87917232119338</v>
       </c>
       <c r="F391" t="s">
@@ -8606,13 +8659,13 @@
       <c r="A392" t="s">
         <v>389</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C392">
         <v>250</v>
       </c>
-      <c r="D392">
+      <c r="D392" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F392" t="s">
@@ -8623,13 +8676,13 @@
       <c r="A393" t="s">
         <v>390</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="3">
         <v>47.059589755488417</v>
       </c>
       <c r="C393">
         <v>400</v>
       </c>
-      <c r="D393">
+      <c r="D393" s="3">
         <v>188.23835902195367</v>
       </c>
       <c r="F393" t="s">
@@ -8640,13 +8693,13 @@
       <c r="A394" t="s">
         <v>392</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="3">
         <v>108.33031475499141</v>
       </c>
       <c r="C394">
         <v>500</v>
       </c>
-      <c r="D394">
+      <c r="D394" s="3">
         <v>541.651573774957</v>
       </c>
       <c r="F394" t="s">
@@ -8657,13 +8710,13 @@
       <c r="A395" t="s">
         <v>394</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="3">
         <v>214.27348726536511</v>
       </c>
       <c r="C395">
         <v>250</v>
       </c>
-      <c r="D395">
+      <c r="D395" s="3">
         <v>535.68371816341278</v>
       </c>
       <c r="F395" t="s">
@@ -8674,13 +8727,13 @@
       <c r="A396" t="s">
         <v>395</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C396">
         <v>250</v>
       </c>
-      <c r="D396">
+      <c r="D396" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F396" t="s">
@@ -8691,13 +8744,13 @@
       <c r="A397" t="s">
         <v>396</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="3">
         <v>291.5540934880687</v>
       </c>
       <c r="C397">
         <v>200</v>
       </c>
-      <c r="D397">
+      <c r="D397" s="3">
         <v>583.1081869761374</v>
       </c>
       <c r="F397" t="s">
@@ -8708,13 +8761,13 @@
       <c r="A398" t="s">
         <v>397</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="3">
         <v>21.674118734526314</v>
       </c>
       <c r="C398">
         <v>1000</v>
       </c>
-      <c r="D398">
+      <c r="D398" s="3">
         <v>216.74118734526314</v>
       </c>
       <c r="F398" t="s">
@@ -8725,13 +8778,13 @@
       <c r="A399" t="s">
         <v>398</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="3">
         <v>59.79980984426529</v>
       </c>
       <c r="C399">
         <v>500</v>
       </c>
-      <c r="D399">
+      <c r="D399" s="3">
         <v>298.99904922132646</v>
       </c>
       <c r="F399" t="s">
@@ -8742,13 +8795,13 @@
       <c r="A400" t="s">
         <v>399</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="3">
         <v>73.925500834528108</v>
       </c>
       <c r="C400">
         <v>750</v>
       </c>
-      <c r="D400">
+      <c r="D400" s="3">
         <v>554.44125625896083</v>
       </c>
       <c r="F400" t="s">
@@ -8759,13 +8812,13 @@
       <c r="A401" t="s">
         <v>400</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="3">
         <v>373.88590330062442</v>
       </c>
       <c r="C401">
         <v>100</v>
       </c>
-      <c r="D401">
+      <c r="D401" s="3">
         <v>373.88590330062442</v>
       </c>
       <c r="F401" t="s">
@@ -8776,13 +8829,13 @@
       <c r="A402" t="s">
         <v>401</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="3">
         <v>201.13794295580527</v>
       </c>
       <c r="C402">
         <v>250</v>
       </c>
-      <c r="D402">
+      <c r="D402" s="3">
         <v>502.84485738951321</v>
       </c>
       <c r="F402" t="s">
@@ -8793,13 +8846,13 @@
       <c r="A403" t="s">
         <v>403</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="3">
         <v>841.14941735933758</v>
       </c>
       <c r="C403">
         <v>100</v>
       </c>
-      <c r="D403">
+      <c r="D403" s="3">
         <v>841.14941735933758</v>
       </c>
       <c r="F403" t="s">
@@ -8810,13 +8863,13 @@
       <c r="A404" t="s">
         <v>404</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="3">
         <v>317.51083185249956</v>
       </c>
       <c r="C404">
         <v>500</v>
       </c>
-      <c r="D404">
+      <c r="D404" s="3">
         <v>1587.5541592624977</v>
       </c>
       <c r="F404" t="s">
@@ -8827,13 +8880,13 @@
       <c r="A405" t="s">
         <v>406</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="3">
         <v>506.10882273164447</v>
       </c>
       <c r="C405">
         <v>200</v>
       </c>
-      <c r="D405">
+      <c r="D405" s="3">
         <v>1012.2176454632889</v>
       </c>
       <c r="F405" t="s">
@@ -8844,13 +8897,13 @@
       <c r="A406" t="s">
         <v>407</v>
       </c>
-      <c r="B406" s="1">
+      <c r="B406" s="4">
         <v>16.920000000000002</v>
       </c>
       <c r="C406">
         <v>1000</v>
       </c>
-      <c r="D406">
+      <c r="D406" s="3">
         <v>169.20000000000002</v>
       </c>
       <c r="F406" t="s">
@@ -8861,13 +8914,13 @@
       <c r="A407" t="s">
         <v>408</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C407">
         <v>250</v>
       </c>
-      <c r="D407">
+      <c r="D407" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F407" t="s">
@@ -8878,13 +8931,13 @@
       <c r="A408" t="s">
         <v>409</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C408">
         <v>250</v>
       </c>
-      <c r="D408">
+      <c r="D408" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F408" t="s">
@@ -8895,13 +8948,13 @@
       <c r="A409" t="s">
         <v>410</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="3">
         <v>32.481980175241851</v>
       </c>
       <c r="C409">
         <v>200</v>
       </c>
-      <c r="D409">
+      <c r="D409" s="3">
         <v>64.963960350483703</v>
       </c>
       <c r="F409" t="s">
@@ -8912,13 +8965,13 @@
       <c r="A410" t="s">
         <v>411</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="3">
         <v>107.77267860594679</v>
       </c>
       <c r="C410">
         <v>500</v>
       </c>
-      <c r="D410">
+      <c r="D410" s="3">
         <v>538.86350000000004</v>
       </c>
       <c r="F410" t="s">
@@ -8929,13 +8982,13 @@
       <c r="A411" t="s">
         <v>412</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="3">
         <v>107.77267860594679</v>
       </c>
       <c r="C411">
         <v>500</v>
       </c>
-      <c r="D411">
+      <c r="D411" s="3">
         <v>538.86350000000004</v>
       </c>
       <c r="F411" t="s">
@@ -8946,13 +8999,13 @@
       <c r="A412" t="s">
         <v>413</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="3">
         <v>97.283728880828747</v>
       </c>
       <c r="C412">
         <v>1500</v>
       </c>
-      <c r="D412">
+      <c r="D412" s="3">
         <v>1459.2559332124313</v>
       </c>
       <c r="F412" t="s">
@@ -8963,13 +9016,13 @@
       <c r="A413" t="s">
         <v>414</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="3">
         <v>101.79225458028007</v>
       </c>
       <c r="C413">
         <v>400</v>
       </c>
-      <c r="D413">
+      <c r="D413" s="3">
         <v>127.24031822535009</v>
       </c>
       <c r="F413" t="s">
@@ -8980,13 +9033,13 @@
       <c r="A414" t="s">
         <v>415</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="3">
         <v>108.33031475499141</v>
       </c>
       <c r="C414">
         <v>500</v>
       </c>
-      <c r="D414">
+      <c r="D414" s="3">
         <v>541.651573774957</v>
       </c>
       <c r="F414" t="s">
@@ -8997,13 +9050,13 @@
       <c r="A415" t="s">
         <v>416</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="3">
         <v>55.56717128051551</v>
       </c>
       <c r="C415">
         <v>500</v>
       </c>
-      <c r="D415">
+      <c r="D415" s="3">
         <v>277.83585640257752</v>
       </c>
       <c r="F415" t="s">
@@ -9014,13 +9067,13 @@
       <c r="A416" t="s">
         <v>430</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="3">
         <v>38.118011649298857</v>
       </c>
       <c r="C416">
         <v>200</v>
       </c>
-      <c r="D416">
+      <c r="D416" s="3">
         <f>B416*2</f>
         <v>76.236023298597715</v>
       </c>
@@ -9032,13 +9085,13 @@
       <c r="A417" t="s">
         <v>417</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="3">
         <v>38.118011649298857</v>
       </c>
       <c r="C417">
         <v>1000</v>
       </c>
-      <c r="D417">
+      <c r="D417" s="3">
         <v>381.18011649298859</v>
       </c>
       <c r="F417" t="s">
@@ -9049,13 +9102,13 @@
       <c r="A418" t="s">
         <v>418</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="3">
         <v>37.066018076956333</v>
       </c>
       <c r="C418">
         <v>1000</v>
       </c>
-      <c r="D418">
+      <c r="D418" s="3">
         <v>370.66018076956334</v>
       </c>
       <c r="F418" t="s">
@@ -9066,13 +9119,13 @@
       <c r="A419" t="s">
         <v>419</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="3">
         <v>73.925500834528108</v>
       </c>
       <c r="C419">
         <v>750</v>
       </c>
-      <c r="D419">
+      <c r="D419" s="3">
         <v>554.44125625896083</v>
       </c>
       <c r="F419" t="s">
@@ -9083,13 +9136,13 @@
       <c r="A420" t="s">
         <v>420</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="3">
         <v>379.97386298482741</v>
       </c>
       <c r="C420">
         <v>250</v>
       </c>
-      <c r="D420">
+      <c r="D420" s="3">
         <v>949.93465746206857</v>
       </c>
       <c r="F420" t="s">
@@ -9100,13 +9153,13 @@
       <c r="A421" t="s">
         <v>421</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="3">
         <v>355.10230103591527</v>
       </c>
       <c r="C421">
         <v>200</v>
       </c>
-      <c r="D421">
+      <c r="D421" s="3">
         <v>710.20460207183055</v>
       </c>
       <c r="F421" t="s">
@@ -9117,13 +9170,13 @@
       <c r="A422" t="s">
         <v>422</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C422">
         <v>250</v>
       </c>
-      <c r="D422">
+      <c r="D422" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F422" t="s">
@@ -9134,13 +9187,13 @@
       <c r="A423" t="s">
         <v>423</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="3">
         <v>89.887004185173737</v>
       </c>
       <c r="C423">
         <v>2500</v>
       </c>
-      <c r="D423">
+      <c r="D423" s="3">
         <v>2247.1751046293434</v>
       </c>
       <c r="F423" t="s">
@@ -9151,13 +9204,13 @@
       <c r="A424" t="s">
         <v>425</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="3">
         <v>1770.7523000000001</v>
       </c>
       <c r="C424">
         <v>350</v>
       </c>
-      <c r="D424">
+      <c r="D424" s="3">
         <v>6197.6330500000004</v>
       </c>
       <c r="F424" t="s">
@@ -9168,13 +9221,13 @@
       <c r="A425" t="s">
         <v>428</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="3">
         <v>25.228645250900719</v>
       </c>
       <c r="C425">
         <v>500</v>
       </c>
-      <c r="D425">
+      <c r="D425" s="3">
         <v>126.14322625450359</v>
       </c>
       <c r="F425" t="s">
@@ -9185,13 +9238,13 @@
       <c r="A426" t="s">
         <v>429</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="3">
         <v>59.79980984426529</v>
       </c>
       <c r="C426">
         <v>500</v>
       </c>
-      <c r="D426">
+      <c r="D426" s="3">
         <v>298.99904922132646</v>
       </c>
       <c r="F426" t="s">
@@ -9202,13 +9255,13 @@
       <c r="A427" t="s">
         <v>432</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="3">
         <v>65.246146832503271</v>
       </c>
       <c r="C427">
         <v>750</v>
       </c>
-      <c r="D427">
+      <c r="D427" s="3">
         <v>489.34610124377451</v>
       </c>
       <c r="F427" t="s">
@@ -9219,13 +9272,13 @@
       <c r="A428" t="s">
         <v>433</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="3">
         <v>343.5154680311332</v>
       </c>
       <c r="C428">
         <v>400</v>
       </c>
-      <c r="D428">
+      <c r="D428" s="3">
         <v>1374.0618721245328</v>
       </c>
       <c r="F428" t="s">
@@ -9236,13 +9289,13 @@
       <c r="A429" t="s">
         <v>434</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="3">
         <v>357.91902286039812</v>
       </c>
       <c r="C429">
         <v>400</v>
       </c>
-      <c r="D429">
+      <c r="D429" s="3">
         <v>1431.6760914415925</v>
       </c>
       <c r="F429" t="s">
@@ -9253,13 +9306,13 @@
       <c r="A430" t="s">
         <v>435</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="3">
         <v>392.03766637964208</v>
       </c>
       <c r="C430">
         <v>250</v>
       </c>
-      <c r="D430">
+      <c r="D430" s="3">
         <v>980.09416594910522</v>
       </c>
       <c r="F430" t="s">
@@ -9270,13 +9323,13 @@
       <c r="A431" t="s">
         <v>436</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C431">
         <v>250</v>
       </c>
-      <c r="D431">
+      <c r="D431" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F431" t="s">
@@ -9287,13 +9340,13 @@
       <c r="A432" t="s">
         <v>437</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C432">
         <v>250</v>
       </c>
-      <c r="D432">
+      <c r="D432" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F432" t="s">
@@ -9304,13 +9357,13 @@
       <c r="A433" t="s">
         <v>438</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="3">
         <v>70.12458970785093</v>
       </c>
       <c r="C433">
         <v>400</v>
       </c>
-      <c r="D433">
+      <c r="D433" s="3">
         <v>280.49835883140372</v>
       </c>
       <c r="F433" t="s">
@@ -9321,13 +9374,13 @@
       <c r="A434" t="s">
         <v>439</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="3">
         <v>213.82782137587878</v>
       </c>
       <c r="C434">
         <v>250</v>
       </c>
-      <c r="D434">
+      <c r="D434" s="3">
         <v>534.56955343969696</v>
       </c>
       <c r="F434" t="s">
@@ -9338,13 +9391,13 @@
       <c r="A435" t="s">
         <v>440</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="3">
         <v>187.23444372851921</v>
       </c>
       <c r="C435">
         <v>750</v>
       </c>
-      <c r="D435">
+      <c r="D435" s="3">
         <v>1404.2583279638941</v>
       </c>
       <c r="F435" t="s">
@@ -9355,13 +9408,13 @@
       <c r="A436" t="s">
         <v>441</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="3">
         <v>187.23444372851921</v>
       </c>
       <c r="C436">
         <v>750</v>
       </c>
-      <c r="D436">
+      <c r="D436" s="3">
         <v>1404.2583279638941</v>
       </c>
       <c r="F436" t="s">
@@ -9372,13 +9425,13 @@
       <c r="A437" t="s">
         <v>442</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="3">
         <v>187.23444372851921</v>
       </c>
       <c r="C437">
         <v>750</v>
       </c>
-      <c r="D437">
+      <c r="D437" s="3">
         <v>1404.2583279638941</v>
       </c>
       <c r="F437" t="s">
@@ -9389,13 +9442,13 @@
       <c r="A438" t="s">
         <v>443</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="3">
         <v>187.23444372851921</v>
       </c>
       <c r="C438">
         <v>750</v>
       </c>
-      <c r="D438">
+      <c r="D438" s="3">
         <v>1404.2583279638941</v>
       </c>
       <c r="F438" t="s">
@@ -9406,13 +9459,13 @@
       <c r="A439" t="s">
         <v>444</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="3">
         <v>187.23444372851921</v>
       </c>
       <c r="C439">
         <v>750</v>
       </c>
-      <c r="D439">
+      <c r="D439" s="3">
         <v>1404.2583279638941</v>
       </c>
       <c r="F439" t="s">
@@ -9423,13 +9476,13 @@
       <c r="A440" t="s">
         <v>445</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="3">
         <v>187.23444372851921</v>
       </c>
       <c r="C440">
         <v>750</v>
       </c>
-      <c r="D440">
+      <c r="D440" s="3">
         <v>1404.2583279638941</v>
       </c>
       <c r="F440" t="s">
@@ -9440,13 +9493,13 @@
       <c r="A441" t="s">
         <v>447</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="3">
         <v>204.17659682971208</v>
       </c>
       <c r="C441">
         <v>700</v>
       </c>
-      <c r="D441">
+      <c r="D441" s="3">
         <v>1429.2361778079846</v>
       </c>
       <c r="F441" t="s">
@@ -9457,13 +9510,13 @@
       <c r="A442" t="s">
         <v>448</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="3">
         <v>204.17659682971208</v>
       </c>
       <c r="C442">
         <v>700</v>
       </c>
-      <c r="D442">
+      <c r="D442" s="3">
         <v>1429.2361778079846</v>
       </c>
       <c r="F442" t="s">
@@ -9474,13 +9527,13 @@
       <c r="A443" t="s">
         <v>449</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="3">
         <v>204.17659682971208</v>
       </c>
       <c r="C443">
         <v>700</v>
       </c>
-      <c r="D443">
+      <c r="D443" s="3">
         <v>1429.2361778079846</v>
       </c>
       <c r="F443" t="s">
@@ -9491,13 +9544,13 @@
       <c r="A444" t="s">
         <v>451</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="3">
         <v>986.64047854914975</v>
       </c>
       <c r="C444">
         <v>250</v>
       </c>
-      <c r="D444">
+      <c r="D444" s="3">
         <v>2466.6011963728743</v>
       </c>
       <c r="F444" t="s">
@@ -9508,13 +9561,13 @@
       <c r="A445" t="s">
         <v>452</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="3">
         <v>318.0574017556246</v>
       </c>
       <c r="C445">
         <v>400</v>
       </c>
-      <c r="D445">
+      <c r="D445" s="3">
         <v>1272.2296070224984</v>
       </c>
       <c r="F445" t="s">
@@ -9525,13 +9578,13 @@
       <c r="A446" t="s">
         <v>453</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="3">
         <v>59.79980984426529</v>
       </c>
       <c r="C446">
         <v>500</v>
       </c>
-      <c r="D446">
+      <c r="D446" s="3">
         <v>298.99904922132646</v>
       </c>
       <c r="F446" t="s">
@@ -9542,13 +9595,13 @@
       <c r="A447" t="s">
         <v>454</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="3">
         <v>479.57973327760567</v>
       </c>
       <c r="C447">
         <v>200</v>
       </c>
-      <c r="D447">
+      <c r="D447" s="3">
         <v>959.15946655521134</v>
       </c>
       <c r="F447" t="s">
@@ -9559,13 +9612,13 @@
       <c r="A448" t="s">
         <v>455</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="3">
         <v>596.30234083137611</v>
       </c>
       <c r="C448">
         <v>50</v>
       </c>
-      <c r="D448">
+      <c r="D448" s="3">
         <v>298.15117041568806</v>
       </c>
       <c r="F448" t="s">
@@ -9576,13 +9629,13 @@
       <c r="A449" t="s">
         <v>456</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="3">
         <v>79.377445499452435</v>
       </c>
       <c r="C449">
         <v>1000</v>
       </c>
-      <c r="D449">
+      <c r="D449" s="3">
         <v>793.77445499452438</v>
       </c>
       <c r="F449" t="s">
@@ -9593,13 +9646,13 @@
       <c r="A450" t="s">
         <v>458</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C450">
         <v>250</v>
       </c>
-      <c r="D450">
+      <c r="D450" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F450" t="s">
@@ -9610,13 +9663,13 @@
       <c r="A451" t="s">
         <v>459</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C451">
         <v>250</v>
       </c>
-      <c r="D451">
+      <c r="D451" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F451" t="s">
@@ -9627,13 +9680,13 @@
       <c r="A452" t="s">
         <v>460</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="3">
         <v>107.77267860594679</v>
       </c>
       <c r="C452">
         <v>150</v>
       </c>
-      <c r="D452">
+      <c r="D452" s="3">
         <v>161.65901790892019</v>
       </c>
       <c r="F452" t="s">
@@ -9644,13 +9697,13 @@
       <c r="A453" t="s">
         <v>461</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="3">
         <v>107.77267860594679</v>
       </c>
       <c r="C453">
         <v>150</v>
       </c>
-      <c r="D453">
+      <c r="D453" s="3">
         <v>161.65901790892019</v>
       </c>
       <c r="F453" t="s">
@@ -9661,13 +9714,13 @@
       <c r="A454" t="s">
         <v>462</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="3">
         <v>107.77267860594679</v>
       </c>
       <c r="C454">
         <v>150</v>
       </c>
-      <c r="D454">
+      <c r="D454" s="3">
         <v>161.65901790892019</v>
       </c>
       <c r="F454" t="s">
@@ -9678,13 +9731,13 @@
       <c r="A455" t="s">
         <v>463</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="3">
         <v>506.10882273164447</v>
       </c>
       <c r="C455">
         <v>200</v>
       </c>
-      <c r="D455">
+      <c r="D455" s="3">
         <v>1012.2176454632889</v>
       </c>
       <c r="F455" t="s">
@@ -9695,13 +9748,13 @@
       <c r="A456" t="s">
         <v>464</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="3">
         <v>73.925500834528108</v>
       </c>
       <c r="C456">
         <v>750</v>
       </c>
-      <c r="D456">
+      <c r="D456" s="3">
         <v>554.44125625896083</v>
       </c>
       <c r="F456" t="s">
@@ -9712,13 +9765,13 @@
       <c r="A457" t="s">
         <v>465</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="3">
         <v>24.788707061870262</v>
       </c>
       <c r="C457">
         <v>600</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="3">
         <v>148.73224237122156</v>
       </c>
       <c r="F457" t="s">
@@ -9729,13 +9782,13 @@
       <c r="A458" t="s">
         <v>466</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C458">
         <v>250</v>
       </c>
-      <c r="D458">
+      <c r="D458" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F458" t="s">
@@ -9746,13 +9799,13 @@
       <c r="A459" t="s">
         <v>467</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="3">
         <v>291.5540934880687</v>
       </c>
       <c r="C459">
         <v>200</v>
       </c>
-      <c r="D459">
+      <c r="D459" s="3">
         <v>583.1081869761374</v>
       </c>
       <c r="F459" t="s">
@@ -9763,13 +9816,13 @@
       <c r="A460" t="s">
         <v>468</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="3">
         <v>89.887004185173737</v>
       </c>
       <c r="C460">
         <v>150</v>
       </c>
-      <c r="D460">
+      <c r="D460" s="3">
         <v>134.83050627776061</v>
       </c>
       <c r="F460" t="s">
@@ -9780,13 +9833,13 @@
       <c r="A461" t="s">
         <v>469</v>
       </c>
-      <c r="B461">
+      <c r="B461" s="3">
         <v>213.82782137587878</v>
       </c>
       <c r="C461">
         <v>250</v>
       </c>
-      <c r="D461">
+      <c r="D461" s="3">
         <v>534.56955343969696</v>
       </c>
       <c r="F461" t="s">
@@ -9797,13 +9850,13 @@
       <c r="A462" t="s">
         <v>470</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="3">
         <v>130.6517576810553</v>
       </c>
       <c r="C462">
         <v>500</v>
       </c>
-      <c r="D462">
+      <c r="D462" s="3">
         <v>653.2587884052765</v>
       </c>
       <c r="F462" t="s">
@@ -9814,13 +9867,13 @@
       <c r="A463" t="s">
         <v>471</v>
       </c>
-      <c r="B463">
+      <c r="B463" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C463">
         <v>150</v>
       </c>
-      <c r="D463">
+      <c r="D463" s="3">
         <v>1158.6155602707249</v>
       </c>
       <c r="F463" t="s">
@@ -9831,13 +9884,13 @@
       <c r="A464" t="s">
         <v>472</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="3">
         <v>204.17659682971208</v>
       </c>
       <c r="C464">
         <v>700</v>
       </c>
-      <c r="D464">
+      <c r="D464" s="3">
         <v>1429.2361778079846</v>
       </c>
       <c r="F464" t="s">
@@ -9848,13 +9901,13 @@
       <c r="A465" t="s">
         <v>473</v>
       </c>
-      <c r="B465">
+      <c r="B465" s="3">
         <v>337.70028920197637</v>
       </c>
       <c r="C465">
         <v>250</v>
       </c>
-      <c r="D465">
+      <c r="D465" s="3">
         <v>844.25072300494094</v>
       </c>
       <c r="F465" t="s">
@@ -9865,13 +9918,13 @@
       <c r="A466" t="s">
         <v>474</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="3">
         <v>291.5540934880687</v>
       </c>
       <c r="C466">
         <v>200</v>
       </c>
-      <c r="D466">
+      <c r="D466" s="3">
         <v>583.1081869761374</v>
       </c>
       <c r="F466" t="s">
@@ -9882,13 +9935,13 @@
       <c r="A467" t="s">
         <v>475</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="3">
         <v>379.97386298482741</v>
       </c>
       <c r="C467">
         <v>250</v>
       </c>
-      <c r="D467">
+      <c r="D467" s="3">
         <v>949.93465746206857</v>
       </c>
       <c r="F467" t="s">
@@ -9899,13 +9952,13 @@
       <c r="A468" t="s">
         <v>476</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="3">
         <v>290.51358026671596</v>
       </c>
       <c r="C468">
         <v>300</v>
       </c>
-      <c r="D468">
+      <c r="D468" s="3">
         <v>871.54074080014789</v>
       </c>
       <c r="F468" t="s">
@@ -9916,13 +9969,13 @@
       <c r="A469" t="s">
         <v>477</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="3">
         <v>37.066018076956333</v>
       </c>
       <c r="C469">
         <v>500</v>
       </c>
-      <c r="D469">
+      <c r="D469" s="3">
         <v>185.3300903847815</v>
       </c>
       <c r="F469" t="s">
@@ -9933,13 +9986,13 @@
       <c r="A470" t="s">
         <v>478</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="3">
         <v>37.066018076956333</v>
       </c>
       <c r="C470">
         <v>500</v>
       </c>
-      <c r="D470">
+      <c r="D470" s="3">
         <v>185.3300903847815</v>
       </c>
       <c r="F470" t="s">
@@ -9950,13 +10003,13 @@
       <c r="A471" t="s">
         <v>479</v>
       </c>
-      <c r="B471">
+      <c r="B471" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C471">
         <v>250</v>
       </c>
-      <c r="D471">
+      <c r="D471" s="3">
         <v>1931.0259337845414</v>
       </c>
       <c r="F471" t="s">
@@ -9967,13 +10020,13 @@
       <c r="A472" t="s">
         <v>480</v>
       </c>
-      <c r="B472">
+      <c r="B472" s="3">
         <v>479.57973327760567</v>
       </c>
       <c r="C472">
         <v>200</v>
       </c>
-      <c r="D472">
+      <c r="D472" s="3">
         <v>959.15946655521134</v>
       </c>
       <c r="F472" t="s">
@@ -9984,13 +10037,13 @@
       <c r="A473" t="s">
         <v>481</v>
       </c>
-      <c r="B473">
+      <c r="B473" s="3">
         <v>38.118011649298857</v>
       </c>
       <c r="C473">
         <v>1000</v>
       </c>
-      <c r="D473">
+      <c r="D473" s="3">
         <v>381.18011649298859</v>
       </c>
       <c r="F473" t="s">
@@ -10001,13 +10054,13 @@
       <c r="A474" t="s">
         <v>482</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="3">
         <v>337.70028920197637</v>
       </c>
       <c r="C474">
         <v>250</v>
       </c>
-      <c r="D474">
+      <c r="D474" s="3">
         <v>844.25072300494094</v>
       </c>
       <c r="F474" t="s">
@@ -10018,13 +10071,13 @@
       <c r="A475" t="s">
         <v>483</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="3">
         <v>107.77267860594679</v>
       </c>
       <c r="C475">
         <v>150</v>
       </c>
-      <c r="D475">
+      <c r="D475" s="3">
         <v>161.65901790892019</v>
       </c>
       <c r="F475" t="s">
@@ -10035,13 +10088,13 @@
       <c r="A476" t="s">
         <v>484</v>
       </c>
-      <c r="B476">
+      <c r="B476" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C476">
         <v>150</v>
       </c>
-      <c r="D476">
+      <c r="D476" s="3">
         <v>1158.6155602707249</v>
       </c>
       <c r="F476" t="s">
@@ -10052,13 +10105,13 @@
       <c r="A477" t="s">
         <v>485</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="3">
         <v>126.35908682580457</v>
       </c>
       <c r="C477">
         <v>500</v>
       </c>
-      <c r="D477">
+      <c r="D477" s="3">
         <v>631.79543412902285</v>
       </c>
       <c r="F477" t="s">
@@ -10069,13 +10122,13 @@
       <c r="A478" t="s">
         <v>486</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="3">
         <v>126.35908682580457</v>
       </c>
       <c r="C478">
         <v>500</v>
       </c>
-      <c r="D478">
+      <c r="D478" s="3">
         <v>631.79543412902285</v>
       </c>
       <c r="F478" t="s">
@@ -10086,13 +10139,13 @@
       <c r="A479" t="s">
         <v>487</v>
       </c>
-      <c r="B479">
+      <c r="B479" s="3">
         <v>291.5540934880687</v>
       </c>
       <c r="C479">
         <v>500</v>
       </c>
-      <c r="D479">
+      <c r="D479" s="3">
         <v>1457.77045</v>
       </c>
       <c r="F479" t="s">
@@ -10103,13 +10156,13 @@
       <c r="A480" t="s">
         <v>488</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="3">
         <v>291.5540934880687</v>
       </c>
       <c r="C480">
         <v>200</v>
       </c>
-      <c r="D480">
+      <c r="D480" s="3">
         <v>583.1081869761374</v>
       </c>
       <c r="F480" t="s">
@@ -10120,13 +10173,13 @@
       <c r="A481" t="s">
         <v>489</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="3">
         <v>126.35908682580457</v>
       </c>
       <c r="C481">
         <v>400</v>
       </c>
-      <c r="D481">
+      <c r="D481" s="3">
         <v>505.43634730321827</v>
       </c>
       <c r="F481" t="s">
@@ -10137,13 +10190,13 @@
       <c r="A482" t="s">
         <v>490</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="3">
         <v>351.3973090673702</v>
       </c>
       <c r="C482">
         <v>200</v>
       </c>
-      <c r="D482">
+      <c r="D482" s="3">
         <v>702.7946181347404</v>
       </c>
       <c r="F482" t="s">
@@ -10154,13 +10207,13 @@
       <c r="A483" t="s">
         <v>491</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="3">
         <v>107.77267860594679</v>
       </c>
       <c r="C483">
         <v>150</v>
       </c>
-      <c r="D483">
+      <c r="D483" s="3">
         <v>161.65901790892019</v>
       </c>
       <c r="F483" t="s">
@@ -10171,13 +10224,13 @@
       <c r="A484" t="s">
         <v>492</v>
       </c>
-      <c r="B484">
+      <c r="B484" s="3">
         <v>177.90929220645336</v>
       </c>
       <c r="C484">
         <v>500</v>
       </c>
-      <c r="D484">
+      <c r="D484" s="3">
         <v>889.54646103226673</v>
       </c>
       <c r="F484" t="s">
@@ -10188,13 +10241,13 @@
       <c r="A485" t="s">
         <v>493</v>
       </c>
-      <c r="B485">
+      <c r="B485" s="3">
         <v>213.82782137587878</v>
       </c>
       <c r="C485">
         <v>250</v>
       </c>
-      <c r="D485">
+      <c r="D485" s="3">
         <v>534.56955343969696</v>
       </c>
       <c r="F485" t="s">
@@ -10205,13 +10258,13 @@
       <c r="A486" t="s">
         <v>494</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="3">
         <v>397.09658434909136</v>
       </c>
       <c r="C486">
         <v>400</v>
       </c>
-      <c r="D486">
+      <c r="D486" s="3">
         <v>15883.86</v>
       </c>
       <c r="F486" t="s">
@@ -10222,13 +10275,13 @@
       <c r="A487" t="s">
         <v>495</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="3">
         <v>506.10882273164447</v>
       </c>
       <c r="C487">
         <v>200</v>
       </c>
-      <c r="D487">
+      <c r="D487" s="3">
         <v>1012.2176454632889</v>
       </c>
       <c r="F487" t="s">
@@ -10236,34 +10289,34 @@
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="2" t="s">
+      <c r="A488" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B488" s="2">
+      <c r="B488" s="5">
         <v>506.10882273164447</v>
       </c>
-      <c r="C488" s="2">
+      <c r="C488" s="1">
         <v>200</v>
       </c>
-      <c r="D488" s="2">
+      <c r="D488" s="5">
         <v>1012.2176454632889</v>
       </c>
-      <c r="E488" s="2"/>
-      <c r="F488" s="2" t="s">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="3" t="s">
+      <c r="A489" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B489">
+      <c r="B489" s="3">
         <v>189.5269395707852</v>
       </c>
       <c r="C489">
         <v>150</v>
       </c>
-      <c r="D489">
+      <c r="D489" s="3">
         <v>284.29040935617797</v>
       </c>
       <c r="F489" t="s">
@@ -10271,16 +10324,16 @@
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B490">
+      <c r="A490" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B490" s="3">
         <v>54.813128231837617</v>
       </c>
       <c r="C490">
         <v>1000</v>
       </c>
-      <c r="D490">
+      <c r="D490" s="3">
         <v>548.13128231837618</v>
       </c>
       <c r="F490" t="s">
@@ -10288,16 +10341,16 @@
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B491">
+      <c r="A491" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B491" s="3">
         <v>250.47264001678226</v>
       </c>
       <c r="C491">
         <v>250</v>
       </c>
-      <c r="D491">
+      <c r="D491" s="3">
         <v>626.18160004195568</v>
       </c>
       <c r="F491" t="s">
@@ -10305,16 +10358,16 @@
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B492">
+      <c r="A492" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B492" s="3">
         <v>214.27348726536511</v>
       </c>
       <c r="C492">
         <v>250</v>
       </c>
-      <c r="D492">
+      <c r="D492" s="3">
         <v>535.68371816341278</v>
       </c>
       <c r="F492" t="s">
@@ -10322,16 +10375,16 @@
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B493">
+      <c r="A493" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B493" s="3">
         <v>187.23444372851921</v>
       </c>
       <c r="C493">
         <v>750</v>
       </c>
-      <c r="D493">
+      <c r="D493" s="3">
         <v>1404.2583279638941</v>
       </c>
       <c r="F493" t="s">
@@ -10339,16 +10392,16 @@
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B494">
+      <c r="A494" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B494" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C494">
         <v>200</v>
       </c>
-      <c r="D494">
+      <c r="D494" s="3">
         <v>1544.8208</v>
       </c>
       <c r="F494" t="s">
@@ -10356,16 +10409,16 @@
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B495">
+      <c r="A495" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B495" s="3">
         <v>392.03766637964208</v>
       </c>
       <c r="C495">
         <v>250</v>
       </c>
-      <c r="D495">
+      <c r="D495" s="3">
         <v>980.09416594910522</v>
       </c>
       <c r="F495" t="s">
@@ -10373,16 +10426,16 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B496">
+      <c r="A496" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B496" s="3">
         <v>772.41037351381658</v>
       </c>
       <c r="C496">
         <v>125</v>
       </c>
-      <c r="D496">
+      <c r="D496" s="3">
         <v>965.51289999999995</v>
       </c>
       <c r="F496" t="s">
@@ -10390,16 +10443,16 @@
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B497">
+      <c r="A497" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B497" s="3">
         <v>130.6517576810553</v>
       </c>
       <c r="C497">
         <v>500</v>
       </c>
-      <c r="D497">
+      <c r="D497" s="3">
         <v>653.2587884052765</v>
       </c>
       <c r="F497" t="s">
@@ -10407,16 +10460,16 @@
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B498">
+      <c r="A498" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B498" s="3">
         <v>104.09554725031116</v>
       </c>
       <c r="C498">
         <v>400</v>
       </c>
-      <c r="D498">
+      <c r="D498" s="3">
         <v>416.38200000000001</v>
       </c>
       <c r="F498" t="s">
@@ -10424,16 +10477,16 @@
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B499">
+      <c r="A499" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B499" s="3">
         <v>126.57325595679386</v>
       </c>
       <c r="C499">
         <v>200</v>
       </c>
-      <c r="D499">
+      <c r="D499" s="3">
         <v>253.14651191358772</v>
       </c>
       <c r="F499" t="s">
@@ -10441,20 +10494,310 @@
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" s="3" t="s">
+      <c r="A500" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B500">
+      <c r="B500" s="3">
         <v>98.234837170729406</v>
       </c>
       <c r="C500">
         <v>300</v>
       </c>
-      <c r="D500">
+      <c r="D500" s="3">
         <v>294.70440000000002</v>
       </c>
       <c r="F500" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B501" s="3">
+        <v>60.89876298602141</v>
+      </c>
+      <c r="C501">
+        <v>200</v>
+      </c>
+      <c r="D501" s="3">
+        <v>121.79752597204282</v>
+      </c>
+      <c r="F501" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B502" s="3">
+        <v>59.79980984426529</v>
+      </c>
+      <c r="C502">
+        <v>500</v>
+      </c>
+      <c r="D502" s="3">
+        <v>298.99904922132646</v>
+      </c>
+      <c r="F502" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B503" s="3">
+        <v>357.91902286039812</v>
+      </c>
+      <c r="C503">
+        <v>400</v>
+      </c>
+      <c r="D503" s="3">
+        <v>1431.6760914415925</v>
+      </c>
+      <c r="F503" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B504" s="3">
+        <v>596.30234083137611</v>
+      </c>
+      <c r="C504">
+        <v>50</v>
+      </c>
+      <c r="D504" s="3">
+        <v>298.15117041568806</v>
+      </c>
+      <c r="F504" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>513</v>
+      </c>
+      <c r="B505" s="3">
+        <v>176.05994409747044</v>
+      </c>
+      <c r="C505">
+        <v>500</v>
+      </c>
+      <c r="D505" s="3">
+        <v>880.29972048735215</v>
+      </c>
+      <c r="F505" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>514</v>
+      </c>
+      <c r="B506" s="3">
+        <v>169.2549868162881</v>
+      </c>
+      <c r="C506">
+        <v>450</v>
+      </c>
+      <c r="D506" s="3">
+        <v>761.64744067329639</v>
+      </c>
+      <c r="F506" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>515</v>
+      </c>
+      <c r="B507" s="3">
+        <v>126.35908682580457</v>
+      </c>
+      <c r="C507">
+        <v>400</v>
+      </c>
+      <c r="D507" s="3">
+        <v>505.43634730321827</v>
+      </c>
+      <c r="F507" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>516</v>
+      </c>
+      <c r="B508" s="3">
+        <v>291.5540934880687</v>
+      </c>
+      <c r="C508">
+        <v>200</v>
+      </c>
+      <c r="D508" s="3">
+        <v>583.1081869761374</v>
+      </c>
+      <c r="F508" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>517</v>
+      </c>
+      <c r="B509" s="3">
+        <v>59.79980984426529</v>
+      </c>
+      <c r="C509">
+        <v>500</v>
+      </c>
+      <c r="D509" s="3">
+        <v>298.99904922132646</v>
+      </c>
+      <c r="F509" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>518</v>
+      </c>
+      <c r="B510" s="3">
+        <v>772.41037351381658</v>
+      </c>
+      <c r="C510">
+        <v>250</v>
+      </c>
+      <c r="D510" s="3">
+        <v>1931.0259337845414</v>
+      </c>
+      <c r="F510" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>519</v>
+      </c>
+      <c r="B511" s="3">
+        <v>38.118011649298857</v>
+      </c>
+      <c r="C511">
+        <v>200</v>
+      </c>
+      <c r="D511" s="3">
+        <f>B511*2</f>
+        <v>76.236023298597715</v>
+      </c>
+      <c r="F511" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>520</v>
+      </c>
+      <c r="B512" s="3">
+        <v>73.925500834528108</v>
+      </c>
+      <c r="C512">
+        <v>200</v>
+      </c>
+      <c r="D512" s="3">
+        <v>147.85100166905622</v>
+      </c>
+      <c r="F512" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>521</v>
+      </c>
+      <c r="B513" s="3">
+        <v>94.519518550353808</v>
+      </c>
+      <c r="C513">
+        <v>500</v>
+      </c>
+      <c r="D513" s="3">
+        <v>472.59759275176907</v>
+      </c>
+      <c r="F513" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>522</v>
+      </c>
+      <c r="B514" s="3">
+        <v>233.71435568150488</v>
+      </c>
+      <c r="C514">
+        <v>150</v>
+      </c>
+      <c r="D514" s="3">
+        <v>350.57153352225731</v>
+      </c>
+      <c r="F514" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>523</v>
+      </c>
+      <c r="B515" s="3">
+        <v>54.813128231837617</v>
+      </c>
+      <c r="C515">
+        <v>1000</v>
+      </c>
+      <c r="D515" s="3">
+        <v>548.13128231837618</v>
+      </c>
+      <c r="F515" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>524</v>
+      </c>
+      <c r="B516" s="3">
+        <v>73.925500834528108</v>
+      </c>
+      <c r="C516">
+        <v>500</v>
+      </c>
+      <c r="D516" s="3">
+        <v>369.62750417264056</v>
+      </c>
+      <c r="F516" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>525</v>
+      </c>
+      <c r="B517" s="3">
+        <v>21.674118734526314</v>
+      </c>
+      <c r="C517">
+        <v>1000</v>
+      </c>
+      <c r="D517" s="3">
+        <v>216.74118734526314</v>
+      </c>
+      <c r="F517" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="708" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68DDE5A0-85FE-44CD-8520-E231BFF3BE97}"/>
+  <xr:revisionPtr revIDLastSave="742" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33659264-0FCA-4916-8B09-45E45518E3E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1575D379-9279-429E-8A00-2E1BF894E283}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="1071">
   <si>
     <t>typical_weight</t>
   </si>
@@ -2143,9 +2143,6 @@
     <t>Käfer Pinot Grigio Italien trocken 12% Vol.</t>
   </si>
   <si>
-    <t>Lillet rose</t>
-  </si>
-  <si>
     <t>Chavroux Ziegenfrischkäse 45% i.Tr.</t>
   </si>
   <si>
@@ -3242,6 +3239,18 @@
   </si>
   <si>
     <t>AMY - Syrah Grenache IGP Pays DOc Bio 14% Vol.</t>
+  </si>
+  <si>
+    <t>Schnaps</t>
+  </si>
+  <si>
+    <t>Erdnüsse</t>
+  </si>
+  <si>
+    <t>Energy Drink</t>
+  </si>
+  <si>
+    <t>Ros</t>
   </si>
 </sst>
 </file>
@@ -3643,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}">
   <dimension ref="A1:F1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A1042" sqref="A1042:XFD1043"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="E441" sqref="E441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11050,6 +11059,9 @@
       <c r="D435" s="3">
         <v>1404.2583279638941</v>
       </c>
+      <c r="E435" t="s">
+        <v>288</v>
+      </c>
       <c r="F435" t="s">
         <v>381</v>
       </c>
@@ -11067,6 +11079,9 @@
       <c r="D436" s="3">
         <v>1404.2583279638941</v>
       </c>
+      <c r="E436" t="s">
+        <v>288</v>
+      </c>
       <c r="F436" t="s">
         <v>381</v>
       </c>
@@ -11084,6 +11099,9 @@
       <c r="D437" s="3">
         <v>1404.2583279638941</v>
       </c>
+      <c r="E437" t="s">
+        <v>286</v>
+      </c>
       <c r="F437" t="s">
         <v>381</v>
       </c>
@@ -11101,6 +11119,9 @@
       <c r="D438" s="3">
         <v>1404.2583279638941</v>
       </c>
+      <c r="E438" t="s">
+        <v>286</v>
+      </c>
       <c r="F438" t="s">
         <v>381</v>
       </c>
@@ -11118,6 +11139,9 @@
       <c r="D439" s="3">
         <v>1404.2583279638941</v>
       </c>
+      <c r="E439" t="s">
+        <v>288</v>
+      </c>
       <c r="F439" t="s">
         <v>381</v>
       </c>
@@ -11135,6 +11159,9 @@
       <c r="D440" s="3">
         <v>1404.2583279638941</v>
       </c>
+      <c r="E440" t="s">
+        <v>288</v>
+      </c>
       <c r="F440" t="s">
         <v>381</v>
       </c>
@@ -11152,6 +11179,9 @@
       <c r="D441" s="3">
         <v>1429.2361778079846</v>
       </c>
+      <c r="E441" t="s">
+        <v>1067</v>
+      </c>
       <c r="F441" t="s">
         <v>381</v>
       </c>
@@ -11169,6 +11199,9 @@
       <c r="D442" s="3">
         <v>1429.2361778079846</v>
       </c>
+      <c r="E442" t="s">
+        <v>1067</v>
+      </c>
       <c r="F442" t="s">
         <v>381</v>
       </c>
@@ -11186,6 +11219,9 @@
       <c r="D443" s="3">
         <v>1429.2361778079846</v>
       </c>
+      <c r="E443" t="s">
+        <v>1067</v>
+      </c>
       <c r="F443" t="s">
         <v>381</v>
       </c>
@@ -11237,6 +11273,9 @@
       <c r="D446" s="3">
         <v>298.99904922132646</v>
       </c>
+      <c r="E446" t="s">
+        <v>397</v>
+      </c>
       <c r="F446" t="s">
         <v>381</v>
       </c>
@@ -11271,6 +11310,9 @@
       <c r="D448" s="3">
         <v>298.15117041568806</v>
       </c>
+      <c r="E448" t="s">
+        <v>242</v>
+      </c>
       <c r="F448" t="s">
         <v>383</v>
       </c>
@@ -11288,6 +11330,9 @@
       <c r="D449" s="3">
         <v>793.77445499452438</v>
       </c>
+      <c r="E449" t="s">
+        <v>257</v>
+      </c>
       <c r="F449" t="s">
         <v>382</v>
       </c>
@@ -11322,6 +11367,9 @@
       <c r="D451" s="3">
         <v>1931.0259337845414</v>
       </c>
+      <c r="E451" t="s">
+        <v>457</v>
+      </c>
       <c r="F451" t="s">
         <v>382</v>
       </c>
@@ -11339,6 +11387,9 @@
       <c r="D452" s="3">
         <v>161.65901790892019</v>
       </c>
+      <c r="E452" t="s">
+        <v>390</v>
+      </c>
       <c r="F452" t="s">
         <v>383</v>
       </c>
@@ -11356,6 +11407,9 @@
       <c r="D453" s="3">
         <v>161.65901790892019</v>
       </c>
+      <c r="E453" t="s">
+        <v>390</v>
+      </c>
       <c r="F453" t="s">
         <v>383</v>
       </c>
@@ -11373,6 +11427,9 @@
       <c r="D454" s="3">
         <v>161.65901790892019</v>
       </c>
+      <c r="E454" t="s">
+        <v>390</v>
+      </c>
       <c r="F454" t="s">
         <v>383</v>
       </c>
@@ -11969,6 +12026,9 @@
       <c r="D489" s="3">
         <v>284.29040935617797</v>
       </c>
+      <c r="E489" t="s">
+        <v>318</v>
+      </c>
       <c r="F489" t="s">
         <v>383</v>
       </c>
@@ -11986,6 +12046,9 @@
       <c r="D490" s="3">
         <v>548.13128231837618</v>
       </c>
+      <c r="E490" t="s">
+        <v>522</v>
+      </c>
       <c r="F490" t="s">
         <v>381</v>
       </c>
@@ -12003,6 +12066,9 @@
       <c r="D491" s="3">
         <v>626.18160004195568</v>
       </c>
+      <c r="E491" t="s">
+        <v>1068</v>
+      </c>
       <c r="F491" t="s">
         <v>383</v>
       </c>
@@ -12037,6 +12103,9 @@
       <c r="D493" s="3">
         <v>1404.2583279638941</v>
       </c>
+      <c r="E493" t="s">
+        <v>1070</v>
+      </c>
       <c r="F493" t="s">
         <v>381</v>
       </c>
@@ -12054,6 +12123,9 @@
       <c r="D494" s="3">
         <v>1544.8208</v>
       </c>
+      <c r="E494" t="s">
+        <v>517</v>
+      </c>
       <c r="F494" t="s">
         <v>382</v>
       </c>
@@ -12071,6 +12143,9 @@
       <c r="D495" s="3">
         <v>980.09416594910522</v>
       </c>
+      <c r="E495" t="s">
+        <v>27</v>
+      </c>
       <c r="F495" t="s">
         <v>382</v>
       </c>
@@ -12190,6 +12265,9 @@
       <c r="D502" s="3">
         <v>298.99904922132646</v>
       </c>
+      <c r="E502" t="s">
+        <v>397</v>
+      </c>
       <c r="F502" t="s">
         <v>381</v>
       </c>
@@ -12224,6 +12302,9 @@
       <c r="D504" s="3">
         <v>298.15117041568806</v>
       </c>
+      <c r="E504" t="s">
+        <v>242</v>
+      </c>
       <c r="F504" t="s">
         <v>383</v>
       </c>
@@ -12241,6 +12322,9 @@
       <c r="D505" s="3">
         <v>880.29972048735215</v>
       </c>
+      <c r="E505" t="s">
+        <v>24</v>
+      </c>
       <c r="F505" t="s">
         <v>383</v>
       </c>
@@ -12275,6 +12359,9 @@
       <c r="D507" s="3">
         <v>505.43634730321827</v>
       </c>
+      <c r="E507" t="s">
+        <v>488</v>
+      </c>
       <c r="F507" t="s">
         <v>383</v>
       </c>
@@ -12292,6 +12379,9 @@
       <c r="D508" s="3">
         <v>583.1081869761374</v>
       </c>
+      <c r="E508" t="s">
+        <v>395</v>
+      </c>
       <c r="F508" t="s">
         <v>382</v>
       </c>
@@ -12309,6 +12399,9 @@
       <c r="D509" s="3">
         <v>298.99904922132646</v>
       </c>
+      <c r="E509" t="s">
+        <v>397</v>
+      </c>
       <c r="F509" t="s">
         <v>381</v>
       </c>
@@ -12498,6 +12591,9 @@
       <c r="D520" s="3">
         <v>417</v>
       </c>
+      <c r="E520" t="s">
+        <v>275</v>
+      </c>
       <c r="F520" t="s">
         <v>383</v>
       </c>
@@ -12566,6 +12662,9 @@
       <c r="D524" s="3">
         <v>1429.2361778079846</v>
       </c>
+      <c r="E524" t="s">
+        <v>1067</v>
+      </c>
       <c r="F524" t="s">
         <v>381</v>
       </c>
@@ -12583,6 +12682,9 @@
       <c r="D525" s="3">
         <v>132.52812628322221</v>
       </c>
+      <c r="E525" t="s">
+        <v>1069</v>
+      </c>
       <c r="F525" t="s">
         <v>381</v>
       </c>
@@ -12719,6 +12821,9 @@
       <c r="D533" s="3">
         <v>407</v>
       </c>
+      <c r="E533" t="s">
+        <v>306</v>
+      </c>
       <c r="F533" t="s">
         <v>381</v>
       </c>
@@ -12930,7 +13035,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B546" s="8">
         <v>214.27348726536511</v>
@@ -12948,7 +13053,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B547" s="3">
         <v>65.246146832503271</v>
@@ -12965,7 +13070,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B548" s="3">
         <v>107.77267860594679</v>
@@ -12982,7 +13087,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B549" s="3">
         <v>772.41037351381658</v>
@@ -13002,7 +13107,7 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B550" s="3">
         <v>772.41037351381658</v>
@@ -13022,7 +13127,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B551" s="3">
         <v>83.591185835820013</v>
@@ -13042,7 +13147,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B552" s="3">
         <v>108.33031475499141</v>
@@ -13062,7 +13167,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B553" s="3">
         <v>772.41037351381658</v>
@@ -13082,7 +13187,7 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B554" s="3">
         <v>37.066018076956333</v>
@@ -13102,7 +13207,7 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B555" s="3">
         <v>189.5269395707852</v>
@@ -13122,7 +13227,7 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B556" s="3">
         <v>189.5269395707852</v>
@@ -13142,7 +13247,7 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B557" s="3">
         <v>21.674118734526314</v>
@@ -13162,7 +13267,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B558" s="3">
         <v>36.894872486866866</v>
@@ -13182,7 +13287,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B559" s="3">
         <v>60.78940239538035</v>
@@ -13222,7 +13327,7 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B561" s="3">
         <v>98.234837170729406</v>
@@ -13962,7 +14067,7 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B598" s="3">
         <v>60.624986466568899</v>
@@ -13982,7 +14087,7 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B599" s="3">
         <v>60.624986466568899</v>
@@ -14002,7 +14107,7 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B600" s="3">
         <v>60.624986466568899</v>
@@ -14022,7 +14127,7 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B601" s="3">
         <v>60.624986466568899</v>
@@ -14122,7 +14227,7 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B606" s="3">
         <v>108.33031475499141</v>
@@ -14142,7 +14247,7 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B607" s="3">
         <v>108.33031475499141</v>
@@ -15762,7 +15867,7 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B688" s="3">
         <v>373.88590330062442</v>
@@ -15782,7 +15887,7 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B689" s="3">
         <v>373.88590330062442</v>
@@ -15802,7 +15907,7 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B690" s="3">
         <v>373.88590330062442</v>
@@ -15822,7 +15927,7 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B691" s="3">
         <v>373.88590330062442</v>
@@ -16122,7 +16227,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B706" s="3">
         <v>216.46700440415407</v>
@@ -16174,7 +16279,7 @@
         <v>1310.6411060996345</v>
       </c>
       <c r="E708" t="s">
-        <v>701</v>
+        <v>287</v>
       </c>
       <c r="F708" t="s">
         <v>381</v>
@@ -16194,7 +16299,7 @@
         <v>1310.6411060996345</v>
       </c>
       <c r="E709" t="s">
-        <v>701</v>
+        <v>287</v>
       </c>
       <c r="F709" t="s">
         <v>381</v>
@@ -16202,7 +16307,7 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B710" s="3">
         <v>187.23444372851921</v>
@@ -16322,7 +16427,7 @@
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B716" s="3">
         <v>187.23444372851921</v>
@@ -16362,7 +16467,7 @@
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B718" s="3">
         <v>187.23444372851921</v>
@@ -16382,7 +16487,7 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B719" s="3">
         <v>187.23444372851921</v>
@@ -16422,7 +16527,7 @@
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B721" s="3">
         <v>187.23444372851921</v>
@@ -16442,7 +16547,7 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B722" s="3">
         <v>59.415466220075693</v>
@@ -16462,7 +16567,7 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B723" s="3">
         <v>291.5540934880687</v>
@@ -16482,7 +16587,7 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B724" s="3">
         <v>314.96783356262375</v>
@@ -16502,7 +16607,7 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B725" s="3">
         <v>192.70310837583159</v>
@@ -16522,7 +16627,7 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B726" s="3">
         <v>772.41037351381658</v>
@@ -16542,7 +16647,7 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B727" s="3">
         <v>772.41037351381658</v>
@@ -16562,7 +16667,7 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B728" s="3">
         <v>70.12458970785093</v>
@@ -16582,7 +16687,7 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B729" s="3">
         <v>70.12458970785093</v>
@@ -16602,7 +16707,7 @@
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B730" s="3">
         <v>48.250870205400091</v>
@@ -16622,7 +16727,7 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B731" s="3">
         <v>70.542221595431471</v>
@@ -16642,7 +16747,7 @@
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B732" s="3">
         <v>94.251251635337894</v>
@@ -16662,7 +16767,7 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B733" s="3">
         <v>94.251251635337894</v>
@@ -16682,7 +16787,7 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B734" s="3">
         <v>73.925500834528108</v>
@@ -16702,7 +16807,7 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B735" s="3">
         <v>73.925500834528108</v>
@@ -16722,7 +16827,7 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B736" s="3">
         <v>337.70028920197637</v>
@@ -16742,7 +16847,7 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B737" s="3">
         <v>382.90853047647829</v>
@@ -16762,7 +16867,7 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B738" s="3">
         <v>128.26324010231602</v>
@@ -16782,7 +16887,7 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B739" s="3">
         <v>1188.7820442272243</v>
@@ -16802,7 +16907,7 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B740" s="3">
         <v>47.059589755488417</v>
@@ -16822,7 +16927,7 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B741" s="3">
         <v>89.887004185173737</v>
@@ -16842,7 +16947,7 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B742" s="3">
         <v>83.478029857749547</v>
@@ -16862,7 +16967,7 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B743" s="3">
         <v>772.41037351381658</v>
@@ -16882,7 +16987,7 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B744" s="3">
         <v>115.25106608475717</v>
@@ -16902,7 +17007,7 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B745" s="3">
         <v>115.25106608475717</v>
@@ -16922,7 +17027,7 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B746" s="3">
         <v>115.25106608475717</v>
@@ -16942,7 +17047,7 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B747" s="3">
         <v>87.983541076766542</v>
@@ -16962,7 +17067,7 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B748" s="3">
         <v>38.263724852863554</v>
@@ -16982,7 +17087,7 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B749" s="3">
         <v>29.590500982275863</v>
@@ -17002,7 +17107,7 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B750" s="3">
         <v>181.01987947210236</v>
@@ -17022,7 +17127,7 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B751" s="3">
         <v>181.01987947210236</v>
@@ -17042,7 +17147,7 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B752" s="3">
         <v>1770.7523000000001</v>
@@ -17062,7 +17167,7 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B753" s="3">
         <v>1770.7523000000001</v>
@@ -17082,7 +17187,7 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B754" s="3">
         <v>3251.4568098666437</v>
@@ -17102,7 +17207,7 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B755" s="3">
         <v>3251.4568098666437</v>
@@ -17122,7 +17227,7 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B756" s="3">
         <v>357.91902286039812</v>
@@ -17142,7 +17247,7 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B757" s="3">
         <v>181.01987947210236</v>
@@ -17162,7 +17267,7 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B758" s="3">
         <v>289.74519896693471</v>
@@ -17182,7 +17287,7 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B759" s="3">
         <v>357.91902286039812</v>
@@ -17202,7 +17307,7 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B760" s="3">
         <v>772.41037351381658</v>
@@ -17222,7 +17327,7 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B761" s="3">
         <v>772.41037351381658</v>
@@ -17242,7 +17347,7 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B762" s="3">
         <v>152.54256985208332</v>
@@ -17262,7 +17367,7 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B763" s="3">
         <v>152.54256985208332</v>
@@ -17282,7 +17387,7 @@
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B764" s="3">
         <v>296.19413268215249</v>
@@ -17302,7 +17407,7 @@
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B765" s="3">
         <v>315.28464388901989</v>
@@ -17322,7 +17427,7 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B766" s="3">
         <v>296.19413268215249</v>
@@ -17342,7 +17447,7 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B767" s="3">
         <v>64.317314172891074</v>
@@ -17362,7 +17467,7 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B768" s="3">
         <v>187.23444372851921</v>
@@ -17382,7 +17487,7 @@
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B769" s="3">
         <v>187.23444372851921</v>
@@ -17402,7 +17507,7 @@
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B770" s="3">
         <v>109.71013162384457</v>
@@ -17422,7 +17527,7 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B771" s="3">
         <v>187.23444372851921</v>
@@ -17442,7 +17547,7 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B772" s="3">
         <v>187.23444372851921</v>
@@ -17462,7 +17567,7 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B773" s="3">
         <v>187.23444372851921</v>
@@ -17482,7 +17587,7 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B774" s="3">
         <v>187.23444372851921</v>
@@ -17502,7 +17607,7 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B775" s="3">
         <v>187.23444372851921</v>
@@ -17522,7 +17627,7 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B776" s="3">
         <v>187.23444372851921</v>
@@ -17542,7 +17647,7 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B777" s="3">
         <v>187.23444372851921</v>
@@ -17562,7 +17667,7 @@
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B778" s="3">
         <v>21.674118734526314</v>
@@ -17582,7 +17687,7 @@
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B779" s="3">
         <v>94.519518550353808</v>
@@ -17602,7 +17707,7 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B780" s="3">
         <v>382.90168199918543</v>
@@ -17622,7 +17727,7 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B781" s="3">
         <v>56.156606169667654</v>
@@ -17642,7 +17747,7 @@
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B782" s="3">
         <v>65.7389581155619</v>
@@ -17662,7 +17767,7 @@
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B783" s="3">
         <v>106.62398325080156</v>
@@ -17682,7 +17787,7 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B784" s="3">
         <v>51.87259930414038</v>
@@ -17702,7 +17807,7 @@
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B785" s="3">
         <v>60.624986466568899</v>
@@ -17722,7 +17827,7 @@
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B786" s="3">
         <v>60.624986466568899</v>
@@ -17742,7 +17847,7 @@
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B787" s="3">
         <v>90.722046659706265</v>
@@ -17762,7 +17867,7 @@
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B788" s="3">
         <v>290.51358026671596</v>
@@ -17782,7 +17887,7 @@
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B789" s="3">
         <v>83.981138676786529</v>
@@ -17802,7 +17907,7 @@
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B790" s="3">
         <v>94.519518550353808</v>
@@ -17822,7 +17927,7 @@
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B791" s="3">
         <v>81.07479748926427</v>
@@ -17842,7 +17947,7 @@
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B792" s="3">
         <v>21.674118734526314</v>
@@ -17862,7 +17967,7 @@
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B793" s="3">
         <v>25.228645250900719</v>
@@ -17882,7 +17987,7 @@
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B794" s="3">
         <v>31.009666922689743</v>
@@ -17902,7 +18007,7 @@
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B795" s="3">
         <v>185.30189856739705</v>
@@ -17922,7 +18027,7 @@
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B796" s="3">
         <v>21.674118734526314</v>
@@ -17942,7 +18047,7 @@
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B797" s="3">
         <v>216.46700440415407</v>
@@ -17962,7 +18067,7 @@
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B798" s="3">
         <v>216.46700440415407</v>
@@ -17982,7 +18087,7 @@
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B799" s="3">
         <v>216.46700440415407</v>
@@ -18002,7 +18107,7 @@
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B800" s="3">
         <v>216.46700440415407</v>
@@ -18022,7 +18127,7 @@
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B801" s="3">
         <v>216.46700440415407</v>
@@ -18042,7 +18147,7 @@
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B802" s="3">
         <v>73.925500834528108</v>
@@ -18062,7 +18167,7 @@
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B803" s="3">
         <v>73.925500834528108</v>
@@ -18082,7 +18187,7 @@
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B804" s="3">
         <v>61.782120641021471</v>
@@ -18102,7 +18207,7 @@
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B805" s="3">
         <v>73.925500834528094</v>
@@ -18122,7 +18227,7 @@
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B806" s="3">
         <v>73.925500834528094</v>
@@ -18142,7 +18247,7 @@
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B807" s="3">
         <v>73.925500834528108</v>
@@ -18162,7 +18267,7 @@
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B808" s="3">
         <v>73.925500834528108</v>
@@ -18182,7 +18287,7 @@
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B809" s="3">
         <v>73.925500834528108</v>
@@ -18202,7 +18307,7 @@
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B810" s="3">
         <v>73.925500834528094</v>
@@ -18222,7 +18327,7 @@
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B811" s="3">
         <v>73.925500834528108</v>
@@ -18242,7 +18347,7 @@
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B812" s="3">
         <v>73.925500834528094</v>
@@ -18262,7 +18367,7 @@
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B813" s="3">
         <v>73.925500834528108</v>
@@ -18282,7 +18387,7 @@
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B814" s="3">
         <v>73.925500834528108</v>
@@ -18302,7 +18407,7 @@
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B815" s="3">
         <v>61.782120641021471</v>
@@ -18322,7 +18427,7 @@
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B816" s="3">
         <v>73.925500834528108</v>
@@ -18342,7 +18447,7 @@
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B817" s="3">
         <v>73.925500834528108</v>
@@ -18362,7 +18467,7 @@
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B818" s="3">
         <v>73.925500834528108</v>
@@ -18382,7 +18487,7 @@
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B819" s="3">
         <v>73.925500834528108</v>
@@ -18402,7 +18507,7 @@
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B820" s="3">
         <v>73.925500834528108</v>
@@ -18422,7 +18527,7 @@
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B821" s="3">
         <v>73.925500834528108</v>
@@ -18442,7 +18547,7 @@
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B822" s="3">
         <v>107.83823141273871</v>
@@ -18462,7 +18567,7 @@
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B823" s="3">
         <v>156.3350221886551</v>
@@ -18482,7 +18587,7 @@
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B824" s="3">
         <v>60.624986466568899</v>
@@ -18502,7 +18607,7 @@
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B825" s="3">
         <v>37.066018076956333</v>
@@ -18522,7 +18627,7 @@
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B826" s="3">
         <v>37.066018076956333</v>
@@ -18542,7 +18647,7 @@
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B827" s="3">
         <v>37.066018076956333</v>
@@ -18562,7 +18667,7 @@
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B828" s="3">
         <v>37.066018076956333</v>
@@ -18582,7 +18687,7 @@
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B829" s="3">
         <v>37.066018076956333</v>
@@ -18602,7 +18707,7 @@
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B830" s="3">
         <v>108.33031475499141</v>
@@ -18622,7 +18727,7 @@
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B831" s="3">
         <v>60.624986466568899</v>
@@ -18642,7 +18747,7 @@
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B832" s="3">
         <v>60.624986466568899</v>
@@ -18662,7 +18767,7 @@
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B833" s="3">
         <v>60.624986466568899</v>
@@ -18682,7 +18787,7 @@
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B834" s="3">
         <v>60.624986466568899</v>
@@ -18702,7 +18807,7 @@
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B835" s="3">
         <v>48.417548951913467</v>
@@ -18722,7 +18827,7 @@
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B836" s="3">
         <v>48.417548951913467</v>
@@ -18742,7 +18847,7 @@
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B837" s="3">
         <v>37.066018076956333</v>
@@ -18762,7 +18867,7 @@
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B838" s="3">
         <v>92.533937964152443</v>
@@ -18782,7 +18887,7 @@
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B839" s="3">
         <v>64.625979880627611</v>
@@ -18802,7 +18907,7 @@
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B840" s="3">
         <v>150.20419422360769</v>
@@ -18822,7 +18927,7 @@
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B841" s="3">
         <v>150.20419422360769</v>
@@ -18842,7 +18947,7 @@
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B842" s="3">
         <v>284.55090963136053</v>
@@ -18862,7 +18967,7 @@
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B843" s="3">
         <v>284.55090963136053</v>
@@ -18882,7 +18987,7 @@
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B844" s="3">
         <v>180.09092597590936</v>
@@ -18902,7 +19007,7 @@
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B845" s="3">
         <v>180.09092597590936</v>
@@ -18922,7 +19027,7 @@
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B846" s="3">
         <v>180.09092597590936</v>
@@ -18942,7 +19047,7 @@
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B847" s="3">
         <v>180.09092597590936</v>
@@ -18962,7 +19067,7 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B848" s="3">
         <v>180.09092597590936</v>
@@ -18982,7 +19087,7 @@
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B849" s="3">
         <v>180.09092597590936</v>
@@ -19002,7 +19107,7 @@
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B850" s="3">
         <v>180.09092597590936</v>
@@ -19022,7 +19127,7 @@
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B851" s="3">
         <v>180.09092597590936</v>
@@ -19042,7 +19147,7 @@
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B852" s="3">
         <v>284.55090963136053</v>
@@ -19062,7 +19167,7 @@
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B853" s="3">
         <v>77.458491537051387</v>
@@ -19082,7 +19187,7 @@
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B854" s="3">
         <v>397.09658434909136</v>
@@ -19102,7 +19207,7 @@
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B855" s="3">
         <v>397.09658434909136</v>
@@ -19122,7 +19227,7 @@
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B856" s="3">
         <v>392.03766637964208</v>
@@ -19142,7 +19247,7 @@
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B857" s="3">
         <v>379.97386298482741</v>
@@ -19162,7 +19267,7 @@
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B858" s="3">
         <v>379.97386298482741</v>
@@ -19182,7 +19287,7 @@
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B859" s="3">
         <v>392.03766637964208</v>
@@ -19202,7 +19307,7 @@
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B860" s="3">
         <v>392.03766637964208</v>
@@ -19222,7 +19327,7 @@
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B861" s="3">
         <v>392.03766637964208</v>
@@ -19242,7 +19347,7 @@
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B862" s="3">
         <v>392.03766637964208</v>
@@ -19262,7 +19367,7 @@
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B863" s="3">
         <v>291.5540934880687</v>
@@ -19282,7 +19387,7 @@
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B864" s="3">
         <v>772.41037351381658</v>
@@ -19302,7 +19407,7 @@
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B865" s="3">
         <v>772.41037351381658</v>
@@ -19322,7 +19427,7 @@
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B866" s="3">
         <v>772.41037351381658</v>
@@ -19342,7 +19447,7 @@
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B867" s="3">
         <v>291.5540934880687</v>
@@ -19362,7 +19467,7 @@
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B868" s="3">
         <v>772.41037351381658</v>
@@ -19382,7 +19487,7 @@
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B869" s="3">
         <v>772.41037351381658</v>
@@ -19402,7 +19507,7 @@
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B870" s="3">
         <v>772.41037351381658</v>
@@ -19422,7 +19527,7 @@
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B871" s="3">
         <v>291.5540934880687</v>
@@ -19442,7 +19547,7 @@
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B872" s="3">
         <v>291.5540934880687</v>
@@ -19462,7 +19567,7 @@
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B873" s="3">
         <v>772.41037351381658</v>
@@ -19482,7 +19587,7 @@
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B874" s="3">
         <v>132.10785813022346</v>
@@ -19502,7 +19607,7 @@
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B875" s="3">
         <v>164.13942618738039</v>
@@ -19522,7 +19627,7 @@
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B876" s="3">
         <v>216.46700440415407</v>
@@ -19542,7 +19647,7 @@
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B877" s="3">
         <v>216.46700440415407</v>
@@ -19562,7 +19667,7 @@
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B878" s="3">
         <v>164.13942618738039</v>
@@ -19582,7 +19687,7 @@
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B879" s="3">
         <v>108.33031475499141</v>
@@ -19602,7 +19707,7 @@
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B880" s="3">
         <v>108.33031475499141</v>
@@ -19622,7 +19727,7 @@
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B881" s="3">
         <v>108.33031475499141</v>
@@ -19642,7 +19747,7 @@
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B882" s="3">
         <v>38.118011649298857</v>
@@ -19662,7 +19767,7 @@
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B883" s="3">
         <v>38.118011649298857</v>
@@ -19682,7 +19787,7 @@
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B884" s="3">
         <v>349.80187468899044</v>
@@ -19702,7 +19807,7 @@
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B885" s="3">
         <v>349.80187468899044</v>
@@ -19722,7 +19827,7 @@
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B886" s="3">
         <v>125.18096166312343</v>
@@ -19742,7 +19847,7 @@
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B887" s="3">
         <v>125.18096166312343</v>
@@ -19762,7 +19867,7 @@
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B888" s="3">
         <v>108.33031475499141</v>
@@ -19782,7 +19887,7 @@
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B889" s="3">
         <v>108.33031475499141</v>
@@ -19802,7 +19907,7 @@
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B890" s="3">
         <v>108.33031475499141</v>
@@ -19822,7 +19927,7 @@
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B891" s="3">
         <v>108.33031475499141</v>
@@ -19842,7 +19947,7 @@
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B892" s="3">
         <v>108.33031475499141</v>
@@ -19862,7 +19967,7 @@
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B893" s="3">
         <v>108.33031475499141</v>
@@ -19882,7 +19987,7 @@
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B894" s="3">
         <v>108.33031475499141</v>
@@ -19902,7 +20007,7 @@
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B895" s="3">
         <v>343.5154680311332</v>
@@ -19922,7 +20027,7 @@
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B896" s="3">
         <v>318.0574017556246</v>
@@ -19942,7 +20047,7 @@
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B897" s="3">
         <v>479.57973327760567</v>
@@ -19962,7 +20067,7 @@
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B898" s="3">
         <v>162.79457539717424</v>
@@ -19982,7 +20087,7 @@
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B899" s="3">
         <v>176.05994409747044</v>
@@ -20002,7 +20107,7 @@
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B900" s="3">
         <v>176.05994409747044</v>
@@ -20022,7 +20127,7 @@
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B901" s="3">
         <v>176.05994409747044</v>
@@ -20042,7 +20147,7 @@
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B902" s="3">
         <v>176.05994409747044</v>
@@ -20062,7 +20167,7 @@
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B903" s="3">
         <v>176.05994409747044</v>
@@ -20082,7 +20187,7 @@
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B904" s="3">
         <v>151.31097330587934</v>
@@ -20102,7 +20207,7 @@
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B905" s="3">
         <v>176.05994409747044</v>
@@ -20122,7 +20227,7 @@
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B906" s="3">
         <v>176.05994409747044</v>
@@ -20142,7 +20247,7 @@
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B907" s="3">
         <v>176.05994409747044</v>
@@ -20162,7 +20267,7 @@
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B908" s="3">
         <v>176.05994409747044</v>
@@ -20182,7 +20287,7 @@
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B909" s="3">
         <v>211.91139374935486</v>
@@ -20202,7 +20307,7 @@
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B910" s="3">
         <v>176.05994409747044</v>
@@ -20222,7 +20327,7 @@
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B911" s="3">
         <v>176.05994409747044</v>
@@ -20242,7 +20347,7 @@
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B912" s="3">
         <v>94.519518550353808</v>
@@ -20262,7 +20367,7 @@
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B913" s="3">
         <v>94.519518550353808</v>
@@ -20282,7 +20387,7 @@
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B914" s="3">
         <v>94.519518550353808</v>
@@ -20302,7 +20407,7 @@
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B915" s="3">
         <v>94.519518550353808</v>
@@ -20322,7 +20427,7 @@
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B916" s="3">
         <v>176.05994409747044</v>
@@ -20342,7 +20447,7 @@
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B917" s="3">
         <v>176.05994409747044</v>
@@ -20362,7 +20467,7 @@
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B918" s="3">
         <v>176.05994409747044</v>
@@ -20382,7 +20487,7 @@
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B919" s="3">
         <v>176.05994409747044</v>
@@ -20402,7 +20507,7 @@
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B920" s="3">
         <v>169.53173602602533</v>
@@ -20422,7 +20527,7 @@
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B921" s="3">
         <v>176.05994409747044</v>
@@ -20442,7 +20547,7 @@
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B922" s="3">
         <v>176.05994409747044</v>
@@ -20462,7 +20567,7 @@
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B923" s="3">
         <v>176.05994409747044</v>
@@ -20482,7 +20587,7 @@
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B924" s="3">
         <v>176.05994409747044</v>
@@ -20502,7 +20607,7 @@
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B925" s="3">
         <v>81.543145110204193</v>
@@ -20522,7 +20627,7 @@
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B926" s="3">
         <v>81.543145110204193</v>
@@ -20542,7 +20647,7 @@
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B927" s="3">
         <v>317.51083185249956</v>
@@ -20562,7 +20667,7 @@
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B928" s="3">
         <v>317.51083185249956</v>
@@ -20582,7 +20687,7 @@
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B929" s="3">
         <v>81.543145110204193</v>
@@ -20602,7 +20707,7 @@
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B930" s="3">
         <v>81.543145110204193</v>
@@ -20622,7 +20727,7 @@
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B931" s="3">
         <v>81.543145110204193</v>
@@ -20642,7 +20747,7 @@
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B932" s="3">
         <v>81.543145110204193</v>
@@ -20662,7 +20767,7 @@
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B933" s="3">
         <v>317.51083185249956</v>
@@ -20682,7 +20787,7 @@
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B934" s="3">
         <v>317.51083185249956</v>
@@ -20702,7 +20807,7 @@
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B935" s="3">
         <v>317.51083185249956</v>
@@ -20722,7 +20827,7 @@
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B936" s="3">
         <v>317.51083185249956</v>
@@ -20742,7 +20847,7 @@
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B937" s="3">
         <v>317.51083185249956</v>
@@ -20762,7 +20867,7 @@
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B938" s="3">
         <v>317.51083185249956</v>
@@ -20782,7 +20887,7 @@
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B939" s="3">
         <v>317.51083185249956</v>
@@ -20802,7 +20907,7 @@
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B940" s="3">
         <v>317.51083185249956</v>
@@ -20822,7 +20927,7 @@
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B941" s="3">
         <v>317.51083185249956</v>
@@ -20842,7 +20947,7 @@
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B942" s="3">
         <v>317.51083185249956</v>
@@ -20862,7 +20967,7 @@
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B943" s="3">
         <v>317.51083185249956</v>
@@ -20882,7 +20987,7 @@
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B944" s="3">
         <v>317.51083185249956</v>
@@ -20902,7 +21007,7 @@
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B945" s="3">
         <v>317.51083185249956</v>
@@ -20922,7 +21027,7 @@
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B946" s="3">
         <v>317.51083185249956</v>
@@ -20942,7 +21047,7 @@
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B947" s="3">
         <v>317.51083185249956</v>
@@ -20962,7 +21067,7 @@
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B948" s="3">
         <v>317.51083185249956</v>
@@ -20982,7 +21087,7 @@
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B949" s="3">
         <v>317.51083185249956</v>
@@ -21002,7 +21107,7 @@
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B950" s="3">
         <v>317.51083185249956</v>
@@ -21022,7 +21127,7 @@
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B951" s="3">
         <v>317.51083185249956</v>
@@ -21042,7 +21147,7 @@
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B952" s="3">
         <v>317.51083185249956</v>
@@ -21062,7 +21167,7 @@
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B953" s="3">
         <v>317.51083185249956</v>
@@ -21082,7 +21187,7 @@
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B954" s="3">
         <v>317.51083185249956</v>
@@ -21102,7 +21207,7 @@
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B955" s="3">
         <v>317.51083185249956</v>
@@ -21122,7 +21227,7 @@
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B956" s="3">
         <v>317.51083185249956</v>
@@ -21142,7 +21247,7 @@
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B957" s="3">
         <v>1011.1088339668102</v>
@@ -21162,7 +21267,7 @@
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B958" s="3">
         <v>1011.1088339668102</v>
@@ -21182,7 +21287,7 @@
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B959" s="3">
         <v>317.51083185249956</v>
@@ -21202,7 +21307,7 @@
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B960" s="3">
         <v>317.51083185249956</v>
@@ -21222,7 +21327,7 @@
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B961" s="3">
         <v>317.51083185249956</v>
@@ -21242,7 +21347,7 @@
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B962" s="3">
         <v>1011.1088339668102</v>
@@ -21262,7 +21367,7 @@
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B963" s="3">
         <v>317.51083185249956</v>
@@ -21282,7 +21387,7 @@
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B964" s="3">
         <v>317.51083185249956</v>
@@ -21302,7 +21407,7 @@
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B965" s="3">
         <v>317.51083185249956</v>
@@ -21322,7 +21427,7 @@
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B966" s="3">
         <v>841.14941735933758</v>
@@ -21342,7 +21447,7 @@
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B967" s="3">
         <v>841.14941735933758</v>
@@ -21362,7 +21467,7 @@
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B968" s="3">
         <v>841.14941735933758</v>
@@ -21382,7 +21487,7 @@
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B969" s="3">
         <v>65.7389581155619</v>
@@ -21402,7 +21507,7 @@
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B970" s="3">
         <v>106.62398325080156</v>
@@ -21422,7 +21527,7 @@
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B971" s="3">
         <v>92.533937964152443</v>
@@ -21442,7 +21547,7 @@
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B972" s="3">
         <v>290.51358026671596</v>
@@ -21462,7 +21567,7 @@
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B973" s="3">
         <v>83.981138676786529</v>
@@ -21482,7 +21587,7 @@
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B974" s="3">
         <v>57.872890718271918</v>
@@ -21502,7 +21607,7 @@
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B975" s="3">
         <v>92.970616219949761</v>
@@ -21522,7 +21627,7 @@
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B976" s="3">
         <v>94.428012748225825</v>
@@ -21542,7 +21647,7 @@
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B977" s="3">
         <v>94.428012748225825</v>
@@ -21562,7 +21667,7 @@
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B978" s="3">
         <v>87.123641243634808</v>
@@ -21582,7 +21687,7 @@
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B979" s="3">
         <v>81.07479748926427</v>
@@ -21602,7 +21707,7 @@
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B980" s="3">
         <v>81.07479748926427</v>
@@ -21622,7 +21727,7 @@
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B981" s="3">
         <v>97.283728880828747</v>
@@ -21642,7 +21747,7 @@
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B982" s="3">
         <v>97.283728880828747</v>
@@ -21662,7 +21767,7 @@
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B983" s="3">
         <v>85.887129558960467</v>
@@ -21682,7 +21787,7 @@
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B984" s="3">
         <v>65.7389581155619</v>
@@ -21702,7 +21807,7 @@
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B985" s="3">
         <v>65.7389581155619</v>
@@ -21722,7 +21827,7 @@
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B986" s="3">
         <v>65.7389581155619</v>
@@ -21742,7 +21847,7 @@
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B987" s="3">
         <v>65.7389581155619</v>
@@ -21762,7 +21867,7 @@
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B988" s="3">
         <v>38.263724852863554</v>
@@ -21782,7 +21887,7 @@
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B989" s="3">
         <v>70.12458970785093</v>
@@ -21802,7 +21907,7 @@
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B990" s="3">
         <v>70.12458970785093</v>
@@ -21822,7 +21927,7 @@
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B991" s="3">
         <v>70.12458970785093</v>
@@ -21842,7 +21947,7 @@
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B992" s="3">
         <v>70.12458970785093</v>
@@ -21862,7 +21967,7 @@
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B993" s="3">
         <v>55.56717128051551</v>
@@ -21882,7 +21987,7 @@
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B994" s="3">
         <v>55.56717128051551</v>
@@ -21902,7 +22007,7 @@
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B995" s="3">
         <v>25.228645250900719</v>
@@ -21922,7 +22027,7 @@
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B996" s="3">
         <v>25.228645250900719</v>
@@ -21942,7 +22047,7 @@
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B997" s="3">
         <v>55.56717128051551</v>
@@ -21962,7 +22067,7 @@
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B998" s="3">
         <v>55.56717128051551</v>
@@ -21982,7 +22087,7 @@
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B999" s="3">
         <v>35.537759207231524</v>
@@ -22002,7 +22107,7 @@
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1000" s="3">
         <v>35.537759207231524</v>
@@ -22022,7 +22127,7 @@
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B1001" s="3">
         <v>35.537759207231524</v>
@@ -22042,7 +22147,7 @@
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B1002" s="3">
         <v>35.537759207231524</v>
@@ -22062,7 +22167,7 @@
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B1003" s="3">
         <v>35.537759207231524</v>
@@ -22082,7 +22187,7 @@
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B1004" s="3">
         <v>89.887004185173737</v>
@@ -22102,7 +22207,7 @@
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B1005" s="3">
         <v>89.887004185173737</v>
@@ -22122,7 +22227,7 @@
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B1006" s="3">
         <v>70.859804828108764</v>
@@ -22142,7 +22247,7 @@
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B1007" s="3">
         <v>70.859804828108764</v>
@@ -22162,7 +22267,7 @@
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B1008" s="3">
         <v>70.859804828108764</v>
@@ -22182,7 +22287,7 @@
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B1009" s="3">
         <v>47.059589755488417</v>
@@ -22202,7 +22307,7 @@
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1010" s="3">
         <v>16.920000000000002</v>
@@ -22222,7 +22327,7 @@
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B1011" s="3">
         <v>16.920000000000002</v>
@@ -22242,7 +22347,7 @@
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B1012" s="3">
         <v>87.983541076766542</v>
@@ -22262,7 +22367,7 @@
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B1013" s="3">
         <v>89.887004185173737</v>
@@ -22282,7 +22387,7 @@
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1014" s="3">
         <v>29.590500982275863</v>
@@ -22302,7 +22407,7 @@
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B1015" s="3">
         <v>101.79225458028007</v>
@@ -22322,7 +22427,7 @@
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B1016" s="3">
         <v>101.79225458028007</v>
@@ -22342,7 +22447,7 @@
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B1017" s="3">
         <v>101.79225458028007</v>
@@ -22362,7 +22467,7 @@
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B1018" s="3">
         <v>101.79225458028007</v>
@@ -22382,7 +22487,7 @@
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B1019" s="3">
         <v>132.56810640440403</v>
@@ -22402,7 +22507,7 @@
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B1020" s="3">
         <v>132.56810640440403</v>
@@ -22422,7 +22527,7 @@
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B1021" s="3">
         <v>97.467641693605003</v>
@@ -22442,7 +22547,7 @@
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B1022" s="3">
         <v>24.788707061870262</v>
@@ -22462,7 +22567,7 @@
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B1023" s="3">
         <v>24.788707061870262</v>
@@ -22482,7 +22587,7 @@
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B1024" s="3">
         <v>73.944693468931916</v>
@@ -22502,7 +22607,7 @@
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B1025" s="3">
         <v>25.228645250900719</v>
@@ -22522,7 +22627,7 @@
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B1026" s="3">
         <v>446.0872894423066</v>
@@ -22542,7 +22647,7 @@
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B1027" s="3">
         <v>24.788707061870262</v>
@@ -22562,7 +22667,7 @@
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B1028" s="3">
         <v>32.481980175241851</v>
@@ -22582,7 +22687,7 @@
     </row>
     <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B1029" s="3">
         <v>83.478029857749547</v>
@@ -22602,7 +22707,7 @@
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B1030" s="3">
         <v>60.89876298602141</v>
@@ -22622,7 +22727,7 @@
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B1031" s="3">
         <v>101.79225458028007</v>
@@ -22642,7 +22747,7 @@
     </row>
     <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B1032" s="3">
         <v>97.613510732824849</v>
@@ -22662,7 +22767,7 @@
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B1033" s="3">
         <v>59.415466220075693</v>
@@ -22682,7 +22787,7 @@
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B1034" s="3">
         <v>59.415466220075693</v>
@@ -22702,7 +22807,7 @@
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B1035" s="3">
         <v>59.415466220075693</v>
@@ -22722,7 +22827,7 @@
     </row>
     <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B1036" s="3">
         <v>59.415466220075693</v>
@@ -22742,7 +22847,7 @@
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1037" s="3">
         <v>59.415466220075693</v>
@@ -22762,7 +22867,7 @@
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1038" s="3">
         <v>59.415466220075693</v>
@@ -22782,7 +22887,7 @@
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B1039" s="3">
         <v>59.415466220075693</v>
@@ -22802,7 +22907,7 @@
     </row>
     <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B1040" s="3">
         <v>29.590500982275863</v>
@@ -22822,7 +22927,7 @@
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B1041" s="3">
         <v>36.894872486866866</v>
@@ -22842,7 +22947,7 @@
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B1042" s="3">
         <v>186.82453116750324</v>
@@ -22862,7 +22967,7 @@
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B1043" s="3">
         <v>401.13194099582915</v>
@@ -22882,7 +22987,7 @@
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B1044" s="3">
         <v>92.970616219949761</v>
@@ -22902,7 +23007,7 @@
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B1045" s="3">
         <v>434.65266189188264</v>
@@ -22922,7 +23027,7 @@
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B1046" s="3">
         <v>320.43649820993608</v>
@@ -22942,7 +23047,7 @@
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B1047" s="3">
         <v>186.82453116750324</v>
@@ -22962,7 +23067,7 @@
     </row>
     <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B1048" s="3">
         <v>401.13194099582915</v>
@@ -22982,7 +23087,7 @@
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1049" s="3">
         <v>401.13194099582915</v>
@@ -23002,7 +23107,7 @@
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B1050" s="3">
         <v>434.65266189188264</v>
@@ -23022,7 +23127,7 @@
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B1051" s="3">
         <v>320.43649820993608</v>
@@ -23042,7 +23147,7 @@
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B1052" s="3">
         <v>92.970616219949761</v>
@@ -23062,7 +23167,7 @@
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B1053" s="3">
         <v>401.13194099582915</v>
@@ -23082,7 +23187,7 @@
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B1054" s="3">
         <v>263.36467310346069</v>
@@ -23102,7 +23207,7 @@
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B1055" s="3">
         <v>176.90972163674201</v>
@@ -23122,7 +23227,7 @@
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B1056" s="3">
         <v>314.96783356262375</v>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="742" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33659264-0FCA-4916-8B09-45E45518E3E0}"/>
+  <xr:revisionPtr revIDLastSave="749" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{949C3F5E-45C5-4DA6-BDC7-C79F7319EDB3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1575D379-9279-429E-8A00-2E1BF894E283}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Grocery_footprint" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grocery_footprint!$A$1:$D$1056</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grocery_footprint!$A$1:$F$1056</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="1071">
   <si>
     <t>typical_weight</t>
   </si>
@@ -3652,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}">
   <dimension ref="A1:F1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="E441" sqref="E441"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C740" sqref="C740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12892,6 +12892,9 @@
       <c r="D537" s="3">
         <v>188.23835902195367</v>
       </c>
+      <c r="E537" t="s">
+        <v>389</v>
+      </c>
       <c r="F537" t="s">
         <v>379</v>
       </c>
@@ -23246,7 +23249,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1056" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}"/>
+  <autoFilter ref="A1:F1056" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -3652,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}">
   <dimension ref="A1:F1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C740" sqref="C740"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="A454" sqref="A454:A457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="749" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{949C3F5E-45C5-4DA6-BDC7-C79F7319EDB3}"/>
+  <xr:revisionPtr revIDLastSave="753" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59F17E7-CCCA-4CD6-83F3-27091F030B84}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1575D379-9279-429E-8A00-2E1BF894E283}"/>
+    <workbookView xWindow="9450" yWindow="1905" windowWidth="28800" windowHeight="11265" xr2:uid="{1575D379-9279-429E-8A00-2E1BF894E283}"/>
   </bookViews>
   <sheets>
     <sheet name="Grocery_footprint" sheetId="2" r:id="rId1"/>
@@ -3652,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}">
   <dimension ref="A1:F1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:A457"/>
+    <sheetView tabSelected="1" topLeftCell="A773" workbookViewId="0">
+      <selection activeCell="A778" sqref="A778:F778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="783" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D0D6207-8B05-44D9-8226-54D47F1CD0B6}"/>
+  <xr:revisionPtr revIDLastSave="800" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3677D1F-D11A-4580-B192-6D266AD7B0AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1575D379-9279-429E-8A00-2E1BF894E283}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="1080">
   <si>
     <t>typical_weight</t>
   </si>
@@ -3266,6 +3266,18 @@
   </si>
   <si>
     <t>Steak</t>
+  </si>
+  <si>
+    <t>Leergut</t>
+  </si>
+  <si>
+    <t>Leerg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEERG. MW </t>
+  </si>
+  <si>
+    <t>Pfand</t>
   </si>
 </sst>
 </file>
@@ -3675,10 +3687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}">
-  <dimension ref="A1:F1056"/>
+  <dimension ref="A1:F1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="E460" sqref="E460"/>
+    <sheetView tabSelected="1" topLeftCell="A1045" workbookViewId="0">
+      <selection activeCell="F1061" sqref="F1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23330,6 +23342,80 @@
         <v>98</v>
       </c>
       <c r="F1056" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1057" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1057" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1057" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1058" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1058" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1058" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1059" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1059" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1059" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1060" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1060" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1060" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1060" t="s">
         <v>382</v>
       </c>
     </row>

--- a/grocery_mapping.xlsx
+++ b/grocery_mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45f2a6c0e1abdcf/Dokumente/Count_prototype/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\OneDrive\Dokumente\Count_prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="800" documentId="8_{9643AA81-64B7-47EB-92E8-933800F6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3677D1F-D11A-4580-B192-6D266AD7B0AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9607D0-673F-4D0A-A4B0-EFEF541DDBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1575D379-9279-429E-8A00-2E1BF894E283}"/>
   </bookViews>
@@ -3689,8 +3689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D520EB4-329C-42ED-AA24-ED945CB71FA9}">
   <dimension ref="A1:F1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1045" workbookViewId="0">
-      <selection activeCell="F1061" sqref="F1061"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="D487" sqref="D487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12045,7 +12045,7 @@
         <v>400</v>
       </c>
       <c r="D486" s="3">
-        <v>15883.86</v>
+        <v>1588</v>
       </c>
       <c r="F486" t="s">
         <v>382</v>
